--- a/map.xlsx
+++ b/map.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,14 +436,14 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>polygon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>price</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>polygon</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>city_id</t>
@@ -461,7 +461,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>comapany_id</t>
+          <t>company_id</t>
         </is>
       </c>
     </row>
@@ -471,13 +471,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>[[-73.09575469645887, 7.093177038522624], [-73.09468346735501, 7.095615916414969], [-73.09371326921331, 7.095516154303069], [-73.09319143668188, 7.096960537694677], [-73.09404234315906, 7.098575035834423], [-73.0950945673357, 7.100417103744676], [-73.09634500982995, 7.09325841391779], [-73.09575469645887, 7.093177038522624]]</t>
         </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4200</v>
       </c>
       <c r="D2" t="n">
         <v>118</v>
@@ -498,13 +496,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2400</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>[[-73.12301723184085, 7.123215620626836], [-73.1236650708317, 7.1229329524735], [-73.12367035896318, 7.122901257315386], [-73.12772861718841, 7.121080103447647], [-73.12620923885986, 7.117236358128953], [-73.1245394254136, 7.117641513173962], [-73.12122183148321, 7.118832416098045], [-73.12301723184085, 7.123215620626836]]</t>
         </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2400</v>
       </c>
       <c r="D3" t="n">
         <v>118</v>
@@ -525,13 +521,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>[[-73.11984987557372, 7.116426952051023], [-73.12119452666415, 7.118809905570603], [-73.1219393099415, 7.118555865931412], [-73.12619787020853, 7.117223231342949], [-73.12527168688109, 7.114554222353001], [-73.12956297048079, 7.112331525418782], [-73.13151294359093, 7.117623816011644], [-73.13325092552697, 7.117069366850859], [-73.13433884467328, 7.116302271628607], [-73.13410163990274, 7.115824421736385], [-73.13444470921144, 7.115406355319543], [-73.13444391704233, 7.115000182380818], [-73.1339061400207, 7.113920752778187], [-73.13430287079319, 7.113650343249879], [-73.13568027349955, 7.111422030333584], [-73.13414650593405, 7.110267849271599], [-73.13691815547041, 7.110098032377048], [-73.13875250547376, 7.108557511199606], [-73.1412204326251, 7.106981058646189], [-73.14675785351304, 7.101956571461799], [-73.1475335553223, 7.097072086053377], [-73.14672685254384, 7.087788243418052], [-73.13558054578408, 7.089286627295477], [-73.1335805271583, 7.089603756936605], [-73.13119316673018, 7.090270374813073], [-73.1296626654753, 7.09054848448531], [-73.12845684918834, 7.09151827498039], [-73.12480778297366, 7.092375169936549], [-73.12411449168734, 7.092534185192587], [-73.12393776394237, 7.092381341467848], [-73.12380017131917, 7.092453912754015], [-73.12352468577322, 7.092599214000289], [-73.12344590189103, 7.092640767339938], [-73.1231481204632, 7.092746368132885], [-73.1228782567962, 7.092811316267793], [-73.12274658104283, 7.092803595866904], [-73.12266530685281, 7.092794975511512], [-73.11595387308522, 7.096019868140806], [-73.11459591820041, 7.095695105777158], [-73.11420128299216, 7.096141839036312], [-73.11373442673437, 7.097066930185805], [-73.11349468893525, 7.097396548985822], [-73.11309837894967, 7.098605233787926], [-73.11220305572635, 7.098557915757367], [-73.1113002902439, 7.09939265313662], [-73.11149764330041, 7.100065469762079], [-73.11133850862217, 7.100533605579565], [-73.11134233561687, 7.101265137887391], [-73.11120718061962, 7.101992665207707], [-73.11038006391378, 7.102646006908841], [-73.11000384732664, 7.103711485304731], [-73.10994811171824, 7.103975839729546], [-73.11013889087266, 7.104073052047641], [-73.11010801142311, 7.104587340620835], [-73.10957878386743, 7.10575780174903], [-73.10916939945953, 7.106410376237834], [-73.10849639036634, 7.107001168604863], [-73.108564922466, 7.108030674872274], [-73.10836465863296, 7.108787487163775], [-73.10827727153084, 7.10899882605612], [-73.10764077504685, 7.109705003201302], [-73.10763297109204, 7.109809559518333], [-73.10761081032315, 7.109993217148356], [-73.11097920900275, 7.109645627263551], [-73.11091045673415, 7.109584838437486], [-73.11480734715974, 7.113517729844168], [-73.11805136207735, 7.116901292446658], [-73.11812221123762, 7.116973174361247], [-73.11828252703013, 7.116903568782221], [-73.11868729742551, 7.116770470293085], [-73.1190907324748, 7.116649589341828], [-73.11984987557372, 7.116426952051023]]</t>
         </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3400</v>
       </c>
       <c r="D4" t="n">
         <v>118</v>
@@ -552,13 +546,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>[[-73.10761593780775, 7.110029648922469], [-73.10548500514345, 7.113702306087851], [-73.1049929209482, 7.11389874950539], [-73.10369264369233, 7.114360875819907], [-73.1035910553464, 7.114390501743531], [-73.10275671557795, 7.114910916877365], [-73.10330046287093, 7.116373234366455], [-73.10359840224356, 7.119225387710753], [-73.10323401987107, 7.119686168382367], [-73.09932452562528, 7.119731967971513], [-73.10581775083041, 7.127744957801867], [-73.10613691604496, 7.128115865925234], [-73.1067238825524, 7.128226907684275], [-73.10677981910389, 7.128315983284972], [-73.10682095816048, 7.128394451812834], [-73.10711078028747, 7.128833904076139], [-73.10753687859082, 7.129382267776815], [-73.10790281026519, 7.129927580985227], [-73.10682694355123, 7.129876568680979], [-73.1065496836838, 7.130170497579774], [-73.10665069281828, 7.130372762644193], [-73.1075008136164, 7.131301989463809], [-73.1079015053158, 7.131923068264904], [-73.1080939464298, 7.133262863075338], [-73.10760537042083, 7.134071917094281], [-73.10855723982426, 7.134292751701968], [-73.10989170418803, 7.134192239296227], [-73.1126275913765, 7.134348919447122], [-73.11281063526268, 7.130912671208504], [-73.11319435588084, 7.130854198629552], [-73.11596403659328, 7.128763306147891], [-73.11667261537468, 7.128456623213123], [-73.11665347853624, 7.128463681743718], [-73.11851419260555, 7.128060004653593], [-73.12027205013824, 7.125965080348476], [-73.12036336002417, 7.125960531578314], [-73.12056690473032, 7.12590363102526], [-73.12193774154785, 7.125405500646849], [-73.12389476233596, 7.123554667311767], [-73.12368994584199, 7.12292577570584], [-73.12301323062582, 7.123224140838512], [-73.12121764722326, 7.118833128035583], [-73.12120002536484, 7.118818012671581], [-73.11985172976793, 7.116434227990362], [-73.11813188237036, 7.117002332617952], [-73.11771188215458, 7.116558169328084], [-73.11657648134482, 7.115388255340207], [-73.1147704436965, 7.113517878012857], [-73.11092463308042, 7.109585217159069], [-73.10761593780775, 7.110029648922469]]</t>
         </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3400</v>
       </c>
       <c r="D5" t="n">
         <v>118</v>
@@ -579,13 +571,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6200</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>[[-73.10760194975013, 7.134071178248319], [-73.10808619796451, 7.133274286076671], [-73.10800950035679, 7.13268756243308], [-73.1079010258193, 7.131898981661329], [-73.10744007426285, 7.131221374969903], [-73.10664864587069, 7.130379467279347], [-73.10656308093654, 7.130187650255921], [-73.10686088203232, 7.129892347123808], [-73.10791417448725, 7.129931706593698], [-73.10671312720739, 7.1281993522994], [-73.1049328121973, 7.128479998802437], [-73.1041911088885, 7.128989491260308], [-73.10384236770182, 7.129754912814035], [-73.10275466251558, 7.129823118047795], [-73.10187090101972, 7.129607173085568], [-73.10146940827538, 7.129063820833026], [-73.10072372080049, 7.129265135605234], [-73.09698010527138, 7.133471823612014], [-73.10178873261466, 7.134902954023563], [-73.10363194686249, 7.133521171793242], [-73.10444930419943, 7.133692006391036], [-73.1068340514021, 7.13406694530057], [-73.10760194975013, 7.134071178248319]]</t>
         </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6200</v>
       </c>
       <c r="D6" t="n">
         <v>118</v>
@@ -606,13 +596,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>[[-73.11393709450277, 7.139918213331931], [-73.11473668704757, 7.14077813926795], [-73.11635331948693, 7.140990863446135], [-73.11700828930037, 7.141743951774957], [-73.11802058340588, 7.14205808365225], [-73.11896038928126, 7.142125533949132], [-73.1194486584907, 7.141678999967735], [-73.12003027559582, 7.141799268269275], [-73.12037875812045, 7.142569902380674], [-73.12132353667874, 7.142872934580307], [-73.1226996463604, 7.142492788312687], [-73.12324415333822, 7.141764540013007], [-73.12351488837376, 7.141122351699758], [-73.12346524973897, 7.140385017153437], [-73.12343896058412, 7.139977206534022], [-73.13232347724987, 7.13820277916512], [-73.13133715159033, 7.136179077417915], [-73.13181679826668, 7.136114254633442], [-73.13152628779903, 7.135419060835862], [-73.13120531570084, 7.135287877434019], [-73.13114158053439, 7.135112735165979], [-73.13136831784993, 7.135069558617147], [-73.13147029983884, 7.134933928985214], [-73.13132198508525, 7.134754795169469], [-73.13139053415374, 7.134639713475663], [-73.13163489568696, 7.134648609495629], [-73.13186493705386, 7.134208875524357], [-73.1323375172098, 7.13381984701334], [-73.13340129571887, 7.133486392723336], [-73.13445911981829, 7.133360377413546], [-73.13501937945065, 7.133326452179139], [-73.13559625731783, 7.13405461420183], [-73.13638245565981, 7.133757073645359], [-73.1363736257797, 7.133557409310658], [-73.13665641713058, 7.133433414248406], [-73.1372353055366, 7.133659325217605], [-73.137416926399, 7.133464131751444], [-73.13733266634578, 7.133199493298909], [-73.13684420886936, 7.133026968785335], [-73.13673786068509, 7.132342204621999], [-73.13594156444924, 7.13192885910185], [-73.1350778075925, 7.131667863863831], [-73.13476075949713, 7.131246009569432], [-73.13524533401959, 7.130719408908616], [-73.13569729221281, 7.130163977092863], [-73.13677785697078, 7.130152396686394], [-73.13792945044645, 7.130207042467952], [-73.13885094496462, 7.130519154866134], [-73.13889515551129, 7.130073482939407], [-73.13745530131568, 7.129738057472626], [-73.13660948038118, 7.129368038697786], [-73.13610704684929, 7.129171649553097], [-73.1354633734832, 7.129387821172784], [-73.13515505822917, 7.129326991751607], [-73.13509346362201, 7.129002244652774], [-73.13509517236179, 7.128678591604038], [-73.13452414653334, 7.128471635323745], [-73.13366339763128, 7.128658464968233], [-73.13290065894488, 7.128598454615991], [-73.13234593862202, 7.128252538988985], [-73.13213302199294, 7.127854678852366], [-73.13209546847669, 7.127425181394534], [-73.13220629151543, 7.127090639095203], [-73.13253214135877, 7.126806566419306], [-73.13270462241154, 7.126615556724834], [-73.1331526152593, 7.126581302703621], [-73.13371662070416, 7.126569564004075], [-73.13391159574931, 7.126247079344078], [-73.1339436491247, 7.12602378927669], [-73.1342652519406, 7.125910753322418], [-73.13453833658173, 7.125815141276464], [-73.1349121363966, 7.125927132847837], [-73.13515914268507, 7.1260984380883], [-73.135298004016, 7.126448863935475], [-73.1351592278427, 7.12679806344211], [-73.13557473683467, 7.126925465072459], [-73.13611559269859, 7.126892184810694], [-73.13645183677411, 7.126686199483384], [-73.13675037248116, 7.126451056690387], [-73.13742115599696, 7.126378051538085], [-73.13804057152726, 7.126343570634298], [-73.13873597923265, 7.126262181123643], [-73.13922961413331, 7.126520186163505], [-73.13959617319209, 7.126323616815405], [-73.13961622669898, 7.126009727466221], [-73.13917251466417, 7.125854966345401], [-73.13888355558647, 7.125511273979413], [-73.13844199240881, 7.125280106713024], [-73.13808268645779, 7.125556331164491], [-73.13740707850505, 7.125413662040733], [-73.13690404712615, 7.125476074510781], [-73.13627432176476, 7.125380873311595], [-73.13570517482466, 7.125230243094913], [-73.13513936598942, 7.124615495984616], [-73.13516209631445, 7.124333258314428], [-73.13533656456477, 7.123845698169524], [-73.1362253643684, 7.123326105548497], [-73.13670618303438, 7.122751757859237], [-73.13698230160423, 7.122063059930778], [-73.13706328076789, 7.121844260653254], [-73.13762674589654, 7.121667620037352], [-73.13744787782296, 7.120839729818902], [-73.13696607189661, 7.120511606206201], [-73.13664881166754, 7.119967562099848], [-73.13619619666873, 7.11979775869486], [-73.1358038115571, 7.119361734763679], [-73.13487294827024, 7.118171417761762], [-73.1335524830042, 7.118527382996973], [-73.13161532016761, 7.119884564094604], [-73.13147253829365, 7.119563709243363], [-73.13175719952048, 7.119300845221035], [-73.13202016705561, 7.118732620905058], [-73.13237725290855, 7.117975070339105], [-73.13352162409836, 7.117034941178329], [-73.13445460137837, 7.116465736695616], [-73.1348857722343, 7.115628248705152], [-73.13396029095631, 7.113855034517664], [-73.13389383308657, 7.113882649945682], [-73.13443497730688, 7.115005801565432], [-73.13447629123752, 7.115373942112923], [-73.13411529360302, 7.11582789777369], [-73.1343731031211, 7.116332035204028], [-73.13326781952723, 7.117043554024734], [-73.13150518033177, 7.117643455951767], [-73.12954150351628, 7.112352000090907], [-73.12633266047116, 7.114009710341887], [-73.12527143023065, 7.114568820449853], [-73.1262084285697, 7.117250203753581], [-73.12773241615353, 7.121088532880116], [-73.12367380467477, 7.122895675002449], [-73.12388658774314, 7.123536688779039], [-73.12192277432558, 7.125415552099762], [-73.12057871460297, 7.125910154697355], [-73.12029213141572, 7.125964270859851], [-73.11852089998895, 7.128041252317201], [-73.11674113083949, 7.128437052469144], [-73.11598657708342, 7.128751949465382], [-73.11403660149966, 7.130219467740753], [-73.11320012577802, 7.130856727000758], [-73.11280482789002, 7.130919875668387], [-73.11256464805925, 7.134326810367984], [-73.10984876977146, 7.134203379300135], [-73.10856799336878, 7.13430405446339], [-73.10756403201519, 7.134054898961564], [-73.10770655023434, 7.136155434761332], [-73.11393709450277, 7.139918213331931]]</t>
         </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3400</v>
       </c>
       <c r="D7" t="n">
         <v>118</v>
@@ -633,13 +621,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5800</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>[[-73.07179412889113, 7.042968807483693], [-73.0729597589647, 7.043706811463943], [-73.0728517925642, 7.043046343203979], [-73.07473302839746, 7.041295912924108], [-73.07543902283477, 7.040426073634966], [-73.07603752848884, 7.039314904432296], [-73.07502184523291, 7.038547139584467], [-73.07418350641119, 7.038051667288702], [-73.07342852109876, 7.037539107775412], [-73.07281668610202, 7.036858960090888], [-73.07237168359424, 7.036106029533823], [-73.07201594191308, 7.034782785546428], [-73.0714968415258, 7.032759937263394], [-73.07062675894127, 7.031124137734671], [-73.07023413017177, 7.029769350742721], [-73.06914028748847, 7.028523030315472], [-73.06878825907548, 7.028205095048961], [-73.0677491237725, 7.029138618587353], [-73.06783603208673, 7.029783480874279], [-73.06706914193865, 7.030115176229514], [-73.06644295359153, 7.030765964740717], [-73.06557711857201, 7.031701915767161], [-73.0648252602674, 7.032596700671681], [-73.06444631911192, 7.033636906671929], [-73.06149016695443, 7.034911873074847], [-73.06251444575412, 7.037729967821438], [-73.06715887783304, 7.039221049381776], [-73.06907465405152, 7.041061569530763], [-73.07037241070661, 7.042872631938212], [-73.07179412889113, 7.042968807483693]]</t>
         </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5800</v>
       </c>
       <c r="D8" t="n">
         <v>118</v>
@@ -660,13 +646,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
           <t>[[-73.07243598651131, 7.060155998731265], [-73.07511837840603, 7.060408236847022], [-73.07681136888442, 7.058571434684318], [-73.07848037462847, 7.058627115857538], [-73.07865883116023, 7.058814870654778], [-73.07881902167946, 7.059018743353173], [-73.07875056243587, 7.060912519285373], [-73.08021517945105, 7.06082361501593], [-73.08061726688553, 7.06053379446165], [-73.08109973489424, 7.060203857604859], [-73.08156219588135, 7.05946425153122], [-73.0822293385872, 7.059415740264035], [-73.0825769030787, 7.059147735208305], [-73.0829081369479, 7.058753695713776], [-73.08298671652823, 7.058668334755339], [-73.08259264404064, 7.055559122684074], [-73.08423138921896, 7.055368313976619], [-73.08335137859876, 7.0505568314253], [-73.08251924539289, 7.048707738869581], [-73.08136507947188, 7.046431480101134], [-73.0803103896836, 7.04489116285641], [-73.07961669487544, 7.042880464734844], [-73.07899641824379, 7.041389834618163], [-73.07783943696363, 7.040300996306049], [-73.07606387943993, 7.039289258931959], [-73.07491394471248, 7.041035325649633], [-73.0728485373687, 7.043059538691524], [-73.07297779379785, 7.043730044558584], [-73.07180877924546, 7.042980961007936], [-73.07035328900078, 7.042857893820993], [-73.06972527581404, 7.04334211613001], [-73.07315280589688, 7.050875387731348], [-73.07243598651131, 7.060155998731265]]</t>
         </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4200</v>
       </c>
       <c r="D9" t="n">
         <v>118</v>
@@ -687,13 +671,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6200</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>[[-73.06077112624787, 7.031596895132538], [-73.06475622853543, 7.032636293523194], [-73.06696251507518, 7.030138453288418], [-73.0678110385475, 7.029798941099329], [-73.06775361905842, 7.029153829205509], [-73.06990962250194, 7.026958469633901], [-73.0656631996581, 7.02264938179723], [-73.06236943070809, 7.017644665999481], [-73.06356347536992, 7.016527144349824], [-73.06208266203932, 7.01497307983918], [-73.06005797542105, 7.012531471441585], [-73.05891303688854, 7.009751998305644], [-73.05820748377614, 7.005768757220356], [-73.0565098990828, 7.000587409171621], [-73.05230832428927, 7.004511265428185], [-73.0515226720348, 7.005026558818512], [-73.0524464433257, 7.00507877922256], [-73.05317763625519, 7.004812782621247], [-73.05371338498882, 7.004664746589892], [-73.05407373111878, 7.004544314172782], [-73.05510251997492, 7.004160550999082], [-73.05536353681477, 7.004656344616619], [-73.05562109353907, 7.00532782435481], [-73.05577777913115, 7.006548765436741], [-73.04975313640595, 7.007901190393192], [-73.05019101282255, 7.0077944698288], [-73.05057158074926, 7.007674164064702], [-73.05146156077194, 7.005018449693471], [-73.04955406869988, 7.006240382174461], [-73.04908790173633, 7.008153916471859], [-73.05546542108576, 7.024544122437489], [-73.06077112624787, 7.031596895132538]]</t>
         </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6200</v>
       </c>
       <c r="D10" t="n">
         <v>118</v>
@@ -714,13 +696,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3700</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
           <t>[[-73.13707058432996, 7.121865634770663], [-73.1366852192165, 7.122914461474274], [-73.13632526228601, 7.123485922950108], [-73.13600265049904, 7.123929309474851], [-73.13604772137282, 7.124275488739513], [-73.13676285194865, 7.124314903033487], [-73.13745090924647, 7.124251805127011], [-73.13766369575141, 7.124304161913923], [-73.13850104744793, 7.124311154593467], [-73.13870286356136, 7.124051227381206], [-73.13856060407814, 7.12376745953041], [-73.1387482275181, 7.123719234098926], [-73.13894213235955, 7.123868470619426], [-73.13918631254575, 7.123663793328793], [-73.13923745495441, 7.123324859170004], [-73.13930690329856, 7.122935099591282], [-73.13966784119285, 7.122820696278485], [-73.14006495014276, 7.123193899789836], [-73.14068847817856, 7.123197452670635], [-73.14086948635199, 7.122974764090366], [-73.14107608558017, 7.12261545107777], [-73.14198069739841, 7.122863256265092], [-73.14247023524428, 7.122768432700194], [-73.14239551768158, 7.122514161272502], [-73.14206073420493, 7.122316529289985], [-73.1411939861982, 7.121840019890747], [-73.14109356390918, 7.121239873008275], [-73.14157033638247, 7.120522272653493], [-73.1418819344918, 7.121044765271863], [-73.1426635779908, 7.120712430565098], [-73.14282178640742, 7.120006012051851], [-73.14335449212186, 7.119483586572234], [-73.14468743432163, 7.118917654043963], [-73.14565769012798, 7.118381879498252], [-73.14666037865605, 7.119016436175129], [-73.14717644542918, 7.118460957702763], [-73.14617901355768, 7.11790289061876], [-73.1474727003726, 7.116812781589895], [-73.14708218235003, 7.116678343377814], [-73.14399461100574, 7.118435287567153], [-73.14280727609805, 7.119296143143674], [-73.14139414097119, 7.118820813329715], [-73.13855868288358, 7.120007244820632], [-73.13815027997565, 7.120663653111525], [-73.13749735028695, 7.12084129269004], [-73.13674367629436, 7.11999193127405], [-73.13678529911805, 7.11960702439334], [-73.13684514259806, 7.119213161934846], [-73.13694958675431, 7.118920152061161], [-73.13705128567783, 7.118637440568771], [-73.13727890808273, 7.118366142022889], [-73.1374077958336, 7.118062396886043], [-73.1374547319521, 7.117696883046358], [-73.13788412578067, 7.117560028072437], [-73.1379943916224, 7.117135730217872], [-73.13907811719876, 7.117703614673019], [-73.13941077661386, 7.117231958406552], [-73.13916729960363, 7.116626265083117], [-73.13967101189384, 7.115876340368118], [-73.14041099337868, 7.116862521419861], [-73.14225130854139, 7.116014983898162], [-73.14416671411583, 7.115051823893894], [-73.14418778642731, 7.114846228652108], [-73.14332630189323, 7.11496890697941], [-73.14297363176529, 7.114252008692797], [-73.14375536710136, 7.113524767209926], [-73.14447214310718, 7.113135346450537], [-73.14525768737965, 7.112854694777322], [-73.14566986999922, 7.112787611934401], [-73.14595108300753, 7.112269260013755], [-73.14716600822919, 7.111262407953129], [-73.14776477931638, 7.111150537504618], [-73.14788298252117, 7.110755338311307], [-73.14730412149358, 7.110729095724863], [-73.14718951175055, 7.110205076582086], [-73.14672259582632, 7.110144739014803], [-73.14644670076568, 7.110458860258926], [-73.1465319844518, 7.110975577416681], [-73.14323163149997, 7.113245789744095], [-73.14209925754717, 7.113821286723424], [-73.14140798170767, 7.115275743360979], [-73.14017628631257, 7.11404958179944], [-73.13928104214438, 7.114218627840772], [-73.13931482397402, 7.114605585048953], [-73.13840284174312, 7.115506705491547], [-73.13711300915493, 7.116226935030457], [-73.13585528425105, 7.117356322496377], [-73.13490383308809, 7.1155790467394], [-73.13489661572359, 7.115257012411606], [-73.13559294662952, 7.11469537591938], [-73.13594434640031, 7.114866992112416], [-73.13645377471335, 7.114276127803008], [-73.13678359373357, 7.114418260831508], [-73.13777164299175, 7.113003810644236], [-73.13976713210776, 7.111649345197158], [-73.14001391566428, 7.111860939581283], [-73.14041242644961, 7.111660461194979], [-73.14070702610591, 7.111789299425279], [-73.14108608768919, 7.111581595810464], [-73.14114622654022, 7.111008175229148], [-73.14090355987443, 7.110881373306042], [-73.14071760874432, 7.110834141140941], [-73.1408793647506, 7.110612392833295], [-73.14153327391492, 7.110571590116082], [-73.14202288302367, 7.111133739979803], [-73.14264159344043, 7.110950587870832], [-73.14282116606886, 7.110687199200017], [-73.14310920264643, 7.110617702666735], [-73.14316665810023, 7.110103406684328], [-73.14307026035364, 7.109888519394381], [-73.14339746569715, 7.109569887438726], [-73.14321243838262, 7.109108064497182], [-73.14395717487048, 7.108621067824544], [-73.14426871953589, 7.108868535842169], [-73.14462171897519, 7.108329382476868], [-73.14482453549614, 7.107834372921937], [-73.14519989483422, 7.107226646015176], [-73.14514857319067, 7.107110745091289], [-73.1443749966179, 7.107443612199031], [-73.14448666638897, 7.106844490033046], [-73.14419750186056, 7.106686856480193], [-73.14341910909657, 7.107338470958606], [-73.14349984416219, 7.107559965344718], [-73.1428994832639, 7.108000218669028], [-73.1429300756087, 7.108205096359852], [-73.14227458063067, 7.108707682889908], [-73.14197883045074, 7.10842447895625], [-73.13978837997836, 7.109937048736337], [-73.13959908542006, 7.110370503063606], [-73.1371939312724, 7.112081035701978], [-73.13688563151179, 7.112149408594378], [-73.13569664705454, 7.111405842888574], [-73.1342787516127, 7.113660271027285], [-73.13395704293312, 7.113849787336135], [-73.13487444919905, 7.115616927156689], [-73.13577404158106, 7.117444143393808], [-73.13480013312034, 7.118078212319687], [-73.13528283046404, 7.118671071650558], [-73.13567254688614, 7.119194651384381], [-73.13620154276342, 7.119792868921169], [-73.13670347105165, 7.12001096455902], [-73.13745775976611, 7.120847515818143], [-73.13762101012298, 7.121671999173577], [-73.13707058432996, 7.121865634770663]]</t>
         </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3700</v>
       </c>
       <c r="D11" t="n">
         <v>118</v>
@@ -741,13 +721,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
           <t>[[-73.13187930692115, 7.136108615897633], [-73.13134466896763, 7.136179114677686], [-73.13232552576406, 7.138214668278], [-73.12334997221555, 7.139948185729376], [-73.12351643221864, 7.141222074461843], [-73.12266614608225, 7.142530209281032], [-73.12126274162185, 7.142861522659095], [-73.12051262622602, 7.142618888113149], [-73.12005169156303, 7.141809596957768], [-73.1193622480961, 7.141679856270951], [-73.11879162561871, 7.142120557997764], [-73.117145192804, 7.141841999633566], [-73.11729135065873, 7.145575697779466], [-73.11542106107694, 7.148760936839792], [-73.11716657000959, 7.149028334075505], [-73.12312792089448, 7.144840798782329], [-73.12525480276649, 7.142734490429598], [-73.12796914116429, 7.143528190246743], [-73.13057657573357, 7.143929217760015], [-73.13065291409991, 7.142916115010121], [-73.13064924787236, 7.142480197167004], [-73.13127350001658, 7.141670924257863], [-73.13292545445509, 7.141379603021326], [-73.13326823279775, 7.141135339291176], [-73.1336211614863, 7.142202325679038], [-73.13495192653545, 7.145692011434279], [-73.13609807756846, 7.146326174536472], [-73.13762878951387, 7.146215725113979], [-73.13826830906758, 7.145931511477126], [-73.13860321599994, 7.145746708016166], [-73.13868508429847, 7.14540763948766], [-73.13830768339494, 7.145110335440912], [-73.13675060393678, 7.144965492759027], [-73.1368766737765, 7.143683835913427], [-73.13722008444248, 7.143305937576523], [-73.13690031379977, 7.142755382070809], [-73.13696479544683, 7.142414869360156], [-73.13712531845343, 7.142118975150336], [-73.13698712405386, 7.142062788152742], [-73.13664173210739, 7.141916268332781], [-73.1362253486289, 7.141691715258732], [-73.13592551573552, 7.14138420816698], [-73.13585776970149, 7.140559804009272], [-73.13547668429922, 7.139671003099752], [-73.13541773907619, 7.139069072040208], [-73.1361787139787, 7.138482480631165], [-73.13681223100373, 7.138832657607993], [-73.13658756151474, 7.138293812700602], [-73.13642013444934, 7.138470838946367], [-73.13605536484103, 7.137977239560648], [-73.13578002978161, 7.138125525609286], [-73.13187930692115, 7.136108615897633]]</t>
         </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4700</v>
       </c>
       <c r="D12" t="n">
         <v>118</v>
@@ -768,13 +746,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
           <t>[[-73.08337859412626, 7.077521679747798], [-73.08526364421668, 7.077315747868325], [-73.08510841057657, 7.075409487021788], [-73.0855417616741, 7.075077640101169], [-73.08531221643769, 7.074422983892007], [-73.08579891299689, 7.073708967609935], [-73.08634303808266, 7.073440711093549], [-73.086920383027, 7.073236580415081], [-73.0871807838025, 7.072780323967573], [-73.0865243756534, 7.072676560376557], [-73.08610740283451, 7.07262595112205], [-73.08611952165394, 7.072143534489418], [-73.08810940323045, 7.07084863669123], [-73.0888230565822, 7.071228444422705], [-73.08844279453243, 7.071883582844928], [-73.08852508604846, 7.072189436200871], [-73.08888968103507, 7.072209595257593], [-73.08955200045618, 7.072837613085335], [-73.09094788493343, 7.07181089797514], [-73.09140530919011, 7.073664511013127], [-73.09208693644494, 7.074342653918453], [-73.09229934985005, 7.075194589466733], [-73.09293311894218, 7.076021332244923], [-73.0941054396786, 7.076325266470009], [-73.09624721997002, 7.078383826588858], [-73.09638162176319, 7.077702202410532], [-73.09728558507909, 7.077350676906271], [-73.09677340515661, 7.07694316552669], [-73.0962918143683, 7.076020047629691], [-73.09665244630806, 7.074820364582339], [-73.09758540456502, 7.0750657024945], [-73.09799482759671, 7.075155786525146], [-73.09858950120206, 7.075334790414408], [-73.09835115957347, 7.076688813391399], [-73.09929330287497, 7.076851001581353], [-73.09986428895188, 7.075968737351745], [-73.09994871258667, 7.076294420685745], [-73.10028865274877, 7.076840452151015], [-73.10004170637721, 7.075267851688203], [-73.09970918822212, 7.074187527023299], [-73.0989571222518, 7.074207031859476], [-73.09873714841294, 7.073953761670654], [-73.09789483054739, 7.073361912272147], [-73.09621225228032, 7.07279257947568], [-73.09552843911239, 7.072832001199355], [-73.09481983501533, 7.070938912099533], [-73.09421685901525, 7.069986516795687], [-73.0975276235828, 7.069527071898748], [-73.0990603818919, 7.068647994671154], [-73.09955034490068, 7.067961063902416], [-73.09986314762749, 7.066850042243689], [-73.09961246096512, 7.066731281086986], [-73.09658215509667, 7.064301143645261], [-73.09677033600401, 7.064387251399417], [-73.09672663289163, 7.064171641410773], [-73.09673508097893, 7.064056534144148], [-73.09682320339908, 7.063852158064912], [-73.0968947203236, 7.063775729111525], [-73.09708689271498, 7.063645386255581], [-73.09727524978403, 7.063582361877328], [-73.09737394286623, 7.063575338632509], [-73.0998870458465, 7.064276398094813], [-73.10069334601296, 7.064320523561425], [-73.10183933195155, 7.06383119348121], [-73.1035664942126, 7.063449287569303], [-73.10459294833224, 7.063283123590723], [-73.10799738221696, 7.062120381129022], [-73.10739611447269, 7.060746856057842], [-73.1065815063627, 7.060877615214878], [-73.10662932359143, 7.06144571302076], [-73.10601205351993, 7.061420124034002], [-73.10596168854624, 7.061397629577503], [-73.10594900782942, 7.06142070412378], [-73.10589813188122, 7.062896502237908], [-73.10352223643895, 7.06349412106466], [-73.103147953082, 7.062302586323523], [-73.10404237912255, 7.061825810722927], [-73.10450944466757, 7.061805011537714], [-73.10447818364175, 7.061132785424996], [-73.10443683942692, 7.060501748151447], [-73.10428086738708, 7.060665657895447], [-73.10428632817221, 7.060762215872651], [-73.10423235879776, 7.061161768680998], [-73.10405297094515, 7.061175331992265], [-73.10407747497189, 7.060519754317124], [-73.10340561637214, 7.060660283010929], [-73.10352134607737, 7.059768077048807], [-73.10448315813811, 7.059632394182232], [-73.10468478002366, 7.060205879492811], [-73.10443680200297, 7.060491078409549], [-73.10561452721824, 7.060898568512806], [-73.10553469476748, 7.060213749929362], [-73.10570014935078, 7.06023872073814], [-73.10604342568247, 7.060243119099927], [-73.10660591853113, 7.060222976088036], [-73.106630856979, 7.061469391918302], [-73.10754718650256, 7.061330531864741], [-73.10734931187145, 7.06068846656162], [-73.10659877388116, 7.06018932534152], [-73.10681908235242, 7.059063818498318], [-73.10678044815184, 7.059346866913117], [-73.10740065788367, 7.059417604067662], [-73.10947960670921, 7.060177242705278], [-73.10957577994513, 7.060849351326598], [-73.1096922260019, 7.060532316350721], [-73.11003095353671, 7.059800459113288], [-73.1084463384636, 7.058831441176411], [-73.10724109840102, 7.058753212413217], [-73.10571626087626, 7.058502717353895], [-73.10479850424655, 7.058984095458519], [-73.10472777008103, 7.056961751263181], [-73.10386984797097, 7.057526544514258], [-73.10369544170473, 7.058532157109613], [-73.10341800153977, 7.060633643769702], [-73.10164905081511, 7.06106721955818], [-73.10029204594873, 7.061351875149247], [-73.09973792139365, 7.06118336300458], [-73.09972844413791, 7.0609406879096], [-73.09919059304237, 7.06067529887213], [-73.09861105845907, 7.060536293981389], [-73.09816694587384, 7.059098874641732], [-73.09726402899464, 7.05898179337243], [-73.09633093994032, 7.058115658325705], [-73.09536792351777, 7.058592074133265], [-73.0935517619928, 7.05738540335073], [-73.09350823053512, 7.057862447669456], [-73.09108292875874, 7.058592997510309], [-73.09105228357967, 7.055818536755425], [-73.0883575767413, 7.056746424104184], [-73.08751821473132, 7.057384942346656], [-73.08809046648098, 7.057656521468038], [-73.08790926775005, 7.058272209450069], [-73.08692548767313, 7.057829407900924], [-73.08834958644597, 7.056745801972895], [-73.09106346597291, 7.055807516387164], [-73.09037479487449, 7.055342307890631], [-73.08425253270251, 7.055349991172537], [-73.08386566233526, 7.055404422037188], [-73.08367478445123, 7.05544151828646], [-73.08244957694228, 7.055522987050881], [-73.08292245299079, 7.05877079049314], [-73.08230516675307, 7.059399338754522], [-73.0815674262533, 7.059430930729681], [-73.08107353252724, 7.060232950109533], [-73.08023518232316, 7.060805063562755], [-73.07864869513637, 7.060938354641355], [-73.07698702303597, 7.062287402282306], [-73.07665643681459, 7.063666577833473], [-73.0769261515643, 7.065553430508262], [-73.0765671644694, 7.066828104755846], [-73.07987564975979, 7.06625579536363], [-73.08065482028843, 7.068289458463919], [-73.07968804921803, 7.06987687090584], [-73.07844867211192, 7.071006189994659], [-73.07871644739505, 7.071899978912686], [-73.08046982892232, 7.071306765262085], [-73.08168824276852, 7.071608651571476], [-73.08177002893437, 7.079506112737791], [-73.08337859412626, 7.077521679747798]]</t>
         </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3400</v>
       </c>
       <c r="D13" t="n">
         <v>118</v>
@@ -795,13 +771,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
           <t>[[-73.10917149915527, 7.061830734017916], [-73.124869246154, 7.06843231311969], [-73.12611058018615, 7.067148129275679], [-73.12586433836941, 7.065940287325398], [-73.12601051560657, 7.065718674625517], [-73.12688719416096, 7.065888846437064], [-73.12703197150533, 7.066813010213741], [-73.13008014891659, 7.066957739940909], [-73.13304405759189, 7.066405013407013], [-73.13267181881346, 7.065314026849269], [-73.13095298251653, 7.059758725385934], [-73.12511961239728, 7.063482737936588], [-73.13091813074877, 7.05972446921602], [-73.12515340464441, 7.06344623488675], [-73.12246636792338, 7.059249363996287], [-73.11048912842035, 7.05867440926723], [-73.10917149915527, 7.061830734017916]]</t>
         </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4600</v>
       </c>
       <c r="D14" t="n">
         <v>118</v>
@@ -822,13 +796,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
           <t>[[-73.10484302737673, 7.063198306091283], [-73.10588894731193, 7.062889523447436], [-73.10595978955588, 7.061398179827583], [-73.10450492710075, 7.061216249129028], [-73.10451394232528, 7.06178985628074], [-73.10484302737673, 7.063198306091283]]</t>
         </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4600</v>
       </c>
       <c r="D15" t="n">
         <v>118</v>
@@ -849,13 +821,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
           <t>[[-73.09778439526949, 7.085430924476913], [-73.0977186673363, 7.085721533553207], [-73.09769511224434, 7.085816345143743], [-73.0986028039586, 7.086031229332305], [-73.09934703460199, 7.08636424619433], [-73.0993584769084, 7.086349912317831], [-73.09959876735066, 7.085945518530596], [-73.09778439526949, 7.085430924476913]]</t>
         </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4600</v>
       </c>
       <c r="D16" t="n">
         <v>118</v>
@@ -876,13 +846,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5100</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
           <t>[[-73.14125486825841, 7.06646031686463], [-73.1470518910056, 7.067254560655901], [-73.1526536071463, 7.066312155831771], [-73.1553668315791, 7.063236561013542], [-73.15212989733001, 7.059882727715753], [-73.14374528041881, 7.059149545018936], [-73.13340886282185, 7.061521739227278], [-73.13527603236695, 7.06482605889842], [-73.13350705422901, 7.066618604080746], [-73.14125486825841, 7.06646031686463]]</t>
         </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5100</v>
       </c>
       <c r="D17" t="n">
         <v>118</v>
@@ -903,13 +871,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
           <t>[[-73.11139180950647, 7.101669558605394], [-73.1112710348778, 7.099279456124612], [-73.11268761201542, 7.094555149533854], [-73.11475805454731, 7.093107252196811], [-73.11530536413247, 7.092947447517568], [-73.11657303181876, 7.093349694553432], [-73.11753145507575, 7.093283868253494], [-73.11799394064064, 7.092934537364208], [-73.11859740183584, 7.092701786467428], [-73.11952333466996, 7.092511192986373], [-73.12045773241582, 7.092109382421152], [-73.1203057226706, 7.091527664583068], [-73.12021682458585, 7.091157342796563], [-73.11988595288227, 7.090628878262553], [-73.11926885530612, 7.090356231524525], [-73.11856644216446, 7.090252579571217], [-73.11813965599265, 7.09046476527382], [-73.11727077149175, 7.090507500684988], [-73.11592152825239, 7.090484614325287], [-73.11536618723827, 7.089863541411865], [-73.11459981159878, 7.089760535449923], [-73.11412529362828, 7.089431498954851], [-73.11350773046384, 7.089286923225334], [-73.11271640503443, 7.089384867632876], [-73.11186627126239, 7.088837120474523], [-73.11117309541062, 7.08843971425308], [-73.11086234500227, 7.088339814550711], [-73.11056271023628, 7.088457694973792], [-73.11019920876429, 7.088715484322202], [-73.10981901151126, 7.089299265725439], [-73.10936162895166, 7.089700079847989], [-73.10917088984202, 7.089872753662359], [-73.1091053653928, 7.089250549567658], [-73.11033548684549, 7.087498720745561], [-73.1111711433574, 7.087040289056568], [-73.11253607004566, 7.088270943077726], [-73.11364972862827, 7.088443219150573], [-73.1151059972436, 7.088649236402449], [-73.11569232648678, 7.08874238853083], [-73.11600302798772, 7.089175857491448], [-73.11812956644127, 7.089044976858473], [-73.1193151002727, 7.089210016598236], [-73.11987776496117, 7.089376601106034], [-73.12022066416503, 7.089362739043835], [-73.12017308399788, 7.088683622979698], [-73.11929484595304, 7.087814500687956], [-73.11897922365895, 7.087566494383821], [-73.11900035875311, 7.087382403143496], [-73.12033660992249, 7.088009053135388], [-73.12094031018904, 7.087550789024737], [-73.12117986981991, 7.087082661228362], [-73.12131618835984, 7.08724317642802], [-73.12147638164765, 7.088615293185524], [-73.12087936004453, 7.08869762760756], [-73.12084179022773, 7.088967690580386], [-73.12107029836446, 7.089456060162142], [-73.12139153678169, 7.089830867979595], [-73.12206002463529, 7.089611749094841], [-73.12216717431075, 7.08925037380656], [-73.12255144798833, 7.089241390642287], [-73.12293939913557, 7.089350517343893], [-73.12265532371386, 7.08998020647833], [-73.12289703139653, 7.090317210598959], [-73.12345764833165, 7.091029809970713], [-73.1236319067043, 7.091062962212473], [-73.12374241248166, 7.090838718561622], [-73.12486670228753, 7.090294827502306], [-73.12629002138773, 7.08976350773899], [-73.12636116220591, 7.08967341582386], [-73.12637698009924, 7.089619677842969], [-73.12648214826369, 7.089516469402824], [-73.12659796136658, 7.089150035201674], [-73.12671428333994, 7.088718798335441], [-73.12693569992801, 7.088641793926531], [-73.12777951980074, 7.088132709705915], [-73.12796754938674, 7.088017401975334], [-73.12838030341666, 7.087778036209857], [-73.12884030355472, 7.087554567244192], [-73.12989465692245, 7.087399273615656], [-73.13017375693575, 7.087367112118325], [-73.13063960368727, 7.087320162161721], [-73.1313620536269, 7.08713660467791], [-73.13174307177583, 7.087050144099824], [-73.13127707779725, 7.085520320205808], [-73.13138004400474, 7.085251200395534], [-73.13180344401879, 7.085085578471201], [-73.1317127507914, 7.084814745518092], [-73.13136815141335, 7.08472988724872], [-73.1308150763837, 7.084748336221315], [-73.13039335881253, 7.084691941127512], [-73.13018307830998, 7.083816554745397], [-73.13095711261076, 7.083547100392176], [-73.13226565676028, 7.082600861359672], [-73.13208674368177, 7.0810613905747], [-73.13294992065788, 7.081041303059528], [-73.13312760439433, 7.081210215662371], [-73.13321758876066, 7.081469903669163], [-73.1335126756341, 7.081679700390711], [-73.13357268705441, 7.082066593848833], [-73.13388963841105, 7.082388157576095], [-73.13443905104386, 7.082410861455378], [-73.13458620831658, 7.082040840907138], [-73.13486499236215, 7.081529759124988], [-73.1348004311204, 7.080882000493377], [-73.13461884787947, 7.080539920541708], [-73.13437026075121, 7.080417510295826], [-73.13333655026508, 7.08045571316843], [-73.13315798691956, 7.080588446993251], [-73.13303709193124, 7.080551501820504], [-73.13280553034625, 7.080503040755128], [-73.1330214811558, 7.079997051633963], [-73.13344198601592, 7.079591724433691], [-73.13469941154675, 7.078676445933745], [-73.1343039343207, 7.07896645743683], [-73.13410701130731, 7.079107112126271], [-73.13378301453874, 7.079344065790695], [-73.13353852801424, 7.07952397757597], [-73.1329747405031, 7.079455289375133], [-73.13298507042832, 7.079431703668264], [-73.13039565942013, 7.080974606062286], [-73.12913461670676, 7.080992672288289], [-73.12886183224339, 7.080720755080331], [-73.12882431411029, 7.080365589764696], [-73.13012484808439, 7.080234255894653], [-73.13017751937568, 7.07980013224997], [-73.12949586356612, 7.079770144774686], [-73.12959017808284, 7.079514210607239], [-73.12961809592566, 7.079173632115483], [-73.12930478744703, 7.079139398589193], [-73.12916711109888, 7.079021071247711], [-73.12993804498673, 7.078635495174005], [-73.13042551740351, 7.078886290343082], [-73.13071355814165, 7.078357380351316], [-73.13015190573834, 7.077875016488078], [-73.12950580815367, 7.07795263799661], [-73.12905113846693, 7.077609072380718], [-73.12774222525911, 7.078407534641471], [-73.12812521846631, 7.079144031326526], [-73.12816597089379, 7.080148796514748], [-73.1277257838158, 7.080579045892071], [-73.12757448713569, 7.081080522057135], [-73.12712679097335, 7.081082960371276], [-73.12650083342609, 7.081087205567729], [-73.12626500640765, 7.080628630954244], [-73.1261028897235, 7.080223117066893], [-73.12634630822686, 7.079903868570919], [-73.12628668882573, 7.079428005802077], [-73.12601178306835, 7.079347757412314], [-73.12485573462646, 7.079810907606017], [-73.1245336358993, 7.079742319964291], [-73.12413922166425, 7.079799422138773], [-73.12427454903646, 7.079618683944237], [-73.12472254352797, 7.079443667913242], [-73.12487192038462, 7.079147883698545], [-73.12542011842112, 7.079082892248868], [-73.12591417433923, 7.078903571053782], [-73.12632221506017, 7.078542656653555], [-73.1263132405692, 7.078063085107498], [-73.12626135197165, 7.077820454458708], [-73.12650543979241, 7.077258921310675], [-73.12660881550573, 7.076897111101068], [-73.12646395660809, 7.076490274896123], [-73.12600486049122, 7.076458116251396], [-73.12547307728997, 7.077252641935606], [-73.12496507327327, 7.077460496734013], [-73.12393500738352, 7.077005447789785], [-73.12365508930311, 7.077392756898333], [-73.12307811664145, 7.077609699208112], [-73.1229184440491, 7.077455429577834], [-73.12259029291816, 7.077567395567106], [-73.12185935980501, 7.077495139484187], [-73.12131825832326, 7.078666263314099], [-73.12170289635961, 7.078846820613185], [-73.12160277298368, 7.079280113422716], [-73.12197352648226, 7.080642894614914], [-73.12224565257652, 7.080949190121826], [-73.12223809781456, 7.081321217057892], [-73.12174694390794, 7.081269179846269], [-73.12132900534064, 7.081006337683498], [-73.12023932961758, 7.080809656608294], [-73.12013253771086, 7.079911959131507], [-73.11975073337898, 7.079894491486455], [-73.11899928775358, 7.081107259262393], [-73.11806338702283, 7.08134219323518], [-73.1178455533801, 7.082538075389413], [-73.11668906547787, 7.082931071254895], [-73.11642942287914, 7.082263378774354], [-73.11602589033909, 7.08192826892706], [-73.11773569355573, 7.080270471315051], [-73.11830267754979, 7.07988108849921], [-73.1181421939244, 7.078699178957651], [-73.11824758791862, 7.078270499023182], [-73.1171341475367, 7.077210892138539], [-73.11664713240724, 7.077217463791302], [-73.11619373520566, 7.077368172385207], [-73.1159487774376, 7.077620880558132], [-73.11569170097948, 7.077903897486265], [-73.11544239530917, 7.078226345644555], [-73.11541949713602, 7.078473134383095], [-73.1157962765386, 7.078581213889441], [-73.11582950167248, 7.078852662145877], [-73.11499407521981, 7.079169664065209], [-73.11342408824616, 7.079185392009247], [-73.11352523031714, 7.080209408760851], [-73.11413435276954, 7.080247107653866], [-73.11393005945538, 7.081610340062717], [-73.11238660594337, 7.082371826230417], [-73.11230204901045, 7.083378338909873], [-73.1113436177904, 7.083063348191916], [-73.10991624263643, 7.084280926857742], [-73.10925571865964, 7.085783360461027], [-73.10871626347105, 7.086402506042669], [-73.10863893773129, 7.086114411104209], [-73.10930995458963, 7.084900379702862], [-73.10943252429799, 7.084186890166511], [-73.10912830420892, 7.083911480629056], [-73.10916618491316, 7.083822085970618], [-73.10919779058656, 7.083742101188639], [-73.11029209746332, 7.081262664677809], [-73.11070875304931, 7.080682571416875], [-73.11101623024356, 7.080540241890368], [-73.11109690886113, 7.079866653966018], [-73.11034204229541, 7.079247934595594], [-73.10995732342181, 7.078302140639527], [-73.11046776827374, 7.07808366652431], [-73.11168796035957, 7.077766856268331], [-73.11173087435651, 7.077624981968802], [-73.11194818928409, 7.075840251605348], [-73.11196587670173, 7.075414366054659], [-73.11385215404826, 7.072225810985996], [-73.11649552935006, 7.070031819412566], [-73.11723354998995, 7.071320432812669], [-73.11648552649939, 7.072002120966803], [-73.11580922855872, 7.072664404572557], [-73.11497568364476, 7.072978181310524], [-73.11470428422676, 7.07307818754116], [-73.11396671075025, 7.072269596110898], [-73.11395636294378, 7.072211080497098], [-73.11475843763013, 7.073078273381243], [-73.11582415318121, 7.072663326118462], [-73.11719822974408, 7.071330765561458], [-73.11816295440474, 7.070014897776305], [-73.11873709871062, 7.068671733678229], [-73.11789647600504, 7.067600556391539], [-73.11735288585047, 7.068069809055812], [-73.11725861593658, 7.069344431455913], [-73.1104310156222, 7.075125706693985], [-73.10968840762278, 7.075691158837321], [-73.10946015482439, 7.075698850351015], [-73.10874433065888, 7.075451375939181], [-73.10819172081705, 7.07602190543278], [-73.10791629057539, 7.082457236838968], [-73.10508513356092, 7.084178095661633], [-73.10373380518429, 7.085226196709257], [-73.10206505005222, 7.085704304391213], [-73.10188309076221, 7.086696240065605], [-73.10136477330451, 7.087006585264472], [-73.1002898982777, 7.086288966847061], [-73.09939172965453, 7.086417964597604], [-73.09867985707616, 7.086266197176687], [-73.09770338202131, 7.08588110088482], [-73.0953900745906, 7.086428185129338], [-73.09237276819823, 7.086413470142011], [-73.09215908448785, 7.086312909045054], [-73.08938899774843, 7.086792352644816], [-73.09094984548082, 7.087906272503536], [-73.08865657274616, 7.088935734581511], [-73.08784781174204, 7.087084921480963], [-73.08800114276166, 7.087463056996867], [-73.08875616115341, 7.087664907821797], [-73.0892933090259, 7.087650598678372], [-73.0898857883659, 7.087825608912409], [-73.09089132759749, 7.087828335458593], [-73.08937396921245, 7.08681763381737], [-73.08926178848468, 7.087348267460661], [-73.08841117791928, 7.086469605324305], [-73.08643674608346, 7.086592635575731], [-73.0867151941786, 7.088622765489467], [-73.0880334280547, 7.090919042247244], [-73.08838115922937, 7.099494722654498], [-73.0934540251472, 7.100569819827628], [-73.09342911419436, 7.098492981383449], [-73.09318325715178, 7.097088029380157], [-73.09366246455271, 7.095473400998309], [-73.09464750910865, 7.095621946450867], [-73.09571010218278, 7.093128102362623], [-73.096322398758, 7.093282551844239], [-73.09506808853735, 7.100448721381756], [-73.09560061346689, 7.10060632369294], [-73.09587243937345, 7.101360124903459], [-73.09623582888781, 7.101405703045688], [-73.09614588975984, 7.102545911392298], [-73.09558114730163, 7.102265984390805], [-73.09523051609526, 7.103024766249459], [-73.09513544765021, 7.103758765289989], [-73.09295081311485, 7.104183960846235], [-73.09657870365288, 7.104924828137722], [-73.09736015028871, 7.105003072277228], [-73.09759620893679, 7.105613785216286], [-73.09890700173789, 7.106343496929949], [-73.10160956945563, 7.106625840187686], [-73.10246463033694, 7.106327274313932], [-73.10327908629293, 7.10628645451117], [-73.10382028691521, 7.106108410452362], [-73.10891337036612, 7.106290309275608], [-73.10817713804772, 7.108756533418926], [-73.10594920634173, 7.112809174445252], [-73.10538549126811, 7.113838510317625], [-73.10841981379906, 7.1086179539714], [-73.1084296643614, 7.10882354026435], [-73.10981048145689, 7.1047813995551], [-73.11139180950647, 7.101669558605394]]</t>
         </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3400</v>
       </c>
       <c r="D18" t="n">
         <v>118</v>
@@ -930,13 +896,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
           <t>[[-73.10968931125352, 7.075449537820015], [-73.1097467130597, 7.075417625097924], [-73.10972604579783, 7.075191724162604], [-73.11039430061417, 7.074751226595383], [-73.11016134998451, 7.074381841591066], [-73.1089821961976, 7.075228728380062], [-73.10875503527187, 7.07544417882476], [-73.10945495547662, 7.075688823636489], [-73.10967839900093, 7.075692860282445], [-73.10973178836215, 7.075649793546026], [-73.10968931125352, 7.075449537820015]]</t>
         </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3400</v>
       </c>
       <c r="D19" t="n">
         <v>118</v>
@@ -957,13 +921,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
           <t>[[-73.1103925346229, 7.075148007252852], [-73.1102168230881, 7.074881953743285], [-73.10973153083955, 7.075195470325528], [-73.10975627902995, 7.075415076532186], [-73.10968926547034, 7.075460062105804], [-73.10973162264833, 7.075635473220044], [-73.1103925346229, 7.075148007252852]]</t>
         </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3400</v>
       </c>
       <c r="D20" t="n">
         <v>118</v>
@@ -984,13 +946,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
           <t>[[-73.10981327770386, 7.076182617395646], [-73.10953207812065, 7.075889147405108], [-73.10929854655097, 7.076109473850704], [-73.10920805930908, 7.076538917683036], [-73.10972473774942, 7.076657689024263], [-73.10981327770386, 7.076182617395646]]</t>
         </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3400</v>
       </c>
       <c r="D21" t="n">
         <v>118</v>
@@ -1011,13 +971,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
           <t>[[-73.11020236350654, 7.075495807557617], [-73.11004540246594, 7.075426577621379], [-73.10953163144376, 7.075892200055752], [-73.10981357101564, 7.076179243311962], [-73.10972124341875, 7.076661070248403], [-73.11010721572436, 7.076779914520058], [-73.11020236350654, 7.075495807557617]]</t>
         </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3400</v>
       </c>
       <c r="D22" t="n">
         <v>118</v>
@@ -1038,13 +996,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5100</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
           <t>[[-73.13099369474084, 7.059655507009309], [-73.12938608136035, 7.057220327791824], [-73.12289419933798, 7.059862760165173], [-73.12511890376643, 7.063406493924975], [-73.13099369474084, 7.059655507009309]]</t>
         </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5100</v>
       </c>
       <c r="D23" t="n">
         <v>118</v>
@@ -1065,13 +1021,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5100</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>[[-73.12703831114538, 7.06680677663099], [-73.12688030055669, 7.065904017659378], [-73.12609358819911, 7.0657595739921], [-73.12601954621842, 7.065719036757515], [-73.1258654952471, 7.065971939574315], [-73.12612101532818, 7.067136661713561], [-73.1268057002305, 7.066893885976243], [-73.12703831114538, 7.06680677663099]]</t>
         </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5100</v>
       </c>
       <c r="D24" t="n">
         <v>118</v>
@@ -1092,13 +1046,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>11000</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
           <t>[[-73.07330248590954, 7.037490409742432], [-73.07415287932719, 7.037760700319754], [-73.07470252320012, 7.037394101604334], [-73.07525224591663, 7.035921987850766], [-73.07626229434145, 7.035068612091284], [-73.07717716472769, 7.034258732365607], [-73.07782055256303, 7.033783832894259], [-73.07863156059244, 7.033452240119745], [-73.07942324886751, 7.033869888599939], [-73.08003022197536, 7.033656863541689], [-73.08050092452149, 7.033026166748253], [-73.08100970327214, 7.034210230638172], [-73.08220330230158, 7.035570233387519], [-73.08363317909165, 7.036015002364703], [-73.08514263233316, 7.03522942280202], [-73.0860722812027, 7.033740637306913], [-73.08769465741317, 7.032605237414601], [-73.08857150849201, 7.032037231094949], [-73.0903953744698, 7.030618537375635], [-73.09226693665458, 7.029545173654798], [-73.09369691072999, 7.028328961273555], [-73.09589755427999, 7.027095384821677], [-73.09602385335539, 7.024579569883304], [-73.09496281948799, 7.021764818052288], [-73.09301375791651, 7.01943740091895], [-73.09138098358872, 7.019265063132005], [-73.08967147245248, 7.020103441326424], [-73.08829991931349, 7.019075288746881], [-73.08637527337136, 7.018885515483781], [-73.08397803720825, 7.019867144122481], [-73.08195479525759, 7.019171851572684], [-73.08187346654142, 7.019063918499743], [-73.0796480427749, 7.017270051883829], [-73.07777715846899, 7.015504829725044], [-73.07505585394625, 7.016140553260009], [-73.07602222027127, 7.020628016390041], [-73.07742300699061, 7.024159991726439], [-73.07843901357154, 7.027469167684277], [-73.07609622668159, 7.029384872228565], [-73.07578907744714, 7.030932032151794], [-73.07437791859988, 7.030761001300517], [-73.07470624859114, 7.03304169846666], [-73.07166656880804, 7.033333629148966], [-73.07245043398015, 7.036228343820189], [-73.07330248590954, 7.037490409742432]]</t>
         </is>
+      </c>
+      <c r="C25" t="n">
+        <v>11000</v>
       </c>
       <c r="D25" t="n">
         <v>118</v>
@@ -1119,13 +1071,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6200</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
           <t>[[-73.07729125266191, 7.062005739695208], [-73.07873731557801, 7.060876775985973], [-73.07880770817751, 7.058998928264809], [-73.07847579707341, 7.058646430245564], [-73.07681455229825, 7.058577145669791], [-73.07555636232382, 7.05993810547966], [-73.07729125266191, 7.062005739695208]]</t>
         </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6200</v>
       </c>
       <c r="D26" t="n">
         <v>118</v>
@@ -1146,13 +1096,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
           <t>[[-73.03802401797944, 6.979433005773326], [-73.038768386365, 6.981616969599848], [-73.03777552965259, 6.985070242116806], [-73.03777586985566, 6.987586615516893], [-73.03879479030131, 6.991909720334884], [-73.0393949757439, 6.991680507882641], [-73.03986750569437, 6.991631546667528], [-73.04077833096966, 6.989843942706979], [-73.04110338993586, 6.988911522515795], [-73.04230737267751, 6.988578901923978], [-73.04310403957572, 6.987363074492865], [-73.04369752450476, 6.98633602058465], [-73.04405492001736, 6.986048491937533], [-73.04435900003936, 6.985765988922196], [-73.0450000472026, 6.985661322205337], [-73.04548597249541, 6.984093304852592], [-73.0470595993141, 6.983989031549104], [-73.04765765964677, 6.983292242788199], [-73.04732872386394, 6.982407939293037], [-73.04808980654352, 6.981446309052445], [-73.04907909453243, 6.980915035715624], [-73.04846850007605, 6.979355480840892], [-73.0490625628929, 6.978421883660918], [-73.04973388104855, 6.977581292148427], [-73.04949356553425, 6.976351453362674], [-73.05183340036702, 6.975446547922365], [-73.05066978388602, 6.972793051867942], [-73.0481144040555, 6.972839966680138], [-73.04658622164798, 6.97174088069931], [-73.04554056098982, 6.970503928988096], [-73.04457097561668, 6.968325798489509], [-73.04341144489162, 6.967235808180296], [-73.04260039963177, 6.967167643287337], [-73.0415080063228, 6.966839363585064], [-73.04033838831707, 6.966614401842269], [-73.03958789599953, 6.966878490932026], [-73.03735294838363, 6.967718074268522], [-73.03527861972414, 6.970336139875976], [-73.03518248802607, 6.973101849157278], [-73.03802401797944, 6.979433005773326]]</t>
         </is>
+      </c>
+      <c r="C27" t="n">
+        <v>4900</v>
       </c>
       <c r="D27" t="n">
         <v>118</v>
@@ -1173,13 +1121,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
           <t>[[-73.05085207212498, 6.970321104017139], [-73.05023906039003, 6.971044446278947], [-73.05199973284253, 6.974822618457627], [-73.05293196735667, 6.97469480069965], [-73.05258001598601, 6.973397303010774], [-73.0511372624744, 6.97060213334738], [-73.05085207212498, 6.970321104017139]]</t>
         </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4900</v>
       </c>
       <c r="D28" t="n">
         <v>118</v>
@@ -1200,13 +1146,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
           <t>[[-73.06467390976212, 6.996988487854678], [-73.06654484157505, 6.995661180368856], [-73.06765788895144, 6.994079829592216], [-73.06706032483442, 6.992051703080807], [-73.06517914355837, 6.991893489182813], [-73.06386101727033, 6.994085777505454], [-73.06467390976212, 6.996988487854678]]</t>
         </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4900</v>
       </c>
       <c r="D29" t="n">
         <v>118</v>
@@ -1227,13 +1171,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
           <t>[[-73.05840280562435, 6.972409053999322], [-73.05656706993106, 6.972785062077528], [-73.05381004917484, 6.972061077340579], [-73.05489919130584, 6.97453645326783], [-73.05674873899788, 6.977572690621553], [-73.05840280562435, 6.972409053999322]]</t>
         </is>
+      </c>
+      <c r="C30" t="n">
+        <v>4900</v>
       </c>
       <c r="D30" t="n">
         <v>118</v>
@@ -1254,13 +1196,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
           <t>[[-73.05424655098639, 6.976388132927555], [-73.05450131116018, 6.976086747287948], [-73.05393477424082, 6.975624693185607], [-73.05366287772955, 6.975903547848605], [-73.05424655098639, 6.976388132927555]]</t>
         </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4900</v>
       </c>
       <c r="D31" t="n">
         <v>118</v>
@@ -1281,13 +1221,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
           <t>[[-73.05977506277694, 6.97275298806436], [-73.0588819277967, 6.972813238535277], [-73.05892050118604, 6.973342473612041], [-73.05982681175027, 6.973276692016042], [-73.05977506277694, 6.97275298806436]]</t>
         </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4900</v>
       </c>
       <c r="D32" t="n">
         <v>118</v>
@@ -1308,13 +1246,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>[[-73.05247879310578, 7.004353714360431], [-73.05653567355174, 7.000418427438402], [-73.0571712217941, 7.002441580745079], [-73.06098908944726, 7.000725430363952], [-73.06260497667473, 6.998644878462814], [-73.0646025389288, 6.996946737398035], [-73.06382325781493, 6.994111498320106], [-73.0644022704331, 6.99309325933852], [-73.06506587899104, 6.992028066113464], [-73.06350707893647, 6.990384102705717], [-73.06257436071641, 6.99032632126005], [-73.06069739504849, 6.990347717415678], [-73.06016097254232, 6.990903534183408], [-73.06070403808368, 6.992525379305205], [-73.05995213279503, 6.993182639795897], [-73.06026291246394, 6.994285870472086], [-73.05966658961876, 6.994641552574863], [-73.05856552301753, 6.993408790208631], [-73.0579568448864, 6.993202122077881], [-73.05655438039338, 6.991648494162657], [-73.05724865420986, 6.9920089801524], [-73.05763880277773, 6.990406961033775], [-73.0583431024993, 6.989989941861525], [-73.05907097118542, 6.988570089786425], [-73.05858824183409, 6.988264482293669], [-73.05823502089571, 6.986724086716444], [-73.05805226233652, 6.985090098406508], [-73.05651407123251, 6.985785276843194], [-73.05595501482608, 6.984341209212721], [-73.05543589846673, 6.982935832291354], [-73.05535291806102, 6.981034751406007], [-73.05412895154303, 6.980650905435213], [-73.05286164805965, 6.980030118852889], [-73.05421266204436, 6.978713121922347], [-73.05436738661051, 6.977124498202995], [-73.05351013337607, 6.975976260523787], [-73.05306100104697, 6.975886229694472], [-73.0500127583545, 6.976671542236302], [-73.05087870879166, 6.97788344123611], [-73.05199066988872, 6.977346974404771], [-73.05256198566244, 6.977940730021766], [-73.0531162365387, 6.979201536004799], [-73.05312052993585, 6.979520767205429], [-73.05215225454342, 6.979706463465195], [-73.05007576099665, 6.976765342740406], [-73.04976396222743, 6.977611773733569], [-73.0485056603863, 6.979286566129266], [-73.04914107532285, 6.980916243869287], [-73.04811918927209, 6.981422932244445], [-73.04733016902155, 6.982338395794556], [-73.04762403263787, 6.983277363101181], [-73.04697028359094, 6.983967632419907], [-73.04552533074742, 6.984064188235843], [-73.04505239291159, 6.985670954822127], [-73.04432797156457, 6.985757582939812], [-73.0437843032617, 6.986418853642874], [-73.042218478716, 6.988615466877737], [-73.04124303129771, 6.988908499297162], [-73.03979092087961, 6.991679900123298], [-73.03873204756962, 6.991930207042162], [-73.04005110887856, 6.992775939578821], [-73.04195823552394, 6.993842433749491], [-73.043396603222, 6.994905068663606], [-73.04422708885538, 6.995569409950514], [-73.04533035355398, 6.996106350674916], [-73.04609254295661, 6.997205282422552], [-73.04659135647412, 6.998402245615339], [-73.04720121400388, 6.999858883802439], [-73.04850566771304, 6.998958794270783], [-73.04959524507787, 6.999005782522297], [-73.0494395938285, 6.999861204638972], [-73.04845574772021, 7.001465031439857], [-73.04709836752437, 7.002749480885942], [-73.0478869557609, 7.004016500759228], [-73.04922346156796, 7.004208033080936], [-73.0495522391975, 7.006247069658131], [-73.05247879310578, 7.004353714360431]]</t>
         </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3400</v>
       </c>
       <c r="D33" t="n">
         <v>118</v>
@@ -1335,13 +1271,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
           <t>[[-73.13064415146339, 7.087311903998191], [-73.13039058767842, 7.087619248795642], [-73.13054100261428, 7.088278690972349], [-73.13027973496317, 7.088479311501857], [-73.12987177594057, 7.088798101620538], [-73.12935867491233, 7.088829515972486], [-73.12921928736351, 7.088839997895172], [-73.12855866216867, 7.088848202715044], [-73.12381417347679, 7.090793269647862], [-73.12374837441118, 7.092000081434856], [-73.12450524708053, 7.092526377913952], [-73.12602344478965, 7.09213410901649], [-73.12658818468653, 7.091918310649062], [-73.12845175920394, 7.091426881893543], [-73.12976899339337, 7.090479842950764], [-73.1303989267856, 7.090370677694383], [-73.13128233627658, 7.090244964946419], [-73.13557636962801, 7.089245143793909], [-73.13645541141393, 7.087822605505648], [-73.13645037299136, 7.087641378474559], [-73.13632818213797, 7.087571167612642], [-73.13570489007853, 7.087830355455955], [-73.13531649247349, 7.087550962068454], [-73.13472450915046, 7.085288914644517], [-73.13406945748626, 7.084065696718723], [-73.13381356222929, 7.084016442536855], [-73.13232709729974, 7.083432940918932], [-73.13209445757559, 7.084589276104543], [-73.13181487514493, 7.085919066302981], [-73.13177824908587, 7.087105708916901], [-73.13064415146339, 7.087311903998191]]</t>
         </is>
+      </c>
+      <c r="C34" t="n">
+        <v>4400</v>
       </c>
       <c r="D34" t="n">
         <v>118</v>
@@ -1362,13 +1296,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5600</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
           <t>[[-73.1484924359493, 7.084963461816537], [-73.15089299077489, 7.0848241312701], [-73.15272552207853, 7.085002304761244], [-73.15532533091923, 7.085263398736037], [-73.15665658065149, 7.085845212795301], [-73.15761020410591, 7.086042118269401], [-73.15814228377803, 7.08588595347454], [-73.1585505215859, 7.085563374161888], [-73.15871263832956, 7.085178596536843], [-73.15873857573541, 7.084627794250625], [-73.15882057335712, 7.084186987681977], [-73.15883708798161, 7.082869100485906], [-73.15860937792353, 7.082300148168312], [-73.1585872610437, 7.081417832558231], [-73.15771814531973, 7.080740858983181], [-73.15333098284262, 7.080680764339981], [-73.15048801205263, 7.081880717143822], [-73.14733190306747, 7.082201091051095], [-73.1484924359493, 7.084963461816537]]</t>
         </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5600</v>
       </c>
       <c r="D35" t="n">
         <v>118</v>
@@ -1389,13 +1321,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
           <t>[[-73.13638884312518, 7.087620747536774], [-73.13647980967127, 7.087858690688263], [-73.1365521033472, 7.087938751147784], [-73.13659636461693, 7.087890695830114], [-73.1366331592274, 7.087822715796722], [-73.13671985909693, 7.087775332166587], [-73.13685907839812, 7.087699244128252], [-73.13696389888173, 7.08764195572727], [-73.13711426765576, 7.087536102343703], [-73.13715957672633, 7.087488364286355], [-73.13717227448288, 7.087410785914952], [-73.13747274497466, 7.087415923345381], [-73.13770153746809, 7.087344217296151], [-73.14844745198647, 7.084987720380291], [-73.14847158614634, 7.084937920726871], [-73.14810377544859, 7.084126022467723], [-73.1476355851725, 7.083031040311099], [-73.14728576764503, 7.082067789393316], [-73.13410422192337, 7.084022448148485], [-73.13481286267648, 7.085373188568789], [-73.13531642299507, 7.087483637001841], [-73.13569399462088, 7.087813027388812], [-73.13602071029044, 7.087699249614343], [-73.13638884312518, 7.087620747536774]]</t>
         </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4900</v>
       </c>
       <c r="D36" t="n">
         <v>118</v>
@@ -1416,13 +1346,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7500</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
           <t>[[-73.1651334756138, 7.088723461862221], [-73.16612211539214, 7.089167424217821], [-73.16663580948519, 7.091959819888863], [-73.16615225021202, 7.095830143798655], [-73.1652659406383, 7.095739084567044], [-73.1634413609727, 7.098476968921284], [-73.16260385924875, 7.098129652906968], [-73.16279078442695, 7.097296536099687], [-73.16366251765363, 7.097587861431351], [-73.16345320779944, 7.098465664716502], [-73.16526485859072, 7.095716907052312], [-73.16136400555997, 7.095330464242454], [-73.15820598121948, 7.094839392309193], [-73.1531152318409, 7.095996812934341], [-73.15338796238642, 7.100333155661849], [-73.15696591771706, 7.101162206086325], [-73.15954207353548, 7.101577710810024], [-73.16080387690268, 7.101591785962501], [-73.1644888812246, 7.101865603331877], [-73.16126236607043, 7.107948895341773], [-73.1592777657964, 7.11384182396468], [-73.16047274652917, 7.113961273371213], [-73.16200038876103, 7.10921397631944], [-73.16257316300715, 7.10775643466248], [-73.16308026325623, 7.106527595940732], [-73.1637851073175, 7.105544560196535], [-73.16584285519832, 7.102106629643481], [-73.16636877742839, 7.099930966717261], [-73.17301157638417, 7.101677274706171], [-73.1735004995457, 7.098124052072059], [-73.17303588003801, 7.092918011397948], [-73.17523480047907, 7.086005977726871], [-73.17598354143068, 7.084431514955128], [-73.17600302117599, 7.083508072870595], [-73.17620064980784, 7.082165502691141], [-73.17631140997761, 7.080698210969863], [-73.1785545212574, 7.080351662690479], [-73.17864219255188, 7.079352980428281], [-73.17737592803763, 7.078876177600076], [-73.17847769479317, 7.078144552501261], [-73.17829177720745, 7.076885582789639], [-73.17954384956596, 7.076182205079215], [-73.1796688736625, 7.07457743355054], [-73.1792749186681, 7.074276396285764], [-73.17877028264616, 7.073485097181294], [-73.17878597243487, 7.072700847150549], [-73.17815119452786, 7.072245260977447], [-73.1774757955153, 7.072210025015419], [-73.17618994931173, 7.071953122462676], [-73.17552509439278, 7.071622203833413], [-73.17462638112065, 7.071039813090681], [-73.17385029051907, 7.07056454684052], [-73.17303252114581, 7.068807940924701], [-73.17194521717397, 7.06792171916438], [-73.1736639016221, 7.063797461666397], [-73.17328688113665, 7.062702539828279], [-73.17436801137089, 7.060762371603396], [-73.17436038255039, 7.060642522987532], [-73.17387517171635, 7.059481974682963], [-73.173628650503, 7.059340935045802], [-73.17208590023479, 7.057333630901095], [-73.17182845790556, 7.055878042122231], [-73.17117116127747, 7.055968934597648], [-73.17016107044728, 7.056265998048247], [-73.16898265498298, 7.05626680300729], [-73.16790746707301, 7.056391312357393], [-73.16670417019333, 7.056226114483636], [-73.16584436241135, 7.056448452257062], [-73.16488584940748, 7.05684085097457], [-73.1651786493501, 7.057710798660537], [-73.16443746414669, 7.057875447566964], [-73.16328656764534, 7.057815507631955], [-73.16281056621949, 7.05715665432778], [-73.16219862916816, 7.056488943772607], [-73.1612398034483, 7.05578053237914], [-73.16013169692445, 7.055597983162999], [-73.15894201820485, 7.055630322807991], [-73.15795279914289, 7.055698857985414], [-73.15709027060987, 7.055734702631016], [-73.15597259751438, 7.055884721200521], [-73.15510197127418, 7.056122392845631], [-73.154281524757, 7.056364291690367], [-73.15363975621526, 7.057325963413708], [-73.15375075358216, 7.057987908446842], [-73.15426868622062, 7.057606957446738], [-73.15502947280515, 7.057921104368952], [-73.15597416622663, 7.058337021401631], [-73.15631095641139, 7.058967332831312], [-73.15665453881921, 7.059838676623964], [-73.15734756268952, 7.060240710672894], [-73.15831445002732, 7.059917602453457], [-73.15927364770897, 7.060797210433163], [-73.15990706153181, 7.061638695811255], [-73.15997581461998, 7.062457710892802], [-73.1599037409799, 7.062957896621477], [-73.15960444707369, 7.063571050986806], [-73.15947078650049, 7.064016601565778], [-73.16186479750738, 7.066771556568107], [-73.1628796491919, 7.068095075014992], [-73.162424531406, 7.068901233751358], [-73.16241820082912, 7.070198316123069], [-73.16246676892776, 7.07124397947493], [-73.16245837328736, 7.072318346028912], [-73.16248418089236, 7.073260409077754], [-73.16274197572021, 7.073856976150113], [-73.1633891016413, 7.07448041053529], [-73.16377429592075, 7.074438828128871], [-73.16378370553238, 7.07485061882004], [-73.16417866013417, 7.076199336995589], [-73.16488705784046, 7.077525135202596], [-73.16477874366451, 7.078678522129824], [-73.16569226167361, 7.080179658511416], [-73.1655979372873, 7.081213293438234], [-73.16510751929145, 7.082562323493632], [-73.15859479099649, 7.081494663529368], [-73.15893775525848, 7.083498278817802], [-73.15855545577364, 7.085658675042606], [-73.16503764677934, 7.088151661282376], [-73.1651334756138, 7.088723461862221]]</t>
         </is>
+      </c>
+      <c r="C37" t="n">
+        <v>7500</v>
       </c>
       <c r="D37" t="n">
         <v>118</v>
@@ -1443,13 +1371,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9000</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
           <t>[[-73.16640890806408, 7.099949543512532], [-73.16567640253713, 7.10246882700366], [-73.16387592426707, 7.105433460544696], [-73.17175171206807, 7.105829514444621], [-73.17299336557359, 7.101663576229741], [-73.16640890806408, 7.099949543512532]]</t>
         </is>
+      </c>
+      <c r="C38" t="n">
+        <v>9000</v>
       </c>
       <c r="D38" t="n">
         <v>118</v>
@@ -1470,13 +1396,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9000</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
           <t>[[-73.16371361385104, 7.105452010192904], [-73.16197469446345, 7.109065162143564], [-73.16050685493228, 7.113938317196698], [-73.16587417648554, 7.114346280029628], [-73.17176157185745, 7.105832220321227], [-73.16371361385104, 7.105452010192904]]</t>
         </is>
+      </c>
+      <c r="C39" t="n">
+        <v>9000</v>
       </c>
       <c r="D39" t="n">
         <v>118</v>
@@ -1497,13 +1421,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9000</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
           <t>[[-73.14800075523982, 7.14230716961642], [-73.15742939684206, 7.143956155690969], [-73.16072856964779, 7.132873383940493], [-73.1524960149832, 7.129241486284763], [-73.14800075523982, 7.14230716961642]]</t>
         </is>
+      </c>
+      <c r="C40" t="n">
+        <v>9000</v>
       </c>
       <c r="D40" t="n">
         <v>118</v>
@@ -1524,13 +1446,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4700</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
           <t>[[-73.13608072048896, 7.166063179092666], [-73.14136695352937, 7.165365766112995], [-73.14568738428918, 7.155740036693711], [-73.14180889229047, 7.153660576959667], [-73.13600968613963, 7.162029879523988], [-73.13608072048896, 7.166063179092666]]</t>
         </is>
+      </c>
+      <c r="C41" t="n">
+        <v>4700</v>
       </c>
       <c r="D41" t="n">
         <v>118</v>
@@ -1551,13 +1471,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8000</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
           <t>[[-73.170857951412, 7.053489382286898], [-73.1686225466167, 7.04998935936133], [-73.16844157113385, 7.049950471022137], [-73.1679461447595, 7.049651188549586], [-73.16766679672295, 7.049285781350345], [-73.16716171888343, 7.048692008422039], [-73.1666454641347, 7.048096819757414], [-73.16593753918198, 7.047641653212659], [-73.16523012036625, 7.047547959077649], [-73.1651515209344, 7.047542027611666], [-73.16509060243402, 7.047525874301888], [-73.16507419913775, 7.047526552164136], [-73.16413711959046, 7.047794619152938], [-73.16353406611157, 7.048339289135467], [-73.16349416096241, 7.049411881705589], [-73.1632220120536, 7.050126286883124], [-73.16383902944965, 7.050879475759901], [-73.16452617315385, 7.051130451214171], [-73.16495837644771, 7.052189248065474], [-73.16536199672332, 7.05295019981942], [-73.16534593814313, 7.05357721810147], [-73.16556093852434, 7.05390229362187], [-73.166001685464, 7.054121252709642], [-73.16647483430236, 7.053757599347034], [-73.16683293003022, 7.05362500685799], [-73.16648026689393, 7.054925374601991], [-73.16581207328589, 7.055399383929242], [-73.16429150627012, 7.054821636274593], [-73.16482825948111, 7.056802494130463], [-73.16568266492602, 7.056473051730074], [-73.16665484220991, 7.056242712023398], [-73.16795369103336, 7.056386896382327], [-73.16903498742238, 7.056269451874312], [-73.17022926770812, 7.056267204700849], [-73.17118607698941, 7.055978008141779], [-73.1718448066559, 7.05586152639851], [-73.170857951412, 7.053489382286898]]</t>
         </is>
+      </c>
+      <c r="C42" t="n">
+        <v>8000</v>
       </c>
       <c r="D42" t="n">
         <v>118</v>
@@ -1578,13 +1496,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>8000</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
           <t>[[-73.18013656229265, 7.069199246872671], [-73.18203035552591, 7.063047954937868], [-73.18170739120839, 7.062775136302901], [-73.18087319848735, 7.062289210477379], [-73.17987705253506, 7.061291672239527], [-73.17912341599163, 7.061040895347483], [-73.17795855775465, 7.061395740379768], [-73.17686550680858, 7.061494520922037], [-73.17431012937317, 7.060514531688894], [-73.17333361803468, 7.062774615245512], [-73.17371091551507, 7.063788780122001], [-73.17360880376384, 7.064012917475631], [-73.17299552546783, 7.065433152725119], [-73.17242498009684, 7.066657712825883], [-73.17204738245718, 7.067682799029362], [-73.17215901037952, 7.067823227764423], [-73.17240074084799, 7.068149791993987], [-73.17310523247934, 7.068847560946023], [-73.17358877471763, 7.070168806648476], [-73.17428653757236, 7.070876428414175], [-73.17592895314479, 7.071886571046986], [-73.17864539025203, 7.072499988279009], [-73.18013656229265, 7.069199246872671]]</t>
         </is>
+      </c>
+      <c r="C43" t="n">
+        <v>8000</v>
       </c>
       <c r="D43" t="n">
         <v>118</v>
@@ -1605,13 +1521,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3900</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
           <t>[[-73.09355875283316, 7.057386765709235], [-73.09458537176101, 7.056215021656154], [-73.09471685629885, 7.054737921705869], [-73.09440652480016, 7.053575897821719], [-73.0903215918065, 7.055298377145206], [-73.09355875283316, 7.057386765709235]]</t>
         </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3900</v>
       </c>
       <c r="D44" t="n">
         <v>118</v>
@@ -1632,13 +1546,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>[[-73.12796672038088, 7.143495021279204], [-73.1281598479331, 7.146086818878237], [-73.12821179900783, 7.146814274452881], [-73.12825020539636, 7.147299010748154], [-73.12830449906237, 7.14765197763318], [-73.12828722338493, 7.147889405413574], [-73.12830946420908, 7.148026030263654], [-73.12831973136757, 7.148249037583709], [-73.12834279689525, 7.148473571832252], [-73.12830096611103, 7.148619828699084], [-73.12829964913715, 7.148900275393903], [-73.1283387155846, 7.149316110323382], [-73.12830004716137, 7.149467947615932], [-73.1283016228546, 7.149755136447658], [-73.12829856295707, 7.150037890271346], [-73.12827537333867, 7.150412178920523], [-73.12834459943923, 7.150815119713919], [-73.12835899325391, 7.1511522690853], [-73.12838598203517, 7.151389644644143], [-73.12839984997183, 7.151582185375847], [-73.12844022639955, 7.151866755801195], [-73.12849566011221, 7.152200578057559], [-73.12849791174739, 7.152351193176441], [-73.1285675289666, 7.152586046540698], [-73.1286258048359, 7.152926430960398], [-73.12865383115819, 7.153021075992888], [-73.12878790954028, 7.1534870269159], [-73.12890514072285, 7.153453408242086], [-73.12901038839021, 7.153524636527295], [-73.1292239299867, 7.153882766381313], [-73.1293138008962, 7.153957557483489], [-73.12957009924612, 7.154260141773248], [-73.12982545853573, 7.154148914878833], [-73.12995500585522, 7.154309432007076], [-73.13019679184036, 7.154578598252872], [-73.13038621995774, 7.154812695704565], [-73.13044934819142, 7.154890692941914], [-73.13068264114324, 7.155119675955044], [-73.13090028986012, 7.155149448102837], [-73.13101460732275, 7.155111455830784], [-73.13144595953959, 7.155018653645869], [-73.13187565632285, 7.154926205515469], [-73.13195112993536, 7.154901033098767], [-73.13235500321913, 7.15486768365623], [-73.13262065594996, 7.154783359572741], [-73.13269898183873, 7.154762317498184], [-73.1331306731684, 7.154648514537935], [-73.13361386968495, 7.154581850402981], [-73.13372354965466, 7.154680270878774], [-73.13406845946234, 7.154942472004371], [-73.13434957741573, 7.155126964289741], [-73.13445304310515, 7.155151972342761], [-73.13459032329435, 7.155259641839478], [-73.13473720636688, 7.155364336594348], [-73.134877168711, 7.155499876923559], [-73.13500172047527, 7.155561392519755], [-73.1352816811912, 7.155784739347625], [-73.13580840688043, 7.155890992415854], [-73.13616152426708, 7.155996488055562], [-73.13632475568781, 7.155970894544879], [-73.1368712952527, 7.155755822530447], [-73.13732255073927, 7.155419559356528], [-73.13753048324595, 7.154450268828039], [-73.13741676004459, 7.154105191411763], [-73.13732888923263, 7.153911651077014], [-73.13733985108158, 7.153674654843527], [-73.13718471008862, 7.15346488514125], [-73.13712421228782, 7.153283153039357], [-73.13704877403933, 7.153056547766942], [-73.13697354235802, 7.152830562604549], [-73.13703790098819, 7.152628997159932], [-73.13717339757112, 7.152510443768299], [-73.13725227895407, 7.152354163284855], [-73.13723326989174, 7.152167502004331], [-73.13716878165806, 7.151984754598637], [-73.13708519909356, 7.151754265916328], [-73.13695340690283, 7.151631013494836], [-73.13681306013503, 7.151363336405019], [-73.13674698256452, 7.151180624271186], [-73.1368031567656, 7.150976492511314], [-73.13693285649435, 7.150856364998179], [-73.1370422629903, 7.150792241183401], [-73.13721969360927, 7.150670836510595], [-73.13735488367, 7.150555633960828], [-73.13731355363633, 7.150323298500468], [-73.13720497831069, 7.150149037509311], [-73.1371445386677, 7.149973662631205], [-73.13705092074508, 7.149811399238031], [-73.13685585670012, 7.149750572557405], [-73.13666224617867, 7.149690727944522], [-73.13650179806353, 7.149553817663601], [-73.13635286590545, 7.149457877403196], [-73.13614783896202, 7.149324947863083], [-73.13605716166498, 7.149165152596176], [-73.13600475819379, 7.148996715293706], [-73.1359415610907, 7.1487882206715], [-73.13600167346321, 7.148592491261198], [-73.13601798492323, 7.148401841913499], [-73.1358224292024, 7.148308385921511], [-73.13568801806446, 7.148154227591191], [-73.13551456650153, 7.148008124206506], [-73.13535622426757, 7.147905273530705], [-73.13508588174281, 7.147596355733268], [-73.13490264628187, 7.147411254500057], [-73.13469771400295, 7.147278711846597], [-73.13451644723575, 7.147095174014476], [-73.13434062730788, 7.147047841095605], [-73.13419084614904, 7.14695126151553], [-73.13400443586144, 7.146864169988495], [-73.1338408850306, 7.146725526836123], [-73.13367475894067, 7.146585018876205], [-73.1334914822449, 7.146400108408824], [-73.13335167811262, 7.146342655445013], [-73.13313143133057, 7.146166919655633], [-73.13303689219879, 7.146006668832058], [-73.13301685342506, 7.14582905544817], [-73.13306251920524, 7.145727156935037], [-73.1331393372862, 7.145481934653338], [-73.13311796656099, 7.145401081716734], [-73.1329144721149, 7.145173755062239], [-73.13271003680775, 7.14504199630705], [-73.13251998704895, 7.144952042685659], [-73.13233704030198, 7.144866988080988], [-73.13215439042854, 7.144782129121707], [-73.13192299358552, 7.144665927265575], [-73.13174048946702, 7.144581137844377], [-73.13163528855677, 7.144506274340916], [-73.13151680422781, 7.144434758224374], [-73.1312658877071, 7.144308569095508], [-73.13112082683608, 7.144226262526232], [-73.13091489611747, 7.144121082596683], [-73.13081081281899, 7.14406107840759], [-73.13069599805976, 7.143997439652391], [-73.13056771261246, 7.14388979815618], [-73.13035065232043, 7.143801567653546], [-73.12796672038088, 7.143495021279204]]</t>
-        </is>
+          <t>[[-73.09294178778954, 7.104197390408098], [-73.09330156528523, 7.10539273785162], [-73.09584715115176, 7.109032532817139], [-73.09582786462141, 7.110332274275949], [-73.09660011170278, 7.111613617068617], [-73.09808560263579, 7.111091769583641], [-73.09984186413793, 7.110051903831338], [-73.10105234078009, 7.107477437775142], [-73.10222416902732, 7.108327478777144], [-73.10388853964622, 7.1096290134793], [-73.10375101233168, 7.114185806418497], [-73.10539486853224, 7.113805175456459], [-73.10747739195232, 7.110036231901069], [-73.10829799972615, 7.108820714248684], [-73.10856602020417, 7.107979635949397], [-73.10845655457165, 7.107033136344715], [-73.10881064318713, 7.106596105791214], [-73.1090924110196, 7.106414249221638], [-73.10718222481452, 7.105612864259875], [-73.1045803101813, 7.106393830889241], [-73.10425366546868, 7.105976453910392], [-73.10184504049353, 7.106639490240835], [-73.10142074679416, 7.106663765807995], [-73.09997801103752, 7.106274349711344], [-73.09922470826959, 7.106204981243953], [-73.09894404568144, 7.106385801206913], [-73.0984908187654, 7.10607581605429], [-73.09752979652198, 7.105818304244239], [-73.09763019833701, 7.10563015173976], [-73.0975521683402, 7.105575490626481], [-73.09741137461499, 7.105132091074991], [-73.09294178778954, 7.104197390408098]]</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4600</v>
       </c>
       <c r="D45" t="n">
         <v>118</v>
@@ -1659,13 +1571,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>[[-73.09294178778954, 7.104197390408098], [-73.09330156528523, 7.10539273785162], [-73.09584715115176, 7.109032532817139], [-73.09582786462141, 7.110332274275949], [-73.09660011170278, 7.111613617068617], [-73.09808560263579, 7.111091769583641], [-73.09984186413793, 7.110051903831338], [-73.10105234078009, 7.107477437775142], [-73.10222416902732, 7.108327478777144], [-73.10388853964622, 7.1096290134793], [-73.10375101233168, 7.114185806418497], [-73.10539486853224, 7.113805175456459], [-73.10747739195232, 7.110036231901069], [-73.10829799972615, 7.108820714248684], [-73.10856602020417, 7.107979635949397], [-73.10845655457165, 7.107033136344715], [-73.10881064318713, 7.106596105791214], [-73.1090924110196, 7.106414249221638], [-73.10718222481452, 7.105612864259875], [-73.1045803101813, 7.106393830889241], [-73.10425366546868, 7.105976453910392], [-73.10184504049353, 7.106639490240835], [-73.10142074679416, 7.106663765807995], [-73.09997801103752, 7.106274349711344], [-73.09922470826959, 7.106204981243953], [-73.09894404568144, 7.106385801206913], [-73.0984908187654, 7.10607581605429], [-73.09752979652198, 7.105818304244239], [-73.09763019833701, 7.10563015173976], [-73.0975521683402, 7.105575490626481], [-73.09741137461499, 7.105132091074991], [-73.09294178778954, 7.104197390408098]]</t>
-        </is>
+          <t>[[-73.11066842289732, 7.137859943105203], [-73.11069099785487, 7.137808260046112], [-73.11071721497632, 7.1377448156735], [-73.1107317186578, 7.137677516031335], [-73.11074320266658, 7.137642169785448], [-73.11075849881291, 7.137595089750669], [-73.1107699598328, 7.137559815695314], [-73.11078133782426, 7.137504939466682], [-73.11077727547563, 7.137457798714499], [-73.11078088455629, 7.137406860245013], [-73.1107768905437, 7.137379384602723], [-73.11076890854252, 7.137324473226913], [-73.11076102687808, 7.137289166122138], [-73.11076473285956, 7.137257938276036], [-73.11075287592261, 7.137195287311734], [-73.11075269354401, 7.13715626455], [-73.11074862495381, 7.13710942311309], [-73.11074456047209, 7.137062622698389], [-73.11074049901006, 7.137015863612521], [-73.11073272331136, 7.136980733875279], [-73.1107250855709, 7.1369455923248], [-73.11071361655212, 7.136902616121982], [-73.11071367889882, 7.136863728541357], [-73.11070991013816, 7.136817016674324], [-73.11070997337067, 7.136778159761335], [-73.11071003667824, 7.136739317313997], [-73.11070627004058, 7.136692655609389], [-73.11069478161046, 7.136669155027408], [-73.11067563419726, 7.136629987638738], [-73.11064105574096, 7.136617694117534], [-73.11060645950204, 7.136605394116697], [-73.11056804417088, 7.136604619656507], [-73.11052974762335, 7.136603750002392], [-73.11047990450467, 7.136598728460072], [-73.11044537908792, 7.136586268533366], [-73.11040693843331, 7.136585386009505], [-73.11037616502487, 7.136580784396952], [-73.11033374641754, 7.136591501748939], [-73.11029130984953, 7.136582756891794], [-73.11027196178485, 7.136582350994194], [-73.11020610130066, 7.136584865465063], [-73.11015954203377, 7.136587789929609], [-73.11010906321604, 7.13658283367555], [-73.11007018322059, 7.136582019433148], [-73.1100429318704, 7.136585353542806], [-73.11002346424699, 7.136584946893958], [-73.10993767980905, 7.136587064959574], [-73.1099103338215, 7.136590406700067], [-73.10986354980223, 7.136593047439541], [-73.10983237670479, 7.136588171220583], [-73.10977373658335, 7.136586364976493], [-73.10971877635876, 7.136592538047873], [-73.10967944226522, 7.136591335684079], [-73.1096162374572, 7.136601239622285], [-73.10956482424984, 7.136595975656892], [-73.10951722025928, 7.136598757405864], [-73.10944964326909, 7.136601068096774], [-73.10941373411072, 7.136608084201326], [-73.10936974150394, 7.136618865146115], [-73.10933784366814, 7.136614166039193], [-73.1092903213821, 7.136577523234656], [-73.10928252890021, 7.136561560840153], [-73.10925916642475, 7.136513702389345], [-73.10924776592204, 7.136470132342843], [-73.10924415132297, 7.136442530079449], [-73.10924081468266, 7.136395347462663], [-73.10922944588994, 7.136351927933699], [-73.10923000340473, 7.13631281700835], [-73.10921854364963, 7.136269249882515], [-73.10920324032338, 7.136217840065096], [-73.1091917684555, 7.136174265707154], [-73.10917614336762, 7.136142274954005], [-73.10915661022108, 7.136102283032297], [-73.10913707560653, 7.136062287659176], [-73.1091175389024, 7.136022288889048], [-73.10910190854032, 7.135990287285619], [-73.10908236910151, 7.135950282245672], [-73.10907483340188, 7.135914771784195], [-73.10906730155402, 7.135879278702518], [-73.1090312658695, 7.135865748646101], [-73.10899486444113, 7.13587171531302], [-73.10896229934183, 7.135885718819517], [-73.10891768867849, 7.13589546364], [-73.10888512736912, 7.135909820793296], [-73.10884868864314, 7.13591634400267], [-73.10880456528818, 7.135907148920264], [-73.10877239694717, 7.135902212731812], [-73.10875278343075, 7.135882220419175], [-73.10871357913047, 7.135842259291945], [-73.10867819848927, 7.135810172670158], [-73.10864662355974, 7.135785942012292], [-73.10864283524131, 7.135778102518398], [-73.10857527206059, 7.135741051553354], [-73.10855194003338, 7.135713280280048], [-73.10851659696468, 7.13568121135367], [-73.1084931334709, 7.13565325353467], [-73.1084742414415, 7.135614088225771], [-73.10845443937617, 7.135593802346713], [-73.10840657033766, 7.135556726212371], [-73.10836694018448, 7.13551612935925], [-73.10834269267231, 7.135507251754088], [-73.10829474615116, 7.135470115814624], [-73.10826276318484, 7.135445344194369], [-73.10822692040028, 7.135412626342309], [-73.1081993854173, 7.135376430586096], [-73.1081756949245, 7.135348169427506], [-73.1081436736656, 7.135323360814349], [-73.10814092615482, 7.13533404211074], [-73.10812790659092, 7.135281706613678], [-73.10807381520202, 7.135225905750681], [-73.10760095813008, 7.134080645569688], [-73.10755057131709, 7.13415459341576], [-73.10760619792985, 7.134700663020342], [-73.10762562676229, 7.134936320726741], [-73.10763713239297, 7.135002912394048], [-73.10762960359236, 7.135035759086675], [-73.10768178788368, 7.136065696254427], [-73.10769267228791, 7.136089739002149], [-73.10774364434776, 7.136202331552016], [-73.10776192019507, 7.136242700995804], [-73.10778138303655, 7.136263086769835], [-73.10782149334358, 7.136283830680065], [-73.10787396860998, 7.136329537486251], [-73.10791161959668, 7.136342775329481], [-73.10797810849547, 7.136372974423294], [-73.10807334355194, 7.136420085494076], [-73.10814346295747, 7.136458353951187], [-73.10818089380088, 7.136471498542221], [-73.10830830725536, 7.136543472448548], [-73.10838173222785, 7.136589632906248], [-73.10841032998214, 7.13660646183615], [-73.10846751129486, 7.136640111339259], [-73.1085046108084, 7.136653093873894], [-73.10853718360539, 7.136678141760626], [-73.10856211071156, 7.136686885141835], [-73.10866938729632, 7.136738123213126], [-73.1087229014813, 7.136763682675564], [-73.10873920955054, 7.136776201247789], [-73.10877684038525, 7.13678943284714], [-73.10882642454443, 7.136827248534015], [-73.1088638493773, 7.136840382283457], [-73.10890076682026, 7.136873682478473], [-73.10894602033584, 7.136903083164256], [-73.10897040930098, 7.136931936167103], [-73.10902348097412, 7.136977534168555], [-73.10906441698151, 7.136998551105063], [-73.1096033867513, 7.13730017794866], [-73.10971456338004, 7.137365122368856], [-73.11066152540994, 7.137923861062177], [-73.11066842289732, 7.137859943105203]]</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3700</v>
       </c>
       <c r="D46" t="n">
         <v>118</v>
@@ -1686,13 +1596,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3700</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>[[-73.11066842289732, 7.137859943105203], [-73.11069099785487, 7.137808260046112], [-73.11071721497632, 7.1377448156735], [-73.1107317186578, 7.137677516031335], [-73.11074320266658, 7.137642169785448], [-73.11075849881291, 7.137595089750669], [-73.1107699598328, 7.137559815695314], [-73.11078133782426, 7.137504939466682], [-73.11077727547563, 7.137457798714499], [-73.11078088455629, 7.137406860245013], [-73.1107768905437, 7.137379384602723], [-73.11076890854252, 7.137324473226913], [-73.11076102687808, 7.137289166122138], [-73.11076473285956, 7.137257938276036], [-73.11075287592261, 7.137195287311734], [-73.11075269354401, 7.13715626455], [-73.11074862495381, 7.13710942311309], [-73.11074456047209, 7.137062622698389], [-73.11074049901006, 7.137015863612521], [-73.11073272331136, 7.136980733875279], [-73.1107250855709, 7.1369455923248], [-73.11071361655212, 7.136902616121982], [-73.11071367889882, 7.136863728541357], [-73.11070991013816, 7.136817016674324], [-73.11070997337067, 7.136778159761335], [-73.11071003667824, 7.136739317313997], [-73.11070627004058, 7.136692655609389], [-73.11069478161046, 7.136669155027408], [-73.11067563419726, 7.136629987638738], [-73.11064105574096, 7.136617694117534], [-73.11060645950204, 7.136605394116697], [-73.11056804417088, 7.136604619656507], [-73.11052974762335, 7.136603750002392], [-73.11047990450467, 7.136598728460072], [-73.11044537908792, 7.136586268533366], [-73.11040693843331, 7.136585386009505], [-73.11037616502487, 7.136580784396952], [-73.11033374641754, 7.136591501748939], [-73.11029130984953, 7.136582756891794], [-73.11027196178485, 7.136582350994194], [-73.11020610130066, 7.136584865465063], [-73.11015954203377, 7.136587789929609], [-73.11010906321604, 7.13658283367555], [-73.11007018322059, 7.136582019433148], [-73.1100429318704, 7.136585353542806], [-73.11002346424699, 7.136584946893958], [-73.10993767980905, 7.136587064959574], [-73.1099103338215, 7.136590406700067], [-73.10986354980223, 7.136593047439541], [-73.10983237670479, 7.136588171220583], [-73.10977373658335, 7.136586364976493], [-73.10971877635876, 7.136592538047873], [-73.10967944226522, 7.136591335684079], [-73.1096162374572, 7.136601239622285], [-73.10956482424984, 7.136595975656892], [-73.10951722025928, 7.136598757405864], [-73.10944964326909, 7.136601068096774], [-73.10941373411072, 7.136608084201326], [-73.10936974150394, 7.136618865146115], [-73.10933784366814, 7.136614166039193], [-73.1092903213821, 7.136577523234656], [-73.10928252890021, 7.136561560840153], [-73.10925916642475, 7.136513702389345], [-73.10924776592204, 7.136470132342843], [-73.10924415132297, 7.136442530079449], [-73.10924081468266, 7.136395347462663], [-73.10922944588994, 7.136351927933699], [-73.10923000340473, 7.13631281700835], [-73.10921854364963, 7.136269249882515], [-73.10920324032338, 7.136217840065096], [-73.1091917684555, 7.136174265707154], [-73.10917614336762, 7.136142274954005], [-73.10915661022108, 7.136102283032297], [-73.10913707560653, 7.136062287659176], [-73.1091175389024, 7.136022288889048], [-73.10910190854032, 7.135990287285619], [-73.10908236910151, 7.135950282245672], [-73.10907483340188, 7.135914771784195], [-73.10906730155402, 7.135879278702518], [-73.1090312658695, 7.135865748646101], [-73.10899486444113, 7.13587171531302], [-73.10896229934183, 7.135885718819517], [-73.10891768867849, 7.13589546364], [-73.10888512736912, 7.135909820793296], [-73.10884868864314, 7.13591634400267], [-73.10880456528818, 7.135907148920264], [-73.10877239694717, 7.135902212731812], [-73.10875278343075, 7.135882220419175], [-73.10871357913047, 7.135842259291945], [-73.10867819848927, 7.135810172670158], [-73.10864662355974, 7.135785942012292], [-73.10864283524131, 7.135778102518398], [-73.10857527206059, 7.135741051553354], [-73.10855194003338, 7.135713280280048], [-73.10851659696468, 7.13568121135367], [-73.1084931334709, 7.13565325353467], [-73.1084742414415, 7.135614088225771], [-73.10845443937617, 7.135593802346713], [-73.10840657033766, 7.135556726212371], [-73.10836694018448, 7.13551612935925], [-73.10834269267231, 7.135507251754088], [-73.10829474615116, 7.135470115814624], [-73.10826276318484, 7.135445344194369], [-73.10822692040028, 7.135412626342309], [-73.1081993854173, 7.135376430586096], [-73.1081756949245, 7.135348169427506], [-73.1081436736656, 7.135323360814349], [-73.10814092615482, 7.13533404211074], [-73.10812790659092, 7.135281706613678], [-73.10807381520202, 7.135225905750681], [-73.10760095813008, 7.134080645569688], [-73.10755057131709, 7.13415459341576], [-73.10760619792985, 7.134700663020342], [-73.10762562676229, 7.134936320726741], [-73.10763713239297, 7.135002912394048], [-73.10762960359236, 7.135035759086675], [-73.10768178788368, 7.136065696254427], [-73.10769267228791, 7.136089739002149], [-73.10774364434776, 7.136202331552016], [-73.10776192019507, 7.136242700995804], [-73.10778138303655, 7.136263086769835], [-73.10782149334358, 7.136283830680065], [-73.10787396860998, 7.136329537486251], [-73.10791161959668, 7.136342775329481], [-73.10797810849547, 7.136372974423294], [-73.10807334355194, 7.136420085494076], [-73.10814346295747, 7.136458353951187], [-73.10818089380088, 7.136471498542221], [-73.10830830725536, 7.136543472448548], [-73.10838173222785, 7.136589632906248], [-73.10841032998214, 7.13660646183615], [-73.10846751129486, 7.136640111339259], [-73.1085046108084, 7.136653093873894], [-73.10853718360539, 7.136678141760626], [-73.10856211071156, 7.136686885141835], [-73.10866938729632, 7.136738123213126], [-73.1087229014813, 7.136763682675564], [-73.10873920955054, 7.136776201247789], [-73.10877684038525, 7.13678943284714], [-73.10882642454443, 7.136827248534015], [-73.1088638493773, 7.136840382283457], [-73.10890076682026, 7.136873682478473], [-73.10894602033584, 7.136903083164256], [-73.10897040930098, 7.136931936167103], [-73.10902348097412, 7.136977534168555], [-73.10906441698151, 7.136998551105063], [-73.1096033867513, 7.13730017794866], [-73.10971456338004, 7.137365122368856], [-73.11066152540994, 7.137923861062177], [-73.11066842289732, 7.137859943105203]]</t>
-        </is>
+          <t>[[-73.09829110973048, 7.075241838335972], [-73.09828354706661, 7.075240451536005], [-73.09825227090536, 7.075242338586108], [-73.09821418268885, 7.07523534658833], [-73.09818172988705, 7.075236976292237], [-73.0981409973383, 7.075244741911926], [-73.0981179599373, 7.0752405171495], [-73.09808606627354, 7.075242295733126], [-73.09805955873092, 7.075260312564612], [-73.09802877306657, 7.075254683646095], [-73.09799908666767, 7.075241626071114], [-73.09796935698648, 7.075228549562272], [-73.09793297642526, 7.075206595022624], [-73.09790976761504, 7.075202338914675], [-73.09787996897124, 7.075189218331625], [-73.09784364003505, 7.075167225120825], [-73.09781499941633, 7.075146616850192], [-73.09778631117456, 7.07512597430752], [-73.09775522470501, 7.075120246927149], [-73.0977241052671, 7.075114513543917], [-73.0976851594153, 7.075107338169326], [-73.09765280411612, 7.075109078154621], [-73.09763256277883, 7.075136140090555], [-73.09762013565624, 7.075164611891164], [-73.09760772043184, 7.075193056865788], [-73.09758317920725, 7.075196253422785], [-73.09755542361721, 7.07516814412018], [-73.09752565168586, 7.075155017866579], [-73.09749592689265, 7.075141893490871], [-73.09746499160354, 7.07513623939349], [-73.09742863619428, 7.075114185102816], [-73.0973898841924, 7.075107094848115], [-73.09735109360597, 7.075099997476993], [-73.09731342479793, 7.075085385620076], [-73.09728464411502, 7.075064664670785], [-73.09723909528302, 7.075048582914118], [-73.09720792647407, 7.075042867670717], [-73.09716893031961, 7.07503571723208], [-73.09714551389295, 7.075031423434155], [-73.09710645526063, 7.07502426165282], [-73.09705953317335, 7.075015657734717], [-73.09703605101856, 7.075011351940055], [-73.09699706641179, 7.075004209642898], [-73.09696472275155, 7.07500604404648], [-73.09692570040562, 7.074998899014268], [-73.0968933191134, 7.075000733517826], [-73.09685978905372, 7.075010123690506], [-73.09682572669043, 7.07502718839103], [-73.0967909170069, 7.075051861113956], [-73.09675831439569, 7.075061422964881], [-73.09672463737824, 7.075078525348623], [-73.09669858237326, 7.075096999510119], [-73.09668014419377, 7.075116842205171], [-73.0966530478166, 7.075142818011011], [-73.09662597622103, 7.075168769920317], [-73.096606524916, 7.075196075022128], [-73.09659378694535, 7.075232252477332], [-73.09657552528418, 7.075252011310333], [-73.09657143119821, 7.075281992503282], [-73.09656632041826, 7.075319419567533], [-73.09657083553338, 7.075343217700674], [-73.09658189736479, 7.075375824640922], [-73.09658435518983, 7.075414477733023], [-73.09658129016275, 7.075436823638754], [-73.09659269164815, 7.075469336710892], [-73.09659683205612, 7.075500463075855], [-73.09660868403307, 7.075532906868017], [-73.0966119068872, 7.075571339899962], [-73.09663142578128, 7.075605021328919], [-73.0966364218574, 7.075628546548627], [-73.09665498408624, 7.07566949311582], [-73.09667531646832, 7.075695634709927], [-73.09668703869417, 7.07572774021651], [-73.09669874076403, 7.075759790579358], [-73.09668744963983, 7.075787774083987], [-73.09665590150983, 7.07578974997742], [-73.09662255535268, 7.075806375280625], [-73.09658922409423, 7.075822993399401], [-73.09656268891234, 7.075848247282844], [-73.09654471959573, 7.075867504372042], [-73.09651844177624, 7.07589270854162], [-73.09650784510005, 7.075920520692676], [-73.09650421397279, 7.075956874342463], [-73.0964991434026, 7.076007639851611], [-73.09649480909097, 7.076051033300754], [-73.09649048586067, 7.07609431668516], [-73.09649668659388, 7.076110019927738], [-73.0964945262236, 7.076131599700433], [-73.09649855748313, 7.076168797788441], [-73.09650401974433, 7.076191591996135], [-73.09650874566393, 7.076221505739765], [-73.0965206461338, 7.076252699645835], [-73.09653173809433, 7.076290968149021], [-73.09654517239362, 7.076307798035358], [-73.09656529799204, 7.076333010964548], [-73.09658459713545, 7.076365285788752], [-73.09660385963754, 7.076397498916848], [-73.09662228393717, 7.076436722390091], [-73.09662734677693, 7.07645919447518], [-73.09663986230926, 7.076482909227562], [-73.09665900596578, 7.076514899549121], [-73.09667730398931, 7.076553854329198], [-73.09669677219588, 7.076585623257262], [-73.09671719406555, 7.076610286278451], [-73.09673692256503, 7.076641853142921], [-73.09675641701772, 7.076673393812735], [-73.09676805392253, 7.076703724115633], [-73.09678772088887, 7.076728339919415], [-73.09680735885753, 7.076752919057641], [-73.0968262095069, 7.076784369286411], [-73.09684578565526, 7.07680886561355], [-73.09688169075353, 7.076835309052336], [-73.09692525905382, 7.076862787867164], [-73.09694658389401, 7.076879931481749], [-73.09697551237842, 7.076898173263108], [-73.09701200915235, 7.076917501475696], [-73.0970416498208, 7.076928829756422], [-73.09709404447908, 7.07694349136878], [-73.09712356122618, 7.076954776486512], [-73.09715289212431, 7.076966094522793], [-73.09718197227612, 7.076977472222655], [-73.09721101296401, 7.076988834543751], [-73.09724093722882, 7.076993368751833], [-73.09727176010733, 7.076991087690787], [-73.0973025634872, 7.076988808035746], [-73.09733334771018, 7.0769865297927], [-73.09737251004007, 7.076978578437609], [-73.09740325466188, 7.076976304764054], [-73.09743397996465, 7.076974032760044], [-73.09746372426311, 7.076978563855876], [-73.09750183113111, 7.076977424670308], [-73.09753248734646, 7.076975154838813], [-73.09756603797662, 7.076958899209468], [-73.09759198767993, 7.076941589015371], [-73.09762454176811, 7.076932139677535], [-73.09765706552079, 7.076922698793315], [-73.09768853035754, 7.076920072886374], [-73.0977189221842, 7.076924250252684], [-73.097757881455, 7.076922670304181], [-73.09779782004095, 7.076914303872701], [-73.09783665475994, 7.07691273458109], [-73.09787542464308, 7.076911167910374], [-73.09791287030757, 7.076910168363272], [-73.09794891265499, 7.076916084500917], [-73.09799212603095, 7.07692317767223], [-73.09802091232004, 7.076927902772745], [-73.0980653413004, 7.076928126380164], [-73.09808818570615, 7.076924809156163], [-73.09811820519417, 7.076922673385857], [-73.09815538784152, 7.076921718790153], [-73.09818408316943, 7.076926437819679], [-73.09822823677978, 7.076926740369524], [-73.09827036444149, 7.076934261003692], [-73.09828823386351, 7.076916256784259], [-73.09829845451426, 7.076861501448376], [-73.09830037832623, 7.076812261374837], [-73.09829846365542, 7.076783553081618], [-73.09830167097898, 7.076727325524334], [-73.09829975447016, 7.076698546761621], [-73.09830231851892, 7.076684779174221], [-73.0983016837884, 7.076649073350845], [-73.0982965614683, 7.07659826471988], [-73.09830041249054, 7.076577551035981], [-73.09828738210888, 7.076525663999018], [-73.09827955293456, 7.076482043826827], [-73.09827850917833, 7.076439670421128], [-73.09826914020778, 7.076402848389067], [-73.09826496539247, 7.076380954583786], [-73.0982690959415, 7.07630368565102], [-73.09827220290474, 7.076232997774135], [-73.09827847343726, 7.076191181144902], [-73.09827637086912, 7.076154998146112], [-73.09827636025061, 7.076104702870948], [-73.09827319985553, 7.076075347766889], [-73.09827424929668, 7.076068316564221], [-73.09827213340596, 7.076031844090231], [-73.09826791094035, 7.076009409395708], [-73.09826893874461, 7.075951556696733], [-73.09827104466791, 7.075937381322429], [-73.09827842972288, 7.075887671032739], [-73.09828436110355, 7.075844958179799], [-73.09828828232787, 7.075816413198322], [-73.09829327601528, 7.075780649310513], [-73.09830029533744, 7.075730431232532], [-73.09830633123931, 7.075687248888887], [-73.09833236423715, 7.075610411826832], [-73.09834594071606, 7.07556821482246], [-73.09835002981596, 7.075539123600003], [-73.09836160825064, 7.07551132079603], [-73.09837527020181, 7.075468846811479], [-73.09838793384657, 7.075433587466544], [-73.09839104504286, 7.075411576602306], [-73.09839520040134, 7.075382177590058], [-73.09836721846266, 7.075361985270652], [-73.09834021399342, 7.075334374131816], [-73.09832925379155, 7.075302053467237], [-73.09831929263737, 7.07526223470017], [-73.09829110973048, 7.075241838335972]]</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4200</v>
       </c>
       <c r="D47" t="n">
         <v>118</v>
@@ -1713,13 +1621,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>[[-73.09829110973048, 7.075241838335972], [-73.09828354706661, 7.075240451536005], [-73.09825227090536, 7.075242338586108], [-73.09821418268885, 7.07523534658833], [-73.09818172988705, 7.075236976292237], [-73.0981409973383, 7.075244741911926], [-73.0981179599373, 7.0752405171495], [-73.09808606627354, 7.075242295733126], [-73.09805955873092, 7.075260312564612], [-73.09802877306657, 7.075254683646095], [-73.09799908666767, 7.075241626071114], [-73.09796935698648, 7.075228549562272], [-73.09793297642526, 7.075206595022624], [-73.09790976761504, 7.075202338914675], [-73.09787996897124, 7.075189218331625], [-73.09784364003505, 7.075167225120825], [-73.09781499941633, 7.075146616850192], [-73.09778631117456, 7.07512597430752], [-73.09775522470501, 7.075120246927149], [-73.0977241052671, 7.075114513543917], [-73.0976851594153, 7.075107338169326], [-73.09765280411612, 7.075109078154621], [-73.09763256277883, 7.075136140090555], [-73.09762013565624, 7.075164611891164], [-73.09760772043184, 7.075193056865788], [-73.09758317920725, 7.075196253422785], [-73.09755542361721, 7.07516814412018], [-73.09752565168586, 7.075155017866579], [-73.09749592689265, 7.075141893490871], [-73.09746499160354, 7.07513623939349], [-73.09742863619428, 7.075114185102816], [-73.0973898841924, 7.075107094848115], [-73.09735109360597, 7.075099997476993], [-73.09731342479793, 7.075085385620076], [-73.09728464411502, 7.075064664670785], [-73.09723909528302, 7.075048582914118], [-73.09720792647407, 7.075042867670717], [-73.09716893031961, 7.07503571723208], [-73.09714551389295, 7.075031423434155], [-73.09710645526063, 7.07502426165282], [-73.09705953317335, 7.075015657734717], [-73.09703605101856, 7.075011351940055], [-73.09699706641179, 7.075004209642898], [-73.09696472275155, 7.07500604404648], [-73.09692570040562, 7.074998899014268], [-73.0968933191134, 7.075000733517826], [-73.09685978905372, 7.075010123690506], [-73.09682572669043, 7.07502718839103], [-73.0967909170069, 7.075051861113956], [-73.09675831439569, 7.075061422964881], [-73.09672463737824, 7.075078525348623], [-73.09669858237326, 7.075096999510119], [-73.09668014419377, 7.075116842205171], [-73.0966530478166, 7.075142818011011], [-73.09662597622103, 7.075168769920317], [-73.096606524916, 7.075196075022128], [-73.09659378694535, 7.075232252477332], [-73.09657552528418, 7.075252011310333], [-73.09657143119821, 7.075281992503282], [-73.09656632041826, 7.075319419567533], [-73.09657083553338, 7.075343217700674], [-73.09658189736479, 7.075375824640922], [-73.09658435518983, 7.075414477733023], [-73.09658129016275, 7.075436823638754], [-73.09659269164815, 7.075469336710892], [-73.09659683205612, 7.075500463075855], [-73.09660868403307, 7.075532906868017], [-73.0966119068872, 7.075571339899962], [-73.09663142578128, 7.075605021328919], [-73.0966364218574, 7.075628546548627], [-73.09665498408624, 7.07566949311582], [-73.09667531646832, 7.075695634709927], [-73.09668703869417, 7.07572774021651], [-73.09669874076403, 7.075759790579358], [-73.09668744963983, 7.075787774083987], [-73.09665590150983, 7.07578974997742], [-73.09662255535268, 7.075806375280625], [-73.09658922409423, 7.075822993399401], [-73.09656268891234, 7.075848247282844], [-73.09654471959573, 7.075867504372042], [-73.09651844177624, 7.07589270854162], [-73.09650784510005, 7.075920520692676], [-73.09650421397279, 7.075956874342463], [-73.0964991434026, 7.076007639851611], [-73.09649480909097, 7.076051033300754], [-73.09649048586067, 7.07609431668516], [-73.09649668659388, 7.076110019927738], [-73.0964945262236, 7.076131599700433], [-73.09649855748313, 7.076168797788441], [-73.09650401974433, 7.076191591996135], [-73.09650874566393, 7.076221505739765], [-73.0965206461338, 7.076252699645835], [-73.09653173809433, 7.076290968149021], [-73.09654517239362, 7.076307798035358], [-73.09656529799204, 7.076333010964548], [-73.09658459713545, 7.076365285788752], [-73.09660385963754, 7.076397498916848], [-73.09662228393717, 7.076436722390091], [-73.09662734677693, 7.07645919447518], [-73.09663986230926, 7.076482909227562], [-73.09665900596578, 7.076514899549121], [-73.09667730398931, 7.076553854329198], [-73.09669677219588, 7.076585623257262], [-73.09671719406555, 7.076610286278451], [-73.09673692256503, 7.076641853142921], [-73.09675641701772, 7.076673393812735], [-73.09676805392253, 7.076703724115633], [-73.09678772088887, 7.076728339919415], [-73.09680735885753, 7.076752919057641], [-73.0968262095069, 7.076784369286411], [-73.09684578565526, 7.07680886561355], [-73.09688169075353, 7.076835309052336], [-73.09692525905382, 7.076862787867164], [-73.09694658389401, 7.076879931481749], [-73.09697551237842, 7.076898173263108], [-73.09701200915235, 7.076917501475696], [-73.0970416498208, 7.076928829756422], [-73.09709404447908, 7.07694349136878], [-73.09712356122618, 7.076954776486512], [-73.09715289212431, 7.076966094522793], [-73.09718197227612, 7.076977472222655], [-73.09721101296401, 7.076988834543751], [-73.09724093722882, 7.076993368751833], [-73.09727176010733, 7.076991087690787], [-73.0973025634872, 7.076988808035746], [-73.09733334771018, 7.0769865297927], [-73.09737251004007, 7.076978578437609], [-73.09740325466188, 7.076976304764054], [-73.09743397996465, 7.076974032760044], [-73.09746372426311, 7.076978563855876], [-73.09750183113111, 7.076977424670308], [-73.09753248734646, 7.076975154838813], [-73.09756603797662, 7.076958899209468], [-73.09759198767993, 7.076941589015371], [-73.09762454176811, 7.076932139677535], [-73.09765706552079, 7.076922698793315], [-73.09768853035754, 7.076920072886374], [-73.0977189221842, 7.076924250252684], [-73.097757881455, 7.076922670304181], [-73.09779782004095, 7.076914303872701], [-73.09783665475994, 7.07691273458109], [-73.09787542464308, 7.076911167910374], [-73.09791287030757, 7.076910168363272], [-73.09794891265499, 7.076916084500917], [-73.09799212603095, 7.07692317767223], [-73.09802091232004, 7.076927902772745], [-73.0980653413004, 7.076928126380164], [-73.09808818570615, 7.076924809156163], [-73.09811820519417, 7.076922673385857], [-73.09815538784152, 7.076921718790153], [-73.09818408316943, 7.076926437819679], [-73.09822823677978, 7.076926740369524], [-73.09827036444149, 7.076934261003692], [-73.09828823386351, 7.076916256784259], [-73.09829845451426, 7.076861501448376], [-73.09830037832623, 7.076812261374837], [-73.09829846365542, 7.076783553081618], [-73.09830167097898, 7.076727325524334], [-73.09829975447016, 7.076698546761621], [-73.09830231851892, 7.076684779174221], [-73.0983016837884, 7.076649073350845], [-73.0982965614683, 7.07659826471988], [-73.09830041249054, 7.076577551035981], [-73.09828738210888, 7.076525663999018], [-73.09827955293456, 7.076482043826827], [-73.09827850917833, 7.076439670421128], [-73.09826914020778, 7.076402848389067], [-73.09826496539247, 7.076380954583786], [-73.0982690959415, 7.07630368565102], [-73.09827220290474, 7.076232997774135], [-73.09827847343726, 7.076191181144902], [-73.09827637086912, 7.076154998146112], [-73.09827636025061, 7.076104702870948], [-73.09827319985553, 7.076075347766889], [-73.09827424929668, 7.076068316564221], [-73.09827213340596, 7.076031844090231], [-73.09826791094035, 7.076009409395708], [-73.09826893874461, 7.075951556696733], [-73.09827104466791, 7.075937381322429], [-73.09827842972288, 7.075887671032739], [-73.09828436110355, 7.075844958179799], [-73.09828828232787, 7.075816413198322], [-73.09829327601528, 7.075780649310513], [-73.09830029533744, 7.075730431232532], [-73.09830633123931, 7.075687248888887], [-73.09833236423715, 7.075610411826832], [-73.09834594071606, 7.07556821482246], [-73.09835002981596, 7.075539123600003], [-73.09836160825064, 7.07551132079603], [-73.09837527020181, 7.075468846811479], [-73.09838793384657, 7.075433587466544], [-73.09839104504286, 7.075411576602306], [-73.09839520040134, 7.075382177590058], [-73.09836721846266, 7.075361985270652], [-73.09834021399342, 7.075334374131816], [-73.09832925379155, 7.075302053467237], [-73.09831929263737, 7.07526223470017], [-73.09829110973048, 7.075241838335972]]</t>
-        </is>
+          <t>[[-73.12656377075723, 7.089266114996653], [-73.12647762222831, 7.089523392956865], [-73.12637762674115, 7.08962241567686], [-73.12636110529657, 7.089674563697238], [-73.12645010450106, 7.089650987590078], [-73.12654495889599, 7.089616840889838], [-73.12853029229728, 7.088797461716045], [-73.12858877396785, 7.088788963674906], [-73.12861712785173, 7.088794356281126], [-73.12867853894966, 7.088797642574731], [-73.128719386278, 7.0887998282182], [-73.12878051775049, 7.08880309944219], [-73.12884627214615, 7.088798911611787], [-73.12889933189967, 7.088797910907815], [-73.12894455571193, 7.088792651903998], [-73.12899262281128, 7.088799085959369], [-73.12905301721075, 7.088802338552207], [-73.12909318903866, 7.088804501987064], [-73.12913763970089, 7.088799260759535], [-73.12920101070691, 7.088795112900639], [-73.12922519649081, 7.08878880364944], [-73.12927655514885, 7.088787821787553], [-73.1293207060329, 7.088782609871546], [-73.12937235557078, 7.088781636399547], [-73.12942389893985, 7.088780664805066], [-73.12948286858284, 7.088783915102602], [-73.12951458296006, 7.088781861606605], [-73.12958245638303, 7.088770420263528], [-73.12961405076317, 7.088768379044205], [-73.12963812982746, 7.088762129889957], [-73.12968458509107, 7.088768510172937], [-73.12972350045031, 7.088770676610722], [-73.12976235248513, 7.088772839461807], [-73.1298011410277, 7.088774998878451], [-73.12983412565671, 7.088754159553187], [-73.12987448044763, 7.088737535706023], [-73.12990001100496, 7.088712533701317], [-73.12992838012009, 7.088699043391439], [-73.12995841248144, 7.08866677168692], [-73.12998390199182, 7.08864180728832], [-73.13001390802515, 7.088609563215684], [-73.130043900596, 7.088577333829901], [-73.1300738793916, 7.088545119388386], [-73.13011570225781, 7.088509868666386], [-73.13014112235547, 7.088484972602952], [-73.1301665311723, 7.088460087862674], [-73.1302093342393, 7.088455216708613], [-73.13024026234325, 7.0884533860346], [-73.1302829444344, 7.088448527399441], [-73.13033325539857, 7.08844797755909], [-73.13035693887417, 7.088441955492099], [-73.13038954828669, 7.08842143480758], [-73.1304074469249, 7.088392424813764], [-73.13043429676125, 7.088348906995374], [-73.13045667311896, 7.088312639647599], [-73.1304790510376, 7.08827636983477], [-73.13048964844722, 7.088243062760601], [-73.13048882614267, 7.088212803796795], [-73.1304880095561, 7.088182527497034], [-73.1304727595553, 7.088143661873256], [-73.1304647142795, 7.08810903854018], [-73.13044942979387, 7.088070074935347], [-73.13043867241552, 7.088023797768425], [-73.13043783775652, 7.087993374465671], [-73.13043430895809, 7.087951335573591], [-73.13042622261017, 7.087916522035158], [-73.13041542797733, 7.087870049365926], [-73.1304073225572, 7.087835153493101], [-73.13039193902652, 7.087795847946957], [-73.13037924563127, 7.087768153104147], [-73.1303638234023, 7.087728752654134], [-73.13037938830361, 7.087687930805713], [-73.13039309704982, 7.087666078080528], [-73.13041595750794, 7.087629672771239], [-73.13043888561955, 7.087593319259084], [-73.13046636732852, 7.087549695545914], [-73.13049368059792, 7.087505983160503], [-73.13051207812111, 7.087476975562706], [-73.1305350669814, 7.087440728905202], [-73.13056071288668, 7.087416205791439], [-73.13058634006312, 7.087391700433358], [-73.1306191919989, 7.087371681341521], [-73.13064864754881, 7.087309334503285], [-73.13062924833051, 7.087320208118126], [-73.13059819028638, 7.087315893046499], [-73.1304426645866, 7.087340068637485], [-73.13020292895024, 7.087368692381462], [-73.13006147249874, 7.08738635207248], [-73.12991993979477, 7.087400154720887], [-73.12981865577181, 7.087416846590307], [-73.12973508714674, 7.087428425685325], [-73.12952163589652, 7.087454451652364], [-73.12934707475468, 7.08747747526737], [-73.12911842393059, 7.087506954602529], [-73.12890192563997, 7.087555923568162], [-73.12884469624507, 7.087579473621177], [-73.1285408877325, 7.087695146108689], [-73.12829899398734, 7.087835364588607], [-73.1278845817718, 7.088070252254024], [-73.12773040457303, 7.088159705316066], [-73.1269409656728, 7.088631229784692], [-73.12670786590654, 7.088714080602568], [-73.12670786590654, 7.088714080602568], [-73.12672330448365, 7.088736517023243], [-73.1267140032829, 7.088731578555309], [-73.12669104050858, 7.088825252771104], [-73.12664376200402, 7.089009072146808], [-73.12656377075723, 7.089266114996653]]</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4600</v>
       </c>
       <c r="D48" t="n">
         <v>118</v>
@@ -1740,13 +1646,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>[[-73.10954879658249, 7.064265295113982], [-73.11014252855458, 7.064230834520243], [-73.11002857498185, 7.062190391102624], [-73.10941115914007, 7.061937443071412], [-73.10954879658249, 7.064265295113982]]</t>
-        </is>
+          <t>[[-73.10455943080768, 7.106363186486123], [-73.10714007314921, 7.105746583336186], [-73.10663514906615, 7.104951454953773], [-73.10653191846414, 7.104914025682493], [-73.10438515405897, 7.105891808740446], [-73.10436344258049, 7.105921593373583], [-73.10429656412433, 7.105991107382141], [-73.10455943080768, 7.106363186486123]]</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>4200</v>
       </c>
       <c r="D49" t="n">
         <v>118</v>
@@ -1767,13 +1671,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>[[-73.12656377075723, 7.089266114996653], [-73.12647762222831, 7.089523392956865], [-73.12637762674115, 7.08962241567686], [-73.12636110529657, 7.089674563697238], [-73.12645010450106, 7.089650987590078], [-73.12654495889599, 7.089616840889838], [-73.12853029229728, 7.088797461716045], [-73.12858877396785, 7.088788963674906], [-73.12861712785173, 7.088794356281126], [-73.12867853894966, 7.088797642574731], [-73.128719386278, 7.0887998282182], [-73.12878051775049, 7.08880309944219], [-73.12884627214615, 7.088798911611787], [-73.12889933189967, 7.088797910907815], [-73.12894455571193, 7.088792651903998], [-73.12899262281128, 7.088799085959369], [-73.12905301721075, 7.088802338552207], [-73.12909318903866, 7.088804501987064], [-73.12913763970089, 7.088799260759535], [-73.12920101070691, 7.088795112900639], [-73.12922519649081, 7.08878880364944], [-73.12927655514885, 7.088787821787553], [-73.1293207060329, 7.088782609871546], [-73.12937235557078, 7.088781636399547], [-73.12942389893985, 7.088780664805066], [-73.12948286858284, 7.088783915102602], [-73.12951458296006, 7.088781861606605], [-73.12958245638303, 7.088770420263528], [-73.12961405076317, 7.088768379044205], [-73.12963812982746, 7.088762129889957], [-73.12968458509107, 7.088768510172937], [-73.12972350045031, 7.088770676610722], [-73.12976235248513, 7.088772839461807], [-73.1298011410277, 7.088774998878451], [-73.12983412565671, 7.088754159553187], [-73.12987448044763, 7.088737535706023], [-73.12990001100496, 7.088712533701317], [-73.12992838012009, 7.088699043391439], [-73.12995841248144, 7.08866677168692], [-73.12998390199182, 7.08864180728832], [-73.13001390802515, 7.088609563215684], [-73.130043900596, 7.088577333829901], [-73.1300738793916, 7.088545119388386], [-73.13011570225781, 7.088509868666386], [-73.13014112235547, 7.088484972602952], [-73.1301665311723, 7.088460087862674], [-73.1302093342393, 7.088455216708613], [-73.13024026234325, 7.0884533860346], [-73.1302829444344, 7.088448527399441], [-73.13033325539857, 7.08844797755909], [-73.13035693887417, 7.088441955492099], [-73.13038954828669, 7.08842143480758], [-73.1304074469249, 7.088392424813764], [-73.13043429676125, 7.088348906995374], [-73.13045667311896, 7.088312639647599], [-73.1304790510376, 7.08827636983477], [-73.13048964844722, 7.088243062760601], [-73.13048882614267, 7.088212803796795], [-73.1304880095561, 7.088182527497034], [-73.1304727595553, 7.088143661873256], [-73.1304647142795, 7.08810903854018], [-73.13044942979387, 7.088070074935347], [-73.13043867241552, 7.088023797768425], [-73.13043783775652, 7.087993374465671], [-73.13043430895809, 7.087951335573591], [-73.13042622261017, 7.087916522035158], [-73.13041542797733, 7.087870049365926], [-73.1304073225572, 7.087835153493101], [-73.13039193902652, 7.087795847946957], [-73.13037924563127, 7.087768153104147], [-73.1303638234023, 7.087728752654134], [-73.13037938830361, 7.087687930805713], [-73.13039309704982, 7.087666078080528], [-73.13041595750794, 7.087629672771239], [-73.13043888561955, 7.087593319259084], [-73.13046636732852, 7.087549695545914], [-73.13049368059792, 7.087505983160503], [-73.13051207812111, 7.087476975562706], [-73.1305350669814, 7.087440728905202], [-73.13056071288668, 7.087416205791439], [-73.13058634006312, 7.087391700433358], [-73.1306191919989, 7.087371681341521], [-73.13064864754881, 7.087309334503285], [-73.13062924833051, 7.087320208118126], [-73.13059819028638, 7.087315893046499], [-73.1304426645866, 7.087340068637485], [-73.13020292895024, 7.087368692381462], [-73.13006147249874, 7.08738635207248], [-73.12991993979477, 7.087400154720887], [-73.12981865577181, 7.087416846590307], [-73.12973508714674, 7.087428425685325], [-73.12952163589652, 7.087454451652364], [-73.12934707475468, 7.08747747526737], [-73.12911842393059, 7.087506954602529], [-73.12890192563997, 7.087555923568162], [-73.12884469624507, 7.087579473621177], [-73.1285408877325, 7.087695146108689], [-73.12829899398734, 7.087835364588607], [-73.1278845817718, 7.088070252254024], [-73.12773040457303, 7.088159705316066], [-73.1269409656728, 7.088631229784692], [-73.12670786590654, 7.088714080602568], [-73.12670786590654, 7.088714080602568], [-73.12672330448365, 7.088736517023243], [-73.1267140032829, 7.088731578555309], [-73.12669104050858, 7.088825252771104], [-73.12664376200402, 7.089009072146808], [-73.12656377075723, 7.089266114996653]]</t>
-        </is>
+          <t>[[-73.11733777128637, 7.068062957658277], [-73.11728328383337, 7.069418341114608], [-73.11015671897391, 7.074378924695294], [-73.11040560046969, 7.074744357704327], [-73.11021391126833, 7.074883164693581], [-73.11039312013153, 7.075142118410969], [-73.11015236843647, 7.075338769493176], [-73.110034117609, 7.07542643524144], [-73.11020221750489, 7.075489113173227], [-73.1101007292212, 7.076769926074639], [-73.10973193133822, 7.076657790639205], [-73.1092057721907, 7.076528443326488], [-73.10929114299141, 7.076104626357362], [-73.10959234724997, 7.075824484858607], [-73.10970142382266, 7.075700745301973], [-73.10944601076538, 7.075695852423232], [-73.10874114923381, 7.075441331474316], [-73.10855813216119, 7.075633967823179], [-73.10820603098249, 7.076015515797313], [-73.10813835826647, 7.076847260648311], [-73.10805688495097, 7.086330255743098], [-73.1087651331474, 7.08643814586048], [-73.10861278955346, 7.085962033649207], [-73.1093072923846, 7.085013829018656], [-73.11106974853567, 7.080449593033566], [-73.11029964348226, 7.081266172844051], [-73.1095077173414, 7.083015074147754], [-73.10907873797471, 7.084062419601734], [-73.10809671460088, 7.084030361211744], [-73.1081592900034, 7.081725869632798], [-73.11109446035111, 7.080509028104752], [-73.11106496990473, 7.079710904872916], [-73.11102545102574, 7.078180670421077], [-73.11171510110752, 7.077747759744924], [-73.11102137840327, 7.078201800412946], [-73.11095416136543, 7.078852264986194], [-73.110746562382, 7.079018912573378], [-73.11038605520966, 7.078134695910029], [-73.11047257286417, 7.078078585541581], [-73.1110159240781, 7.07818563284952], [-73.1117211064795, 7.077742786306409], [-73.11192271551793, 7.076198070824185], [-73.11198075193985, 7.075421813121702], [-73.11303655108834, 7.073844934924524], [-73.1147673639985, 7.073068609987031], [-73.11358871666116, 7.072004943551763], [-73.11650296412047, 7.070060437227582], [-73.11723029013494, 7.071304185120509], [-73.11578067139737, 7.072700994924202], [-73.11732760998218, 7.071242118139811], [-73.11810203345702, 7.070079230303568], [-73.11870194419575, 7.068651109025931], [-73.1178642841606, 7.067639244061294], [-73.11733777128637, 7.068062957658277]]</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3400</v>
       </c>
       <c r="D50" t="n">
         <v>118</v>
@@ -1794,13 +1696,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>[[-73.10455943080768, 7.106363186486123], [-73.10714007314921, 7.105746583336186], [-73.10663514906615, 7.104951454953773], [-73.10653191846414, 7.104914025682493], [-73.10438515405897, 7.105891808740446], [-73.10436344258049, 7.105921593373583], [-73.10429656412433, 7.105991107382141], [-73.10455943080768, 7.106363186486123]]</t>
-        </is>
+          <t>[[-73.11232916660637, 7.07282870714492], [-73.11273859243883, 7.072536444178629], [-73.11312354852893, 7.072279311582797], [-73.11316022833898, 7.071836088650814], [-73.1133401380931, 7.071577115460234], [-73.1147032208344, 7.071229099575314], [-73.11553391430951, 7.069902033449181], [-73.11202339789857, 7.070249397174013], [-73.11191816947533, 7.072875751507552], [-73.11232916660637, 7.07282870714492]]</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4200</v>
       </c>
       <c r="D51" t="n">
         <v>118</v>
@@ -1821,13 +1721,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>[[-73.11733777128637, 7.068062957658277], [-73.11728328383337, 7.069418341114608], [-73.11015671897391, 7.074378924695294], [-73.11040560046969, 7.074744357704327], [-73.11021391126833, 7.074883164693581], [-73.11039312013153, 7.075142118410969], [-73.11015236843647, 7.075338769493176], [-73.110034117609, 7.07542643524144], [-73.11020221750489, 7.075489113173227], [-73.1101007292212, 7.076769926074639], [-73.10973193133822, 7.076657790639205], [-73.1092057721907, 7.076528443326488], [-73.10929114299141, 7.076104626357362], [-73.10959234724997, 7.075824484858607], [-73.10970142382266, 7.075700745301973], [-73.10944601076538, 7.075695852423232], [-73.10874114923381, 7.075441331474316], [-73.10855813216119, 7.075633967823179], [-73.10820603098249, 7.076015515797313], [-73.10813835826647, 7.076847260648311], [-73.10805688495097, 7.086330255743098], [-73.1087651331474, 7.08643814586048], [-73.10861278955346, 7.085962033649207], [-73.1093072923846, 7.085013829018656], [-73.11106974853567, 7.080449593033566], [-73.11029964348226, 7.081266172844051], [-73.1095077173414, 7.083015074147754], [-73.10907873797471, 7.084062419601734], [-73.10809671460088, 7.084030361211744], [-73.1081592900034, 7.081725869632798], [-73.11109446035111, 7.080509028104752], [-73.11106496990473, 7.079710904872916], [-73.11102545102574, 7.078180670421077], [-73.11171510110752, 7.077747759744924], [-73.11102137840327, 7.078201800412946], [-73.11095416136543, 7.078852264986194], [-73.110746562382, 7.079018912573378], [-73.11038605520966, 7.078134695910029], [-73.11047257286417, 7.078078585541581], [-73.1110159240781, 7.07818563284952], [-73.1117211064795, 7.077742786306409], [-73.11192271551793, 7.076198070824185], [-73.11198075193985, 7.075421813121702], [-73.11303655108834, 7.073844934924524], [-73.1147673639985, 7.073068609987031], [-73.11358871666116, 7.072004943551763], [-73.11650296412047, 7.070060437227582], [-73.11723029013494, 7.071304185120509], [-73.11578067139737, 7.072700994924202], [-73.11732760998218, 7.071242118139811], [-73.11810203345702, 7.070079230303568], [-73.11870194419575, 7.068651109025931], [-73.1178642841606, 7.067639244061294], [-73.11733777128637, 7.068062957658277]]</t>
-        </is>
+          <t>[[-73.11056212507928, 7.074057779504193], [-73.11050832261174, 7.073975278014174], [-73.11053220758305, 7.073009868963125], [-73.11059012182365, 7.072188206111705], [-73.11019245100177, 7.072106407983534], [-73.10977359209552, 7.072749947627617], [-73.10980641122956, 7.072992702533268], [-73.10961445791243, 7.074721102190084], [-73.11056212507928, 7.074057779504193]]</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4200</v>
       </c>
       <c r="D52" t="n">
         <v>118</v>
@@ -1848,13 +1746,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>[[-73.11232916660637, 7.07282870714492], [-73.11273859243883, 7.072536444178629], [-73.11312354852893, 7.072279311582797], [-73.11316022833898, 7.071836088650814], [-73.1133401380931, 7.071577115460234], [-73.1147032208344, 7.071229099575314], [-73.11553391430951, 7.069902033449181], [-73.11202339789857, 7.070249397174013], [-73.11191816947533, 7.072875751507552], [-73.11232916660637, 7.07282870714492]]</t>
-        </is>
+          <t>[[-73.08513738103267, 7.078793657955919], [-73.08484314529011, 7.078755219000478], [-73.08389620948894, 7.080804002212407], [-73.08491827412556, 7.081705943506586], [-73.08486983870688, 7.082590938955971], [-73.08413703450931, 7.082697087259803], [-73.08415771207078, 7.082681581921963], [-73.08414305188585, 7.082697381672269], [-73.08397629798719, 7.08272042629508], [-73.08242568968521, 7.082625301141086], [-73.08218061965229, 7.08365411103279], [-73.0833823374936, 7.084306291941146], [-73.08360890496935, 7.084346695104893], [-73.08365499839496, 7.084390110360941], [-73.08390584952012, 7.084486943931156], [-73.08508427751049, 7.084975863770708], [-73.08546219478205, 7.084707263747736], [-73.08802987201307, 7.085668539628338], [-73.08771753023109, 7.08582057014997], [-73.08899478066675, 7.087018456228165], [-73.08953196873301, 7.08630816611817], [-73.08933029504189, 7.085146362341384], [-73.08880597412556, 7.084337808214787], [-73.0891102347813, 7.084056243897748], [-73.08806467637909, 7.083021294262928], [-73.08729308165607, 7.083485154238994], [-73.086391240502, 7.08316667444797], [-73.08657219298064, 7.082722649987757], [-73.08523835975632, 7.082156866640435], [-73.08547004729745, 7.08149459501524], [-73.08696807629002, 7.082341531730751], [-73.08725035198842, 7.081705963671214], [-73.08821053436309, 7.082174778897572], [-73.08900471658235, 7.082941235404335], [-73.0895307909015, 7.082873779161888], [-73.0897234358593, 7.082709516296698], [-73.09044834704173, 7.082902866690455], [-73.0911990981765, 7.082188923889022], [-73.09096284603545, 7.081632928897057], [-73.09194923736827, 7.080621930974861], [-73.09398311622571, 7.08635023036518], [-73.09473735882268, 7.086431215694205], [-73.09514918405971, 7.08641829492345], [-73.09576857162035, 7.08505825964648], [-73.09778215265217, 7.085424493630438], [-73.09964256320264, 7.085954753229809], [-73.1002817609236, 7.084669136535681], [-73.0996375242092, 7.083205367980803], [-73.10078442111998, 7.082591910207394], [-73.10020297549137, 7.082044559803193], [-73.10108603919558, 7.081018580898952], [-73.10091227949003, 7.080073012931172], [-73.10054566336815, 7.077109289692991], [-73.09858068008107, 7.077048523248843], [-73.09831993030633, 7.076888687333978], [-73.09783830014689, 7.077097346489174], [-73.09708194596394, 7.077539419404863], [-73.09646580871677, 7.077681876279695], [-73.09624133426125, 7.078583575282511], [-73.09391069433649, 7.076268426589436], [-73.09302156505264, 7.076100886871875], [-73.09232973360224, 7.075366022687259], [-73.09198664154783, 7.074311149189231], [-73.0912916416873, 7.073422665919029], [-73.09088839476048, 7.071862815023257], [-73.08962217641941, 7.072894441307795], [-73.08893216812152, 7.072264080739337], [-73.08851274810614, 7.072250262957098], [-73.08839008749483, 7.071951012983822], [-73.08872573689929, 7.071246165037998], [-73.0881585989346, 7.070913202035386], [-73.08769039009263, 7.071205973131859], [-73.08699962601713, 7.071669868034316], [-73.08621588155836, 7.072135963900486], [-73.08616253360354, 7.072543198102858], [-73.08672023873211, 7.072727074056749], [-73.08725286730774, 7.072706872505629], [-73.08700175439463, 7.073196780827504], [-73.08627870655576, 7.07351110784686], [-73.08581556635345, 7.073793600944223], [-73.08533844731781, 7.074440072306941], [-73.08566567626595, 7.075067267215689], [-73.08520224322503, 7.075305661785127], [-73.08534497559134, 7.077452755415224], [-73.08532233790208, 7.077618509583196], [-73.08523990065454, 7.077902390778901], [-73.08509226131474, 7.078472114773057], [-73.08513738103267, 7.078793657955919]]</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3900</v>
       </c>
       <c r="D53" t="n">
         <v>118</v>
@@ -1875,13 +1771,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>[[-73.11056212507928, 7.074057779504193], [-73.11050832261174, 7.073975278014174], [-73.11053220758305, 7.073009868963125], [-73.11059012182365, 7.072188206111705], [-73.11019245100177, 7.072106407983534], [-73.10977359209552, 7.072749947627617], [-73.10980641122956, 7.072992702533268], [-73.10961445791243, 7.074721102190084], [-73.11056212507928, 7.074057779504193]]</t>
-        </is>
+          <t>[[-73.08491298514646, 7.081714553987941], [-73.08385856632579, 7.080808192901137], [-73.08287334750153, 7.081458487337332], [-73.08284005247422, 7.081737283442751], [-73.0827659708445, 7.082654990429114], [-73.08386619100723, 7.082694738309527], [-73.08483183998942, 7.082564222590758], [-73.08491298514646, 7.081714553987941]]</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3900</v>
       </c>
       <c r="D54" t="n">
         <v>118</v>
@@ -1902,13 +1796,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3900</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>[[-73.08513738103267, 7.078793657955919], [-73.08484314529011, 7.078755219000478], [-73.08389620948894, 7.080804002212407], [-73.08491827412556, 7.081705943506586], [-73.08486983870688, 7.082590938955971], [-73.08413703450931, 7.082697087259803], [-73.08415771207078, 7.082681581921963], [-73.08414305188585, 7.082697381672269], [-73.08397629798719, 7.08272042629508], [-73.08242568968521, 7.082625301141086], [-73.08218061965229, 7.08365411103279], [-73.0833823374936, 7.084306291941146], [-73.08360890496935, 7.084346695104893], [-73.08365499839496, 7.084390110360941], [-73.08390584952012, 7.084486943931156], [-73.08508427751049, 7.084975863770708], [-73.08546219478205, 7.084707263747736], [-73.08802987201307, 7.085668539628338], [-73.08771753023109, 7.08582057014997], [-73.08899478066675, 7.087018456228165], [-73.08953196873301, 7.08630816611817], [-73.08933029504189, 7.085146362341384], [-73.08880597412556, 7.084337808214787], [-73.0891102347813, 7.084056243897748], [-73.08806467637909, 7.083021294262928], [-73.08729308165607, 7.083485154238994], [-73.086391240502, 7.08316667444797], [-73.08657219298064, 7.082722649987757], [-73.08523835975632, 7.082156866640435], [-73.08547004729745, 7.08149459501524], [-73.08696807629002, 7.082341531730751], [-73.08725035198842, 7.081705963671214], [-73.08821053436309, 7.082174778897572], [-73.08900471658235, 7.082941235404335], [-73.0895307909015, 7.082873779161888], [-73.0897234358593, 7.082709516296698], [-73.09044834704173, 7.082902866690455], [-73.0911990981765, 7.082188923889022], [-73.09096284603545, 7.081632928897057], [-73.09194923736827, 7.080621930974861], [-73.09398311622571, 7.08635023036518], [-73.09473735882268, 7.086431215694205], [-73.09514918405971, 7.08641829492345], [-73.09576857162035, 7.08505825964648], [-73.09778215265217, 7.085424493630438], [-73.09964256320264, 7.085954753229809], [-73.1002817609236, 7.084669136535681], [-73.0996375242092, 7.083205367980803], [-73.10078442111998, 7.082591910207394], [-73.10020297549137, 7.082044559803193], [-73.10108603919558, 7.081018580898952], [-73.10091227949003, 7.080073012931172], [-73.10054566336815, 7.077109289692991], [-73.09858068008107, 7.077048523248843], [-73.09831993030633, 7.076888687333978], [-73.09783830014689, 7.077097346489174], [-73.09708194596394, 7.077539419404863], [-73.09646580871677, 7.077681876279695], [-73.09624133426125, 7.078583575282511], [-73.09391069433649, 7.076268426589436], [-73.09302156505264, 7.076100886871875], [-73.09232973360224, 7.075366022687259], [-73.09198664154783, 7.074311149189231], [-73.0912916416873, 7.073422665919029], [-73.09088839476048, 7.071862815023257], [-73.08962217641941, 7.072894441307795], [-73.08893216812152, 7.072264080739337], [-73.08851274810614, 7.072250262957098], [-73.08839008749483, 7.071951012983822], [-73.08872573689929, 7.071246165037998], [-73.0881585989346, 7.070913202035386], [-73.08769039009263, 7.071205973131859], [-73.08699962601713, 7.071669868034316], [-73.08621588155836, 7.072135963900486], [-73.08616253360354, 7.072543198102858], [-73.08672023873211, 7.072727074056749], [-73.08725286730774, 7.072706872505629], [-73.08700175439463, 7.073196780827504], [-73.08627870655576, 7.07351110784686], [-73.08581556635345, 7.073793600944223], [-73.08533844731781, 7.074440072306941], [-73.08566567626595, 7.075067267215689], [-73.08520224322503, 7.075305661785127], [-73.08534497559134, 7.077452755415224], [-73.08532233790208, 7.077618509583196], [-73.08523990065454, 7.077902390778901], [-73.08509226131474, 7.078472114773057], [-73.08513738103267, 7.078793657955919]]</t>
-        </is>
+          <t>[[-73.05970498700131, 6.972229453152551], [-73.05878198677085, 6.972381999603347], [-73.05887872184167, 6.972799186597318], [-73.05977615678216, 6.972726223740218], [-73.05970498700131, 6.972229453152551]]</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4900</v>
       </c>
       <c r="D55" t="n">
         <v>118</v>
@@ -1929,13 +1821,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3900</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>[[-73.08491298514646, 7.081714553987941], [-73.08385856632579, 7.080808192901137], [-73.08287334750153, 7.081458487337332], [-73.08284005247422, 7.081737283442751], [-73.0827659708445, 7.082654990429114], [-73.08386619100723, 7.082694738309527], [-73.08483183998942, 7.082564222590758], [-73.08491298514646, 7.081714553987941]]</t>
-        </is>
+          <t>[[-73.10328697523826, 7.116459797005357], [-73.10324640891633, 7.116228999289062], [-73.10315727863504, 7.115936949855714], [-73.10301488770025, 7.115575707955117], [-73.1027598994591, 7.11500418898602], [-73.10370750270012, 7.114330108697225], [-73.10392333828706, 7.109742886494415], [-73.1037031145921, 7.109660447879355], [-73.10226317454153, 7.110995789933365], [-73.10217306653428, 7.111671301688116], [-73.10214594550142, 7.112121039976824], [-73.10247615415227, 7.112415872625286], [-73.10259116417143, 7.113593263916574], [-73.10235247429699, 7.114025272152659], [-73.10236255350036, 7.114967528523459], [-73.10205736036882, 7.114985571789954], [-73.10172948058553, 7.114459396304003], [-73.10162072566128, 7.114577104718129], [-73.10128703019885, 7.114713582543998], [-73.10108597720729, 7.114651568124827], [-73.10082107400231, 7.114860955177854], [-73.1006594334924, 7.114723032502939], [-73.10038232178074, 7.11482592964206], [-73.10022726245646, 7.115160962808076], [-73.10034417116246, 7.115464443782961], [-73.10016580800922, 7.115651188434772], [-73.10024386079323, 7.115960930470666], [-73.09991022479036, 7.116644816744016], [-73.10107428098942, 7.118548084336838], [-73.10228593766676, 7.11815432270375], [-73.10257459349882, 7.11962450956787], [-73.10309299258633, 7.119677517589529], [-73.10359105516483, 7.119277606558835], [-73.10328697523826, 7.116459797005357]]</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4400</v>
       </c>
       <c r="D56" t="n">
         <v>118</v>
@@ -1956,13 +1846,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>[[-73.08808156830509, 7.057654734477481], [-73.08750967924743, 7.057380261328102], [-73.08691367268469, 7.057835793714539], [-73.0879127803137, 7.058220995350696], [-73.08808156830509, 7.057654734477481]]</t>
-        </is>
+          <t>[[-73.10413750942782, 7.063198601986618], [-73.104086147235, 7.063274651900196], [-73.10417096950182, 7.063270930790679], [-73.10413750942782, 7.063198601986618]]</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4600</v>
       </c>
       <c r="D57" t="n">
         <v>118</v>
@@ -1983,13 +1871,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>[[-73.05970498700131, 6.972229453152551], [-73.05878198677085, 6.972381999603347], [-73.05887872184167, 6.972799186597318], [-73.05977615678216, 6.972726223740218], [-73.05970498700131, 6.972229453152551]]</t>
-        </is>
+          <t>[[-73.14148675366684, 7.104251383347688], [-73.138159385402, 7.102447327386146], [-73.1290561228399, 7.110948111954826], [-73.13036770200631, 7.114205453092534], [-73.13052969275988, 7.114785337059059], [-73.13545518462523, 7.111335845192802], [-73.1345600028786, 7.110577290326661], [-73.13274516172807, 7.112493688047528], [-73.13205348212031, 7.111979897786266], [-73.13162674439137, 7.111328012375619], [-73.1329976903932, 7.110564662109741], [-73.14148675366684, 7.104251383347688]]</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4400</v>
       </c>
       <c r="D58" t="n">
         <v>118</v>
@@ -2010,13 +1896,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>[[-73.10328697523826, 7.116459797005357], [-73.10324640891633, 7.116228999289062], [-73.10315727863504, 7.115936949855714], [-73.10301488770025, 7.115575707955117], [-73.1027598994591, 7.11500418898602], [-73.10370750270012, 7.114330108697225], [-73.10392333828706, 7.109742886494415], [-73.1037031145921, 7.109660447879355], [-73.10226317454153, 7.110995789933365], [-73.10217306653428, 7.111671301688116], [-73.10214594550142, 7.112121039976824], [-73.10247615415227, 7.112415872625286], [-73.10259116417143, 7.113593263916574], [-73.10235247429699, 7.114025272152659], [-73.10236255350036, 7.114967528523459], [-73.10205736036882, 7.114985571789954], [-73.10172948058553, 7.114459396304003], [-73.10162072566128, 7.114577104718129], [-73.10128703019885, 7.114713582543998], [-73.10108597720729, 7.114651568124827], [-73.10082107400231, 7.114860955177854], [-73.1006594334924, 7.114723032502939], [-73.10038232178074, 7.11482592964206], [-73.10022726245646, 7.115160962808076], [-73.10034417116246, 7.115464443782961], [-73.10016580800922, 7.115651188434772], [-73.10024386079323, 7.115960930470666], [-73.09991022479036, 7.116644816744016], [-73.10107428098942, 7.118548084336838], [-73.10228593766676, 7.11815432270375], [-73.10257459349882, 7.11962450956787], [-73.10309299258633, 7.119677517589529], [-73.10359105516483, 7.119277606558835], [-73.10328697523826, 7.116459797005357]]</t>
-        </is>
+          <t>[[-73.10632208941398, 7.061260723815535], [-73.1062786222771, 7.061199561835828], [-73.10624610634363, 7.061269053492187], [-73.10632208941398, 7.061260723815535]]</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4600</v>
       </c>
       <c r="D59" t="n">
         <v>118</v>
@@ -2037,13 +1921,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>[[-73.10413750942782, 7.063198601986618], [-73.104086147235, 7.063274651900196], [-73.10417096950182, 7.063270930790679], [-73.10413750942782, 7.063198601986618]]</t>
-        </is>
+          <t>[[-73.10660792687698, 7.060245984166684], [-73.1061108314371, 7.06017121367458], [-73.10609825730846, 7.06026986475026], [-73.10554966425009, 7.060211685529707], [-73.10571042273824, 7.061371888860199], [-73.10662627794171, 7.061450672842601], [-73.10660792687698, 7.060245984166684]]</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>4600</v>
       </c>
       <c r="D60" t="n">
         <v>118</v>
@@ -2064,13 +1946,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4400</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>[[-73.14148675366684, 7.104251383347688], [-73.138159385402, 7.102447327386146], [-73.1290561228399, 7.110948111954826], [-73.13036770200631, 7.114205453092534], [-73.13052969275988, 7.114785337059059], [-73.13545518462523, 7.111335845192802], [-73.1345600028786, 7.110577290326661], [-73.13274516172807, 7.112493688047528], [-73.13205348212031, 7.111979897786266], [-73.13162674439137, 7.111328012375619], [-73.1329976903932, 7.110564662109741], [-73.14148675366684, 7.104251383347688]]</t>
-        </is>
+          <t>[[-73.11016578682661, 7.069736563713456], [-73.1097104969601, 7.070421011193281], [-73.11136469320871, 7.07017074706794], [-73.11147435883909, 7.069464639913319], [-73.11016578682661, 7.069736563713456]]</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>4200</v>
       </c>
       <c r="D61" t="n">
         <v>118</v>
@@ -2091,13 +1971,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>[[-73.10632208941398, 7.061260723815535], [-73.1062786222771, 7.061199561835828], [-73.10624610634363, 7.061269053492187], [-73.10632208941398, 7.061260723815535]]</t>
-        </is>
+          <t>[[-73.0977177739679, 7.065149250507951], [-73.0980504624652, 7.064978829304691], [-73.09825023069271, 7.0648574932525], [-73.09832347729285, 7.064687240248725], [-73.09805898076634, 7.064424468296996], [-73.09776375354858, 7.063699820754531], [-73.0974604403647, 7.063611160544281], [-73.0971736104991, 7.063656100490756], [-73.09686147267988, 7.063982565648844], [-73.09681796563868, 7.064184213834916], [-73.09688367912179, 7.064420743955264], [-73.0969752288947, 7.064563770334543], [-73.09745418592934, 7.064937686102409], [-73.0977177739679, 7.065149250507951]]</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>4200</v>
       </c>
       <c r="D62" t="n">
         <v>118</v>
@@ -2118,13 +1996,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>[[-73.10660792687698, 7.060245984166684], [-73.1061108314371, 7.06017121367458], [-73.10609825730846, 7.06026986475026], [-73.10554966425009, 7.060211685529707], [-73.10571042273824, 7.061371888860199], [-73.10662627794171, 7.061450672842601], [-73.10660792687698, 7.060245984166684]]</t>
-        </is>
+          <t>[[-73.1111992029657, 7.069314178472033], [-73.11146979851259, 7.069469141753695], [-73.11243450387168, 7.069476301516227], [-73.1125458937039, 7.06867649134999], [-73.11186175561919, 7.068402482077341], [-73.1111992029657, 7.069314178472033]]</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>4200</v>
       </c>
       <c r="D63" t="n">
         <v>118</v>
@@ -2145,13 +2021,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[[-73.11016578682661, 7.069736563713456], [-73.1097104969601, 7.070421011193281], [-73.11136469320871, 7.07017074706794], [-73.11147435883909, 7.069464639913319], [-73.11016578682661, 7.069736563713456]]</t>
-        </is>
+          <t>[[-73.11244774034027, 7.069474109048798], [-73.11147624007403, 7.069473599594021], [-73.111362248393, 7.070166261310135], [-73.11189457453648, 7.070218805730291], [-73.11266307551509, 7.070162807868639], [-73.11244774034027, 7.069474109048798]]</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>4200</v>
       </c>
       <c r="D64" t="n">
         <v>118</v>
@@ -2172,13 +2046,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>[[-73.0977177739679, 7.065149250507951], [-73.0980504624652, 7.064978829304691], [-73.09825023069271, 7.0648574932525], [-73.09832347729285, 7.064687240248725], [-73.09805898076634, 7.064424468296996], [-73.09776375354858, 7.063699820754531], [-73.0974604403647, 7.063611160544281], [-73.0971736104991, 7.063656100490756], [-73.09686147267988, 7.063982565648844], [-73.09681796563868, 7.064184213834916], [-73.09688367912179, 7.064420743955264], [-73.0969752288947, 7.064563770334543], [-73.09745418592934, 7.064937686102409], [-73.0977177739679, 7.065149250507951]]</t>
-        </is>
+          <t>[[-73.09767801719377, 7.085922122158753], [-73.09780248938861, 7.085423147399664], [-73.09577186318766, 7.085068916610596], [-73.0951565770103, 7.086400120303217], [-73.09767801719377, 7.085922122158753]]</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>4600</v>
       </c>
       <c r="D65" t="n">
         <v>118</v>
@@ -2199,13 +2071,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>[[-73.1111992029657, 7.069314178472033], [-73.11146979851259, 7.069469141753695], [-73.11243450387168, 7.069476301516227], [-73.1125458937039, 7.06867649134999], [-73.11186175561919, 7.068402482077341], [-73.1111992029657, 7.069314178472033]]</t>
-        </is>
+          <t>[[-73.1045050469153, 7.061799273070759], [-73.10405535254104, 7.061819346444196], [-73.10314631697617, 7.062307759290521], [-73.10345846640091, 7.06342643833655], [-73.10483390488207, 7.063193349354922], [-73.1045050469153, 7.061799273070759]]</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>4600</v>
       </c>
       <c r="D66" t="n">
         <v>118</v>
@@ -2226,13 +2096,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>[[-73.11244774034027, 7.069474109048798], [-73.11147624007403, 7.069473599594021], [-73.111362248393, 7.070166261310135], [-73.11189457453648, 7.070218805730291], [-73.11266307551509, 7.070162807868639], [-73.11244774034027, 7.069474109048798]]</t>
-        </is>
+          <t>[[-73.10658805631907, 7.060857590746865], [-73.1066505764651, 7.061489790679718], [-73.10749908761431, 7.06130163168098], [-73.10742182743772, 7.060757655079309], [-73.10658805631907, 7.060857590746865]]</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>4600</v>
       </c>
       <c r="D67" t="n">
         <v>118</v>
@@ -2253,13 +2121,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>[[-73.09767801719377, 7.085922122158753], [-73.09780248938861, 7.085423147399664], [-73.09577186318766, 7.085068916610596], [-73.0951565770103, 7.086400120303217], [-73.09767801719377, 7.085922122158753]]</t>
-        </is>
+          <t>[[-73.0829041417652, 7.05874327630906], [-73.08258273823468, 7.056898163592185], [-73.08141980520294, 7.057352865468164], [-73.08166567321777, 7.05853524480921], [-73.0829041417652, 7.05874327630906]]</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>5800</v>
       </c>
       <c r="D68" t="n">
         <v>118</v>
@@ -2280,13 +2146,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>[[-73.1045050469153, 7.061799273070759], [-73.10405535254104, 7.061819346444196], [-73.10314631697617, 7.062307759290521], [-73.10345846640091, 7.06342643833655], [-73.10483390488207, 7.063193349354922], [-73.1045050469153, 7.061799273070759]]</t>
-        </is>
+          <t>[[-73.1351134299863, 7.082442769797711], [-73.13492195003647, 7.080822886763624], [-73.13471671977061, 7.079146318470208], [-73.13233484058463, 7.083380709261097], [-73.13474374776953, 7.079100054866012], [-73.13472255898182, 7.078651108928118], [-73.13358726720047, 7.079525431413185], [-73.13295013993068, 7.079457231509691], [-73.13333644990469, 7.078647945182945], [-73.13232667572623, 7.076270844994287], [-73.12938755044188, 7.078902519466003], [-73.12777818652648, 7.080278348604121], [-73.12688650058391, 7.081034607108045], [-73.130458706634, 7.077965612844922], [-73.1305005395973, 7.077990831233186], [-73.13000219757963, 7.077487882127448], [-73.12903702341421, 7.077429712377465], [-73.12802688260342, 7.077348670933805], [-73.12690823028544, 7.081034408547708], [-73.12900948148746, 7.082867909007473], [-73.12935663007315, 7.083877349102728], [-73.12919600686554, 7.084612007525315], [-73.13057941674478, 7.085618101983592], [-73.13057735965153, 7.085574483625472], [-73.13185748502596, 7.085749773815851], [-73.13167640386084, 7.083687977452835], [-73.1351134299863, 7.082442769797711]]</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>3400</v>
       </c>
       <c r="D69" t="n">
         <v>118</v>
@@ -2307,13 +2171,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>[[-73.10658805631907, 7.060857590746865], [-73.1066505764651, 7.061489790679718], [-73.10749908761431, 7.06130163168098], [-73.10742182743772, 7.060757655079309], [-73.10658805631907, 7.060857590746865]]</t>
-        </is>
+          <t>[[-73.1151792007015, 7.074303871041578], [-73.11286296817893, 7.07411161791276], [-73.11262661966117, 7.074462700633652], [-73.11199391409087, 7.075434043075589], [-73.11189806182355, 7.076725995769073], [-73.11267159023153, 7.076931942872463], [-73.1151792007015, 7.074303871041578]]</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>4200</v>
       </c>
       <c r="D70" t="n">
         <v>118</v>
@@ -2334,13 +2196,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5800</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>[[-73.0829041417652, 7.05874327630906], [-73.08258273823468, 7.056898163592185], [-73.08141980520294, 7.057352865468164], [-73.08166567321777, 7.05853524480921], [-73.0829041417652, 7.05874327630906]]</t>
-        </is>
+          <t>[[-73.13294202384792, 7.079437754639869], [-73.13351908469991, 7.079523480740185], [-73.13442305429888, 7.078869200074833], [-73.13479382926921, 7.078312530837097], [-73.13392764467298, 7.077535937751659], [-73.13294202384792, 7.079437754639869]]</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>4600</v>
       </c>
       <c r="D71" t="n">
         <v>118</v>
@@ -2361,13 +2221,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>[[-73.1351134299863, 7.082442769797711], [-73.13492195003647, 7.080822886763624], [-73.13471671977061, 7.079146318470208], [-73.13233484058463, 7.083380709261097], [-73.13474374776953, 7.079100054866012], [-73.13472255898182, 7.078651108928118], [-73.13358726720047, 7.079525431413185], [-73.13295013993068, 7.079457231509691], [-73.13333644990469, 7.078647945182945], [-73.13232667572623, 7.076270844994287], [-73.12938755044188, 7.078902519466003], [-73.12777818652648, 7.080278348604121], [-73.12688650058391, 7.081034607108045], [-73.130458706634, 7.077965612844922], [-73.1305005395973, 7.077990831233186], [-73.13000219757963, 7.077487882127448], [-73.12903702341421, 7.077429712377465], [-73.12802688260342, 7.077348670933805], [-73.12690823028544, 7.081034408547708], [-73.12900948148746, 7.082867909007473], [-73.12935663007315, 7.083877349102728], [-73.12919600686554, 7.084612007525315], [-73.13057941674478, 7.085618101983592], [-73.13057735965153, 7.085574483625472], [-73.13185748502596, 7.085749773815851], [-73.13167640386084, 7.083687977452835], [-73.1351134299863, 7.082442769797711]]</t>
-        </is>
+          <t>[[-73.11282768147942, 7.069143962089148], [-73.11266058755974, 7.069598182379131], [-73.1129070638442, 7.069951641150507], [-73.11329241329626, 7.069402587831693], [-73.11282768147942, 7.069143962089148]]</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>4200</v>
       </c>
       <c r="D72" t="n">
         <v>118</v>
@@ -2388,13 +2246,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>[[-73.09601828615462, 7.086615473562897], [-73.09490086710574, 7.087749151238982], [-73.09488998085249, 7.087771133492305], [-73.09419125542128, 7.087596919245929], [-73.09411729560145, 7.088494931069107], [-73.09457100314273, 7.08841954181156], [-73.09525247398736, 7.088743158737718], [-73.09528243026168, 7.090114846398855], [-73.09501806890286, 7.091958970567715], [-73.09530975494715, 7.092161362968197], [-73.09625824732811, 7.091660450868391], [-73.0965314421314, 7.089136654348968], [-73.09776470552227, 7.086713370234544], [-73.09601828615462, 7.086615473562897]]</t>
-        </is>
+          <t>[[-73.1007530545257, 7.06434847166627], [-73.09964982534495, 7.064275610330373], [-73.1000408915767, 7.065318037833547], [-73.10054036782607, 7.065229030855723], [-73.10115500878027, 7.065112636090555], [-73.1007530545257, 7.06434847166627]]</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>4200</v>
       </c>
       <c r="D73" t="n">
         <v>118</v>
@@ -2415,13 +2271,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>[[-73.1151792007015, 7.074303871041578], [-73.11286296817893, 7.07411161791276], [-73.11262661966117, 7.074462700633652], [-73.11199391409087, 7.075434043075589], [-73.11189806182355, 7.076725995769073], [-73.11267159023153, 7.076931942872463], [-73.1151792007015, 7.074303871041578]]</t>
-        </is>
+          <t>[[-73.09776908631191, 7.063713686520525], [-73.09805735163205, 7.064426667381325], [-73.09822118592525, 7.064594102502566], [-73.09832294037557, 7.064685125502025], [-73.09885275043531, 7.064961420956243], [-73.099671890072, 7.065378945820441], [-73.10003212017298, 7.065306272651373], [-73.09964693445343, 7.064283681437114], [-73.09776908631191, 7.063713686520525]]</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>4200</v>
       </c>
       <c r="D74" t="n">
         <v>118</v>
@@ -2442,13 +2296,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>[[-73.13294202384792, 7.079437754639869], [-73.13351908469991, 7.079523480740185], [-73.13442305429888, 7.078869200074833], [-73.13479382926921, 7.078312530837097], [-73.13392764467298, 7.077535937751659], [-73.13294202384792, 7.079437754639869]]</t>
-        </is>
+          <t>[[-73.1095135029857, 7.069108820510062], [-73.10969665309867, 7.069291155020189], [-73.10977401381, 7.06931015981035], [-73.11118028130707, 7.069295858685987], [-73.11015914010576, 7.068588570064106], [-73.1095135029857, 7.069108820510062]]</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>4200</v>
       </c>
       <c r="D75" t="n">
         <v>118</v>
@@ -2469,13 +2321,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>[[-73.11282768147942, 7.069143962089148], [-73.11266058755974, 7.069598182379131], [-73.1129070638442, 7.069951641150507], [-73.11329241329626, 7.069402587831693], [-73.11282768147942, 7.069143962089148]]</t>
-        </is>
+          <t>[[-73.1053102804896, 7.06319323502279], [-73.10524709852955, 7.06320999428276], [-73.10376521861313, 7.06348228246952], [-73.10292069906956, 7.063611888591504], [-73.10074930857844, 7.064337851244111], [-73.10116316320868, 7.065104296815145], [-73.10144456180899, 7.065060416765066], [-73.09968212528318, 7.0653795742436], [-73.09907203422924, 7.065078457646814], [-73.09830084056449, 7.064706488860595], [-73.09826256284425, 7.064874786539035], [-73.09771220591699, 7.065157327347311], [-73.09813169945234, 7.0654809897364], [-73.09971173400146, 7.066783866702362], [-73.09988197036894, 7.066802732472735], [-73.09939813043361, 7.068478035843921], [-73.09739170123386, 7.069662519377093], [-73.09425480482622, 7.070084592092566], [-73.09563106516384, 7.072774506364219], [-73.09978074614651, 7.074075937348372], [-73.10122526632428, 7.081076078663795], [-73.10027334082696, 7.082116468563629], [-73.10144599611694, 7.083751327835267], [-73.10060054439107, 7.084936805193632], [-73.10062699058903, 7.086310430394935], [-73.1015594072004, 7.08716462247292], [-73.10170543524941, 7.086478273643215], [-73.10368109802934, 7.085238363007486], [-73.10791197567605, 7.082578298093591], [-73.10818557005503, 7.07603556702479], [-73.10955117328037, 7.074541637637961], [-73.1098182016003, 7.073688342728778], [-73.10975434755144, 7.072566415586597], [-73.11074693460489, 7.070475293207069], [-73.11081383543461, 7.070263258555626], [-73.11136594790115, 7.070170031665828], [-73.11197252143504, 7.07023730171894], [-73.11182964123303, 7.071683141875659], [-73.11168451634714, 7.071884878008239], [-73.11185873413609, 7.071983407341778], [-73.11195052720326, 7.072081172576916], [-73.11210257523398, 7.072374688475915], [-73.11211659330056, 7.072522133434232], [-73.11213933790543, 7.072766091866924], [-73.11205528642819, 7.073213004912712], [-73.11202250129116, 7.073313496709512], [-73.11046743201342, 7.071421679444295], [-73.11188362010786, 7.073167868150419], [-73.11070302613366, 7.074139106676177], [-73.10958050597166, 7.070028859679072], [-73.10968357977188, 7.070456400191471], [-73.11009559142008, 7.069747305330989], [-73.11147339033164, 7.069468792643765], [-73.10980923240788, 7.068524503029051], [-73.10949866387921, 7.068193576370031], [-73.10978793160629, 7.068495558797689], [-73.10978822202536, 7.068517359459208], [-73.11120005503273, 7.069300657546327], [-73.11035394334455, 7.069297176838802], [-73.10976497650458, 7.069314904508094], [-73.10969094167558, 7.069284983431219], [-73.10954440834936, 7.069131641277009], [-73.10936045151296, 7.069160670466467], [-73.10890059324439, 7.069215170518867], [-73.10948827684568, 7.069121561652692], [-73.11014789313211, 7.068600015059386], [-73.11118777060662, 7.069286470655706], [-73.11188820877874, 7.068349733473965], [-73.11137480481159, 7.068196632587421], [-73.11077693609198, 7.067926906473902], [-73.1155236841527, 7.069905903028383], [-73.11545659757037, 7.07002721853886], [-73.11500834996639, 7.070771117206614], [-73.11552578007645, 7.070779471553669], [-73.11628095647, 7.070704234820612], [-73.11636565060023, 7.070100542401985], [-73.11732242193614, 7.069546828517998], [-73.11665771238255, 7.068646631268775], [-73.11652269946823, 7.06854690922575], [-73.11481671921565, 7.067133348282163], [-73.11151401754665, 7.068240440293714], [-73.11113291402411, 7.066445682083038], [-73.11090532231194, 7.065459152588809], [-73.1108258339047, 7.064180742144973], [-73.10953670644874, 7.06427243211492], [-73.10941588893796, 7.061926008322876], [-73.1091692199627, 7.061835575019222], [-73.1082559470318, 7.062128248653503], [-73.1053102804896, 7.06319323502279]]</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>4200</v>
       </c>
       <c r="D76" t="n">
         <v>118</v>
@@ -2496,13 +2346,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>[[-73.1007530545257, 7.06434847166627], [-73.09964982534495, 7.064275610330373], [-73.1000408915767, 7.065318037833547], [-73.10054036782607, 7.065229030855723], [-73.10115500878027, 7.065112636090555], [-73.1007530545257, 7.06434847166627]]</t>
-        </is>
+          <t>[[-73.0651432853578, 7.01980129735251], [-73.06451034772003, 7.01867645084607], [-73.06347491411077, 7.019326254751442], [-73.06412062179339, 7.020322419012994], [-73.0651432853578, 7.01980129735251]]</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>6200</v>
       </c>
       <c r="D77" t="n">
         <v>118</v>
@@ -2523,13 +2371,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>[[-73.09776908631191, 7.063713686520525], [-73.09805735163205, 7.064426667381325], [-73.09822118592525, 7.064594102502566], [-73.09832294037557, 7.064685125502025], [-73.09885275043531, 7.064961420956243], [-73.099671890072, 7.065378945820441], [-73.10003212017298, 7.065306272651373], [-73.09964693445343, 7.064283681437114], [-73.09776908631191, 7.063713686520525]]</t>
-        </is>
+          <t>[[-73.07126431571606, 7.068211907029884], [-73.07001654516718, 7.068908041458931], [-73.07128407454515, 7.071057423273364], [-73.07230733045924, 7.070552915280947], [-73.07126431571606, 7.068211907029884]]</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>6200</v>
       </c>
       <c r="D78" t="n">
         <v>118</v>
@@ -2550,13 +2396,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>[[-73.1095135029857, 7.069108820510062], [-73.10969665309867, 7.069291155020189], [-73.10977401381, 7.06931015981035], [-73.11118028130707, 7.069295858685987], [-73.11015914010576, 7.068588570064106], [-73.1095135029857, 7.069108820510062]]</t>
-        </is>
+          <t>[[-73.08533640827142, 7.077559017727263], [-73.085333648466, 7.077367171082314], [-73.08345532144193, 7.077564153384441], [-73.08326503234133, 7.07858013152909], [-73.08512450141777, 7.078783262368691], [-73.08508529744637, 7.078454169723615], [-73.08533640827142, 7.077559017727263]]</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>4600</v>
       </c>
       <c r="D79" t="n">
         <v>118</v>
@@ -2577,13 +2421,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>[[-73.1053102804896, 7.06319323502279], [-73.10524709852955, 7.06320999428276], [-73.10376521861313, 7.06348228246952], [-73.10292069906956, 7.063611888591504], [-73.10074930857844, 7.064337851244111], [-73.10116316320868, 7.065104296815145], [-73.10144456180899, 7.065060416765066], [-73.09968212528318, 7.0653795742436], [-73.09907203422924, 7.065078457646814], [-73.09830084056449, 7.064706488860595], [-73.09826256284425, 7.064874786539035], [-73.09771220591699, 7.065157327347311], [-73.09813169945234, 7.0654809897364], [-73.09971173400146, 7.066783866702362], [-73.09988197036894, 7.066802732472735], [-73.09939813043361, 7.068478035843921], [-73.09739170123386, 7.069662519377093], [-73.09425480482622, 7.070084592092566], [-73.09563106516384, 7.072774506364219], [-73.09978074614651, 7.074075937348372], [-73.10122526632428, 7.081076078663795], [-73.10027334082696, 7.082116468563629], [-73.10144599611694, 7.083751327835267], [-73.10060054439107, 7.084936805193632], [-73.10062699058903, 7.086310430394935], [-73.1015594072004, 7.08716462247292], [-73.10170543524941, 7.086478273643215], [-73.10368109802934, 7.085238363007486], [-73.10791197567605, 7.082578298093591], [-73.10818557005503, 7.07603556702479], [-73.10955117328037, 7.074541637637961], [-73.1098182016003, 7.073688342728778], [-73.10975434755144, 7.072566415586597], [-73.11074693460489, 7.070475293207069], [-73.11081383543461, 7.070263258555626], [-73.11136594790115, 7.070170031665828], [-73.11197252143504, 7.07023730171894], [-73.11182964123303, 7.071683141875659], [-73.11168451634714, 7.071884878008239], [-73.11185873413609, 7.071983407341778], [-73.11195052720326, 7.072081172576916], [-73.11210257523398, 7.072374688475915], [-73.11211659330056, 7.072522133434232], [-73.11213933790543, 7.072766091866924], [-73.11205528642819, 7.073213004912712], [-73.11202250129116, 7.073313496709512], [-73.11046743201342, 7.071421679444295], [-73.11188362010786, 7.073167868150419], [-73.11070302613366, 7.074139106676177], [-73.10958050597166, 7.070028859679072], [-73.10968357977188, 7.070456400191471], [-73.11009559142008, 7.069747305330989], [-73.11147339033164, 7.069468792643765], [-73.10980923240788, 7.068524503029051], [-73.10949866387921, 7.068193576370031], [-73.10978793160629, 7.068495558797689], [-73.10978822202536, 7.068517359459208], [-73.11120005503273, 7.069300657546327], [-73.11035394334455, 7.069297176838802], [-73.10976497650458, 7.069314904508094], [-73.10969094167558, 7.069284983431219], [-73.10954440834936, 7.069131641277009], [-73.10936045151296, 7.069160670466467], [-73.10890059324439, 7.069215170518867], [-73.10948827684568, 7.069121561652692], [-73.11014789313211, 7.068600015059386], [-73.11118777060662, 7.069286470655706], [-73.11188820877874, 7.068349733473965], [-73.11137480481159, 7.068196632587421], [-73.11077693609198, 7.067926906473902], [-73.1155236841527, 7.069905903028383], [-73.11545659757037, 7.07002721853886], [-73.11500834996639, 7.070771117206614], [-73.11552578007645, 7.070779471553669], [-73.11628095647, 7.070704234820612], [-73.11636565060023, 7.070100542401985], [-73.11732242193614, 7.069546828517998], [-73.11665771238255, 7.068646631268775], [-73.11652269946823, 7.06854690922575], [-73.11481671921565, 7.067133348282163], [-73.11151401754665, 7.068240440293714], [-73.11113291402411, 7.066445682083038], [-73.11090532231194, 7.065459152588809], [-73.1108258339047, 7.064180742144973], [-73.10953670644874, 7.06427243211492], [-73.10941588893796, 7.061926008322876], [-73.1091692199627, 7.061835575019222], [-73.1082559470318, 7.062128248653503], [-73.1053102804896, 7.06319323502279]]</t>
-        </is>
+          <t>[[-73.05509535424572, 7.004181971238925], [-73.05250951938416, 7.005085622738319], [-73.05230152061215, 7.005094169602237], [-73.05186605702471, 7.005089351052439], [-73.05146166040694, 7.005065157193446], [-73.05060561635953, 7.007595939692205], [-73.05574597528914, 7.006524129573483], [-73.05562553474219, 7.00536741863823], [-73.05509535424572, 7.004181971238925]]</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>3400</v>
       </c>
       <c r="D80" t="n">
         <v>118</v>
@@ -2604,13 +2446,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
+          <t>[[-73.13494378053645, 7.159748987286662], [-73.13397878513744, 7.15923426082242], [-73.1330114803819, 7.159157818917267], [-73.13117970696204, 7.159502931254189], [-73.12946699296022, 7.161826778822817], [-73.13196733534858, 7.164191485477758], [-73.13494378053645, 7.159748987286662]]</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>9000</v>
       </c>
       <c r="D81" t="n">
         <v>118</v>
@@ -2631,13 +2471,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6200</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>[[-73.0651432853578, 7.01980129735251], [-73.06451034772003, 7.01867645084607], [-73.06347491411077, 7.019326254751442], [-73.06412062179339, 7.020322419012994], [-73.0651432853578, 7.01980129735251]]</t>
-        </is>
+          <t>[[-73.07863643446667, 7.058610387376597], [-73.07982633035817, 7.057198766493826], [-73.0791605059014, 7.055776589437902], [-73.07708230662084, 7.057212415435545], [-73.07863643446667, 7.058610387376597]]</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>4300</v>
       </c>
       <c r="D82" t="n">
         <v>118</v>
@@ -2658,13 +2496,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>6200</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>[[-73.07126431571606, 7.068211907029884], [-73.07001654516718, 7.068908041458931], [-73.07128407454515, 7.071057423273364], [-73.07230733045924, 7.070552915280947], [-73.07126431571606, 7.068211907029884]]</t>
-        </is>
+          <t>[[-73.06480107239416, 7.032646139320827], [-73.06217957539606, 7.031963544111283], [-73.06273180482906, 7.034403109391146], [-73.06444635818733, 7.033612312031689], [-73.06480107239416, 7.032646139320827]]</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>5800</v>
       </c>
       <c r="D83" t="n">
         <v>118</v>
@@ -2685,13 +2521,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>[[-73.08533640827142, 7.077559017727263], [-73.085333648466, 7.077367171082314], [-73.08345532144193, 7.077564153384441], [-73.08326503234133, 7.07858013152909], [-73.08512450141777, 7.078783262368691], [-73.08508529744637, 7.078454169723615], [-73.08533640827142, 7.077559017727263]]</t>
-        </is>
+          <t>[[-73.10563821128589, 7.060910324456087], [-73.10447482333697, 7.060532151600361], [-73.10447215765912, 7.061226450785739], [-73.10569550341275, 7.061361960365478], [-73.10563821128589, 7.060910324456087]]</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>4600</v>
       </c>
       <c r="D84" t="n">
         <v>118</v>
@@ -2712,13 +2546,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>[[-73.05509535424572, 7.004181971238925], [-73.05250951938416, 7.005085622738319], [-73.05230152061215, 7.005094169602237], [-73.05186605702471, 7.005089351052439], [-73.05146166040694, 7.005065157193446], [-73.05060561635953, 7.007595939692205], [-73.05574597528914, 7.006524129573483], [-73.05562553474219, 7.00536741863823], [-73.05509535424572, 7.004181971238925]]</t>
-        </is>
+          <t>[[-73.11100282290455, 7.078201550304791], [-73.11046854585962, 7.07808179623376], [-73.11040200460069, 7.078139525498434], [-73.11074014057527, 7.079027025543423], [-73.11094757445032, 7.078855106391434], [-73.11100282290455, 7.078201550304791]]</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3400</v>
       </c>
       <c r="D85" t="n">
         <v>118</v>
@@ -2739,13 +2571,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO VAMOS NUNCA</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>[[-73.09093237501685, 7.087903629896076], [-73.09081757775492, 7.087828341953262], [-73.09056432968886, 7.08782825363348], [-73.08988528943676, 7.087833143696285], [-73.08929852263388, 7.087664481470417], [-73.08870619638468, 7.087663743481826], [-73.08800822593878, 7.087476308734379], [-73.08866829950932, 7.088937143661562], [-73.09093237501685, 7.087903629896076]]</t>
-        </is>
+          <t>[[-73.1033936504063, 7.060620698316618], [-73.1038827361853, 7.05751574922884], [-73.10054170065604, 7.059385712561139], [-73.10126462447, 7.061158997203477], [-73.1033936504063, 7.060620698316618]]</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>5100</v>
       </c>
       <c r="D86" t="n">
         <v>118</v>
@@ -2766,13 +2596,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>9000</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>[[-73.13494378053645, 7.159748987286662], [-73.13397878513744, 7.15923426082242], [-73.1330114803819, 7.159157818917267], [-73.13117970696204, 7.159502931254189], [-73.12946699296022, 7.161826778822817], [-73.13196733534858, 7.164191485477758], [-73.13494378053645, 7.159748987286662]]</t>
-        </is>
+          <t>[[-73.11529544155667, 7.07079383635652], [-73.11625007336448, 7.070661817073691], [-73.11630130518728, 7.071330427600008], [-73.11640012749308, 7.072075013529986], [-73.1167684561658, 7.071749545684388], [-73.11723432837711, 7.071317908824134], [-73.11651510928725, 7.070094515511645], [-73.11499644059774, 7.070767751077714], [-73.1147130010355, 7.071224944141523], [-73.11411318609564, 7.071402161460162], [-73.11468885244413, 7.071240167492052], [-73.11529544155667, 7.07079383635652]]</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3400</v>
       </c>
       <c r="D87" t="n">
         <v>118</v>
@@ -2793,13 +2621,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4300</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>[[-73.07863643446667, 7.058610387376597], [-73.07982633035817, 7.057198766493826], [-73.0791605059014, 7.055776589437902], [-73.07708230662084, 7.057212415435545], [-73.07863643446667, 7.058610387376597]]</t>
-        </is>
+          <t>[[-73.10764150117298, 7.061327815224323], [-73.10800827315052, 7.062133276393097], [-73.10923127604042, 7.061683837320762], [-73.10943157785326, 7.061253779701635], [-73.10849035969682, 7.061224594380128], [-73.10764150117298, 7.061327815224323]]</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>4600</v>
       </c>
       <c r="D88" t="n">
         <v>118</v>
@@ -2820,13 +2646,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>[[-73.12182413702078, 7.077507328920413], [-73.12257534865516, 7.077556136230867], [-73.12291371632163, 7.077425689207439], [-73.12309366445706, 7.077582679687938], [-73.12360824078942, 7.077411548020201], [-73.12384877290371, 7.077040707477093], [-73.12497370893533, 7.077434691006204], [-73.12900830945021, 7.073885643345128], [-73.12530575470892, 7.072245817448405], [-73.12333364208479, 7.06989085147634], [-73.1195914051688, 7.072663712859965], [-73.11633836203147, 7.074811796920629], [-73.1187605876215, 7.076098906670736], [-73.12084555796255, 7.079764437601816], [-73.12182413702078, 7.077507328920413]]</t>
-        </is>
+          <t>[[-73.11579654373197, 7.072668794290122], [-73.11640434091812, 7.072073408528414], [-73.11632902062196, 7.071458132604059], [-73.11488032353705, 7.07184295842248], [-73.11514835155111, 7.072908149167954], [-73.11579654373197, 7.072668794290122]]</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4200</v>
       </c>
       <c r="D89" t="n">
         <v>118</v>
@@ -2847,13 +2671,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5800</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[[-73.06480107239416, 7.032646139320827], [-73.06217957539606, 7.031963544111283], [-73.06273180482906, 7.034403109391146], [-73.06444635818733, 7.033612312031689], [-73.06480107239416, 7.032646139320827]]</t>
-        </is>
+          <t>[[-73.13340970457905, 7.061525796483648], [-73.1317145040488, 7.062101222429463], [-73.13284369710289, 7.06592527598328], [-73.13383064262311, 7.066288396734208], [-73.13525617426431, 7.064839579634792], [-73.13340970457905, 7.061525796483648]]</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>5100</v>
       </c>
       <c r="D90" t="n">
         <v>118</v>
@@ -2874,13 +2696,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>[[-73.10563821128589, 7.060910324456087], [-73.10447482333697, 7.060532151600361], [-73.10447215765912, 7.061226450785739], [-73.10569550341275, 7.061361960365478], [-73.10563821128589, 7.060910324456087]]</t>
-        </is>
+          <t>[[-73.15987162619923, 7.062968228843829], [-73.15997735203254, 7.062510665826718], [-73.15988937170256, 7.061613185518977], [-73.15922231751193, 7.060751223972256], [-73.15834599764533, 7.059940027194566], [-73.15675402294848, 7.060397455891783], [-73.15698380530482, 7.063686412445176], [-73.1594811479121, 7.063983849759127], [-73.15987162619923, 7.062968228843829]]</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>7500</v>
       </c>
       <c r="D91" t="n">
         <v>118</v>
@@ -2901,13 +2721,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>[[-73.11100282290455, 7.078201550304791], [-73.11046854585962, 7.07808179623376], [-73.11040200460069, 7.078139525498434], [-73.11074014057527, 7.079027025543423], [-73.11094757445032, 7.078855106391434], [-73.11100282290455, 7.078201550304791]]</t>
-        </is>
+          <t>[[-73.0718634922284, 6.959641250059524], [-73.06548785471806, 6.956998231242922], [-73.0619517995365, 6.966338153307254], [-73.0700977983979, 6.971258218028025], [-73.0718634922284, 6.959641250059524]]</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>4900</v>
       </c>
       <c r="D92" t="n">
         <v>118</v>
@@ -2928,13 +2746,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>5100</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>[[-73.1033936504063, 7.060620698316618], [-73.1038827361853, 7.05751574922884], [-73.10054170065604, 7.059385712561139], [-73.10126462447, 7.061158997203477], [-73.1033936504063, 7.060620698316618]]</t>
-        </is>
+          <t>[[-73.10632749443782, 7.112110550308693], [-73.10381088186, 7.111710415530118], [-73.10376789509496, 7.114176741243296], [-73.1053629503393, 7.113807745115068], [-73.10632749443782, 7.112110550308693]]</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4600</v>
       </c>
       <c r="D93" t="n">
         <v>118</v>
@@ -2955,13 +2771,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3400</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>[[-73.11529544155667, 7.07079383635652], [-73.11625007336448, 7.070661817073691], [-73.11630130518728, 7.071330427600008], [-73.11640012749308, 7.072075013529986], [-73.1167684561658, 7.071749545684388], [-73.11723432837711, 7.071317908824134], [-73.11651510928725, 7.070094515511645], [-73.11499644059774, 7.070767751077714], [-73.1147130010355, 7.071224944141523], [-73.11411318609564, 7.071402161460162], [-73.11468885244413, 7.071240167492052], [-73.11529544155667, 7.07079383635652]]</t>
-        </is>
+          <t>[[-73.05201354946341, 6.977381412686945], [-73.05091320021283, 6.977906246055933], [-73.05217465275068, 6.97968413010251], [-73.05314382773982, 6.979499119560485], [-73.05300532797999, 6.979023236598215], [-73.0525151756998, 6.978020610324641], [-73.05201354946341, 6.977381412686945]]</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>4900</v>
       </c>
       <c r="D94" t="n">
         <v>118</v>
@@ -2982,13 +2796,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>[[-73.10764150117298, 7.061327815224323], [-73.10800827315052, 7.062133276393097], [-73.10923127604042, 7.061683837320762], [-73.10943157785326, 7.061253779701635], [-73.10849035969682, 7.061224594380128], [-73.10764150117298, 7.061327815224323]]</t>
-        </is>
+          <t>[[-73.11289663323467, 7.050868369528142], [-73.10938382625753, 7.052096799771848], [-73.11258446258596, 7.056735137452977], [-73.11463064015105, 7.055665208328476], [-73.11289663323467, 7.050868369528142]]</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>4600</v>
       </c>
       <c r="D95" t="n">
         <v>118</v>
@@ -3009,13 +2821,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>[[-73.11579654373197, 7.072668794290122], [-73.11640434091812, 7.072073408528414], [-73.11632902062196, 7.071458132604059], [-73.11488032353705, 7.07184295842248], [-73.11514835155111, 7.072908149167954], [-73.11579654373197, 7.072668794290122]]</t>
-        </is>
+          <t>[[-73.16363538609222, 7.097570240371992], [-73.16280358971271, 7.097310661767386], [-73.16259017262495, 7.098152645774517], [-73.16344657870573, 7.098439109270172], [-73.16363538609222, 7.097570240371992]]</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>9000</v>
       </c>
       <c r="D96" t="n">
         <v>118</v>
@@ -3036,13 +2846,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5100</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>[[-73.13340970457905, 7.061525796483648], [-73.1317145040488, 7.062101222429463], [-73.13284369710289, 7.06592527598328], [-73.13383064262311, 7.066288396734208], [-73.13525617426431, 7.064839579634792], [-73.13340970457905, 7.061525796483648]]</t>
-        </is>
+          <t>[[-73.09515469478323, 7.123421756436403], [-73.09411178056754, 7.123782767914743], [-73.09447979093243, 7.124843733316233], [-73.09549218547586, 7.12439706227207], [-73.09515469478323, 7.123421756436403]]</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>6200</v>
       </c>
       <c r="D97" t="n">
         <v>118</v>
@@ -3063,13 +2871,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>7500</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>[[-73.15987162619923, 7.062968228843829], [-73.15997735203254, 7.062510665826718], [-73.15988937170256, 7.061613185518977], [-73.15922231751193, 7.060751223972256], [-73.15834599764533, 7.059940027194566], [-73.15675402294848, 7.060397455891783], [-73.15698380530482, 7.063686412445176], [-73.1594811479121, 7.063983849759127], [-73.15987162619923, 7.062968228843829]]</t>
-        </is>
+          <t>[[-73.09352875502589, 7.057408406870956], [-73.09107463076768, 7.055818440418883], [-73.09109438538084, 7.058558862893851], [-73.09349318726393, 7.057845746629679], [-73.09352875502589, 7.057408406870956]]</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>3900</v>
       </c>
       <c r="D98" t="n">
         <v>118</v>
@@ -3090,13 +2896,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>[[-73.0718634922284, 6.959641250059524], [-73.06548785471806, 6.956998231242922], [-73.0619517995365, 6.966338153307254], [-73.0700977983979, 6.971258218028025], [-73.0718634922284, 6.959641250059524]]</t>
-        </is>
+          <t>[[-73.10533936972375, 7.057944923298307], [-73.10474260266493, 7.057940817852028], [-73.10481276186586, 7.058978282904501], [-73.10571346054591, 7.058486826647549], [-73.10533936972375, 7.057944923298307]]</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>4600</v>
       </c>
       <c r="D99" t="n">
         <v>118</v>
@@ -3117,13 +2921,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>[[-73.10632749443782, 7.112110550308693], [-73.10381088186, 7.111710415530118], [-73.10376789509496, 7.114176741243296], [-73.1053629503393, 7.113807745115068], [-73.10632749443782, 7.112110550308693]]</t>
-        </is>
+          <t>[[-73.14171511900585, 7.146267228727445], [-73.13591282847493, 7.148238467420147], [-73.13748280618432, 7.150599564842083], [-73.13996659707533, 7.150945190070785], [-73.14218132629242, 7.149461190972371], [-73.14171511900585, 7.146267228727445]]</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>4900</v>
       </c>
       <c r="D100" t="n">
         <v>118</v>
@@ -3144,13 +2946,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>[[-73.05201354946341, 6.977381412686945], [-73.05091320021283, 6.977906246055933], [-73.05217465275068, 6.97968413010251], [-73.05314382773982, 6.979499119560485], [-73.05300532797999, 6.979023236598215], [-73.0525151756998, 6.978020610324641], [-73.05201354946341, 6.977381412686945]]</t>
-        </is>
+          <t>[[-73.09626062908144, 7.101537243688533], [-73.09589211864574, 7.101378655729825], [-73.09564633824162, 7.10083206840367], [-73.09465467565694, 7.102939573251121], [-73.09519636145282, 7.103766219436929], [-73.09523948504238, 7.103011998084567], [-73.09556104742147, 7.102257715498467], [-73.09617091392259, 7.102530890691809], [-73.09626062908144, 7.101537243688533]]</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>4200</v>
       </c>
       <c r="D101" t="n">
         <v>118</v>
@@ -3171,13 +2971,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>[[-73.11289663323467, 7.050868369528142], [-73.10938382625753, 7.052096799771848], [-73.11258446258596, 7.056735137452977], [-73.11463064015105, 7.055665208328476], [-73.11289663323467, 7.050868369528142]]</t>
-        </is>
+          <t>[[-73.09464674954125, 7.102945870285014], [-73.09565750512131, 7.100817631611612], [-73.09554388185879, 7.100599149030525], [-73.09402860844394, 7.100134762525038], [-73.09361240949067, 7.102610528342051], [-73.09464674954125, 7.102945870285014]]</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>4200</v>
       </c>
       <c r="D102" t="n">
         <v>118</v>
@@ -3198,13 +2996,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9000</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>[[-73.16363538609222, 7.097570240371992], [-73.16280358971271, 7.097310661767386], [-73.16259017262495, 7.098152645774517], [-73.16344657870573, 7.098439109270172], [-73.16363538609222, 7.097570240371992]]</t>
-        </is>
+          <t>[[-73.10448519640612, 7.059633007761343], [-73.10354239447481, 7.05976737724305], [-73.1034185749986, 7.060673918201868], [-73.10409044609773, 7.060518737953339], [-73.10405623296178, 7.061164490222495], [-73.10423940346888, 7.061156978561574], [-73.10429107234863, 7.060648191327522], [-73.10469013301025, 7.060184078817259], [-73.10448519640612, 7.059633007761343]]</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>4600</v>
       </c>
       <c r="D103" t="n">
         <v>118</v>
@@ -3216,303 +3012,6 @@
         <v>20</v>
       </c>
       <c r="G103" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>6200</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>[[-73.09515469478323, 7.123421756436403], [-73.09411178056754, 7.123782767914743], [-73.09447979093243, 7.124843733316233], [-73.09549218547586, 7.12439706227207], [-73.09515469478323, 7.123421756436403]]</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>118</v>
-      </c>
-      <c r="E104" t="n">
-        <v>3</v>
-      </c>
-      <c r="F104" t="n">
-        <v>20</v>
-      </c>
-      <c r="G104" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>3900</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>[[-73.09352875502589, 7.057408406870956], [-73.09107463076768, 7.055818440418883], [-73.09109438538084, 7.058558862893851], [-73.09349318726393, 7.057845746629679], [-73.09352875502589, 7.057408406870956]]</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>118</v>
-      </c>
-      <c r="E105" t="n">
-        <v>3</v>
-      </c>
-      <c r="F105" t="n">
-        <v>20</v>
-      </c>
-      <c r="G105" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>[[-73.10533936972375, 7.057944923298307], [-73.10474260266493, 7.057940817852028], [-73.10481276186586, 7.058978282904501], [-73.10571346054591, 7.058486826647549], [-73.10533936972375, 7.057944923298307]]</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>118</v>
-      </c>
-      <c r="E106" t="n">
-        <v>3</v>
-      </c>
-      <c r="F106" t="n">
-        <v>20</v>
-      </c>
-      <c r="G106" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>[[-73.11486299397521, 7.071870359144634], [-73.11479474143675, 7.071870314546405], [-73.11467343447887, 7.071612233553291], [-73.11393211024098, 7.071374580234486], [-73.11360236068418, 7.072026242071243], [-73.11473549339257, 7.073051109788976], [-73.11512041929991, 7.072900680837956], [-73.11486299397521, 7.071870359144634]]</t>
-        </is>
-      </c>
-      <c r="D107" t="n">
-        <v>118</v>
-      </c>
-      <c r="E107" t="n">
-        <v>3</v>
-      </c>
-      <c r="F107" t="n">
-        <v>20</v>
-      </c>
-      <c r="G107" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>[[-73.10946732735171, 7.06018881637138], [-73.10742583548728, 7.059399865711571], [-73.10678743738853, 7.059347984147591], [-73.10659870746089, 7.060292969584936], [-73.10739048592033, 7.06071630663257], [-73.10762515438456, 7.061282441547092], [-73.109392516275, 7.061235302176605], [-73.10957568168767, 7.060865717480704], [-73.10946732735171, 7.06018881637138]]</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>118</v>
-      </c>
-      <c r="E108" t="n">
-        <v>3</v>
-      </c>
-      <c r="F108" t="n">
-        <v>20</v>
-      </c>
-      <c r="G108" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>4900</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>[[-73.14171511900585, 7.146267228727445], [-73.13591282847493, 7.148238467420147], [-73.13748280618432, 7.150599564842083], [-73.13996659707533, 7.150945190070785], [-73.14218132629242, 7.149461190972371], [-73.14171511900585, 7.146267228727445]]</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>118</v>
-      </c>
-      <c r="E109" t="n">
-        <v>3</v>
-      </c>
-      <c r="F109" t="n">
-        <v>20</v>
-      </c>
-      <c r="G109" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>[[-73.09626062908144, 7.101537243688533], [-73.09589211864574, 7.101378655729825], [-73.09564633824162, 7.10083206840367], [-73.09465467565694, 7.102939573251121], [-73.09519636145282, 7.103766219436929], [-73.09523948504238, 7.103011998084567], [-73.09556104742147, 7.102257715498467], [-73.09617091392259, 7.102530890691809], [-73.09626062908144, 7.101537243688533]]</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>118</v>
-      </c>
-      <c r="E110" t="n">
-        <v>3</v>
-      </c>
-      <c r="F110" t="n">
-        <v>20</v>
-      </c>
-      <c r="G110" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>4200</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>[[-73.09464674954125, 7.102945870285014], [-73.09565750512131, 7.100817631611612], [-73.09554388185879, 7.100599149030525], [-73.09402860844394, 7.100134762525038], [-73.09361240949067, 7.102610528342051], [-73.09464674954125, 7.102945870285014]]</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>118</v>
-      </c>
-      <c r="E111" t="n">
-        <v>3</v>
-      </c>
-      <c r="F111" t="n">
-        <v>20</v>
-      </c>
-      <c r="G111" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>[[-73.10448519640612, 7.059633007761343], [-73.10354239447481, 7.05976737724305], [-73.1034185749986, 7.060673918201868], [-73.10409044609773, 7.060518737953339], [-73.10405623296178, 7.061164490222495], [-73.10423940346888, 7.061156978561574], [-73.10429107234863, 7.060648191327522], [-73.10469013301025, 7.060184078817259], [-73.10448519640612, 7.059633007761343]]</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>118</v>
-      </c>
-      <c r="E112" t="n">
-        <v>3</v>
-      </c>
-      <c r="F112" t="n">
-        <v>20</v>
-      </c>
-      <c r="G112" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>[[-73.09398331801555, 7.098564867042533], [-73.0934654841046, 7.098653970301526], [-73.0933994770527, 7.10019167377352], [-73.09412601261425, 7.099860802438863], [-73.09398331801555, 7.098564867042533]]</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>118</v>
-      </c>
-      <c r="E113" t="n">
-        <v>3</v>
-      </c>
-      <c r="F113" t="n">
-        <v>20</v>
-      </c>
-      <c r="G113" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>[[-73.11625595522764, 7.070718808252713], [-73.11530585555236, 7.070776260293491], [-73.11468514893683, 7.071248081770749], [-73.11404071024552, 7.071397223098857], [-73.11467050671965, 7.0716085259684], [-73.11479554919543, 7.071858593703987], [-73.11632466677536, 7.071468109112217], [-73.11625595522764, 7.070718808252713]]</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>118</v>
-      </c>
-      <c r="E114" t="n">
-        <v>3</v>
-      </c>
-      <c r="F114" t="n">
-        <v>20</v>
-      </c>
-      <c r="G114" t="n">
         <v>9</v>
       </c>
     </row>
